--- a/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
@@ -1076,7 +1076,7 @@
         <v>501</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -1135,16 +1135,16 @@
         <v>15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R4" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S4" t="n">
         <v>1.29</v>
@@ -1860,7 +1860,7 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
         <v>1.33</v>
@@ -1869,10 +1869,10 @@
         <v>3.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S8" t="n">
         <v>1.44</v>
@@ -2021,16 +2021,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H9" t="n">
         <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
@@ -2063,13 +2063,13 @@
         <v>2.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X9" t="n">
         <v>15</v>
@@ -2081,7 +2081,7 @@
         <v>29</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB9" t="n">
         <v>29</v>
@@ -2102,7 +2102,7 @@
         <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI9" t="n">
         <v>12</v>
@@ -2117,10 +2117,10 @@
         <v>19</v>
       </c>
       <c r="AM9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO9" t="n">
         <v>15</v>
@@ -2153,7 +2153,7 @@
         <v>13</v>
       </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ9" t="n">
         <v>41</v>
@@ -6228,7 +6228,7 @@
         <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O32" t="n">
         <v>1.17</v>
@@ -7481,22 +7481,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H39" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I39" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J39" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K39" t="n">
         <v>2.3</v>
       </c>
       <c r="L39" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M39" t="n">
         <v>1.04</v>
@@ -7541,7 +7541,7 @@
         <v>41</v>
       </c>
       <c r="AA39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB39" t="n">
         <v>34</v>
@@ -7562,10 +7562,10 @@
         <v>201</v>
       </c>
       <c r="AH39" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ39" t="n">
         <v>8.5</v>
@@ -7574,7 +7574,7 @@
         <v>15</v>
       </c>
       <c r="AL39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM39" t="n">
         <v>23</v>
@@ -7586,7 +7586,7 @@
         <v>21</v>
       </c>
       <c r="AP39" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ39" t="n">
         <v>67</v>
@@ -7610,7 +7610,7 @@
         <v>4</v>
       </c>
       <c r="AX39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY39" t="n">
         <v>19</v>
@@ -7619,7 +7619,7 @@
         <v>29</v>
       </c>
       <c r="BA39" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB39" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
@@ -947,10 +947,10 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
         <v>1.29</v>
@@ -1493,10 +1493,10 @@
         <v>3.2</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -3498,7 +3498,7 @@
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
         <v>1.18</v>
@@ -3507,10 +3507,10 @@
         <v>4.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R17" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S17" t="n">
         <v>1.3</v>
@@ -7264,7 +7264,7 @@
         <v>126</v>
       </c>
       <c r="BD37" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38">
@@ -8057,10 +8057,10 @@
         <v>4</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R42" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S42" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H4" t="n">
         <v>4.75</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
@@ -5300,19 +5300,19 @@
         <v>3</v>
       </c>
       <c r="H27" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I27" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K27" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L27" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M27" t="n">
         <v>1.03</v>
@@ -5333,22 +5333,22 @@
         <v>2.35</v>
       </c>
       <c r="S27" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U27" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V27" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W27" t="n">
         <v>13</v>
       </c>
       <c r="X27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y27" t="n">
         <v>11</v>
@@ -5360,10 +5360,10 @@
         <v>21</v>
       </c>
       <c r="AB27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD27" t="n">
         <v>7.5</v>
@@ -5375,7 +5375,7 @@
         <v>34</v>
       </c>
       <c r="AG27" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH27" t="n">
         <v>11</v>
@@ -5411,10 +5411,10 @@
         <v>51</v>
       </c>
       <c r="AS27" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU27" t="n">
         <v>7</v>
@@ -5429,13 +5429,13 @@
         <v>11</v>
       </c>
       <c r="AY27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ27" t="n">
         <v>34</v>
       </c>
       <c r="BA27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB27" t="n">
         <v>101</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H35" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I35" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J35" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K35" t="n">
         <v>2.2</v>
@@ -6795,10 +6795,10 @@
         <v>2.63</v>
       </c>
       <c r="U35" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W35" t="n">
         <v>6</v>
@@ -6810,13 +6810,13 @@
         <v>8.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA35" t="n">
         <v>15</v>
       </c>
       <c r="AB35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC35" t="n">
         <v>9</v>
@@ -6825,7 +6825,7 @@
         <v>7.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF35" t="n">
         <v>67</v>
@@ -6843,7 +6843,7 @@
         <v>19</v>
       </c>
       <c r="AK35" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL35" t="n">
         <v>41</v>
@@ -6852,16 +6852,16 @@
         <v>51</v>
       </c>
       <c r="AN35" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP35" t="n">
         <v>21</v>
       </c>
       <c r="AQ35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR35" t="n">
         <v>51</v>
@@ -6882,7 +6882,7 @@
         <v>7</v>
       </c>
       <c r="AX35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY35" t="n">
         <v>41</v>
@@ -7264,7 +7264,7 @@
         <v>126</v>
       </c>
       <c r="BD37" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38">
@@ -7696,7 +7696,7 @@
         <v>3.1</v>
       </c>
       <c r="R40" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S40" t="n">
         <v>1.67</v>
@@ -7875,7 +7875,7 @@
         <v>4</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R41" t="n">
         <v>2.05</v>
@@ -8057,10 +8057,10 @@
         <v>4</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="R42" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="S42" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H4" t="n">
         <v>4.75</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
@@ -5679,13 +5679,13 @@
         <v>2.6</v>
       </c>
       <c r="M29" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N29" t="n">
         <v>15</v>
       </c>
       <c r="O29" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P29" t="n">
         <v>4.33</v>
@@ -5861,13 +5861,13 @@
         <v>4.75</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
         <v>11</v>
       </c>
       <c r="O30" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P30" t="n">
         <v>3.75</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H35" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I35" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J35" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K35" t="n">
         <v>2.2</v>
@@ -6771,10 +6771,10 @@
         <v>6</v>
       </c>
       <c r="M35" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O35" t="n">
         <v>1.33</v>
@@ -6789,16 +6789,16 @@
         <v>1.75</v>
       </c>
       <c r="S35" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T35" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U35" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V35" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W35" t="n">
         <v>6</v>
@@ -6810,7 +6810,7 @@
         <v>8.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA35" t="n">
         <v>15</v>
@@ -6825,7 +6825,7 @@
         <v>7.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF35" t="n">
         <v>67</v>
@@ -6843,25 +6843,25 @@
         <v>19</v>
       </c>
       <c r="AK35" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM35" t="n">
         <v>51</v>
       </c>
       <c r="AN35" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO35" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP35" t="n">
         <v>21</v>
       </c>
       <c r="AQ35" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR35" t="n">
         <v>51</v>
@@ -6870,7 +6870,7 @@
         <v>151</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU35" t="n">
         <v>9</v>
@@ -6882,7 +6882,7 @@
         <v>7</v>
       </c>
       <c r="AX35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY35" t="n">
         <v>41</v>
@@ -6965,10 +6965,10 @@
         <v>3.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R36" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S36" t="n">
         <v>1.36</v>
@@ -7696,7 +7696,7 @@
         <v>3.1</v>
       </c>
       <c r="R40" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S40" t="n">
         <v>1.67</v>
@@ -7875,7 +7875,7 @@
         <v>4</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R41" t="n">
         <v>2.05</v>
@@ -8057,10 +8057,10 @@
         <v>4</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R42" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="S42" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD46"/>
+  <dimension ref="A1:BD47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -777,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -825,10 +825,10 @@
         <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
         <v>21</v>
@@ -837,7 +837,7 @@
         <v>15</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
         <v>41</v>
@@ -849,16 +849,16 @@
         <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="n">
         <v>201</v>
@@ -867,7 +867,7 @@
         <v>2.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>67</v>
@@ -876,13 +876,13 @@
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY2" t="n">
         <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
         <v>126</v>
@@ -1129,10 +1129,10 @@
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1153,10 +1153,10 @@
         <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W4" t="n">
         <v>6.5</v>
@@ -1165,7 +1165,7 @@
         <v>8</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
         <v>15</v>
@@ -1177,10 +1177,10 @@
         <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>17</v>
@@ -1234,7 +1234,7 @@
         <v>8.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="n">
         <v>6</v>
@@ -1252,7 +1252,7 @@
         <v>126</v>
       </c>
       <c r="BB4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1305,16 +1305,16 @@
         <v>2.6</v>
       </c>
       <c r="K5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
         <v>1.53</v>
@@ -1335,10 +1335,10 @@
         <v>2.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W5" t="n">
         <v>5</v>
@@ -1374,7 +1374,7 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI5" t="n">
         <v>23</v>
@@ -1389,7 +1389,7 @@
         <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN5" t="n">
         <v>3.5</v>
@@ -1493,10 +1493,10 @@
         <v>5.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1511,10 +1511,10 @@
         <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U6" t="n">
         <v>2.25</v>
@@ -1577,13 +1577,13 @@
         <v>3.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
         <v>26</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
         <v>67</v>
@@ -1592,7 +1592,7 @@
         <v>251</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU6" t="n">
         <v>9.5</v>
@@ -1601,7 +1601,7 @@
         <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX6" t="n">
         <v>29</v>
@@ -1610,7 +1610,7 @@
         <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA6" t="n">
         <v>151</v>
@@ -1693,10 +1693,10 @@
         <v>1.95</v>
       </c>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
         <v>1.73</v>
@@ -1711,7 +1711,7 @@
         <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
         <v>17</v>
@@ -1738,7 +1738,7 @@
         <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI7" t="n">
         <v>19</v>
@@ -1765,7 +1765,7 @@
         <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
@@ -1774,10 +1774,10 @@
         <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
@@ -1848,13 +1848,13 @@
         <v>8.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K8" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1881,22 +1881,22 @@
         <v>3.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA8" t="n">
         <v>11</v>
@@ -1908,16 +1908,16 @@
         <v>15</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH8" t="n">
         <v>21</v>
@@ -1926,7 +1926,7 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
         <v>81</v>
@@ -1938,7 +1938,7 @@
         <v>51</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO8" t="n">
         <v>6.5</v>
@@ -1947,7 +1947,7 @@
         <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
         <v>41</v>
@@ -1974,13 +1974,13 @@
         <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA8" t="n">
         <v>126</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC8" t="n">
         <v>501</v>
@@ -2168,7 +2168,7 @@
         <v>501</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -2218,13 +2218,13 @@
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.33</v>
@@ -2454,7 +2454,7 @@
         <v>9</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
         <v>15</v>
@@ -2588,7 +2588,7 @@
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.33</v>
@@ -2615,7 +2615,7 @@
         <v>1.91</v>
       </c>
       <c r="W12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X12" t="n">
         <v>11</v>
@@ -2627,7 +2627,7 @@
         <v>23</v>
       </c>
       <c r="AA12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB12" t="n">
         <v>29</v>
@@ -2749,16 +2749,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H13" t="n">
         <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
         <v>2.2</v>
@@ -2797,7 +2797,7 @@
         <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X13" t="n">
         <v>15</v>
@@ -2830,7 +2830,7 @@
         <v>201</v>
       </c>
       <c r="AH13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI13" t="n">
         <v>12</v>
@@ -2845,10 +2845,10 @@
         <v>19</v>
       </c>
       <c r="AM13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN13" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO13" t="n">
         <v>15</v>
@@ -3674,7 +3674,7 @@
         <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -3701,10 +3701,10 @@
         <v>2.75</v>
       </c>
       <c r="U18" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W18" t="n">
         <v>11</v>
@@ -3737,7 +3737,7 @@
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH18" t="n">
         <v>7.5</v>
@@ -4214,10 +4214,10 @@
         <v>2.45</v>
       </c>
       <c r="J21" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K21" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L21" t="n">
         <v>3</v>
@@ -4271,7 +4271,7 @@
         <v>23</v>
       </c>
       <c r="AC21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD21" t="n">
         <v>7.5</v>
@@ -4280,13 +4280,13 @@
         <v>12</v>
       </c>
       <c r="AF21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG21" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI21" t="n">
         <v>15</v>
@@ -4301,7 +4301,7 @@
         <v>17</v>
       </c>
       <c r="AM21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN21" t="n">
         <v>5</v>
@@ -4310,7 +4310,7 @@
         <v>13</v>
       </c>
       <c r="AP21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ21" t="n">
         <v>41</v>
@@ -4405,10 +4405,10 @@
         <v>5.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
         <v>1.36</v>
@@ -4450,10 +4450,10 @@
         <v>15</v>
       </c>
       <c r="AB22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD22" t="n">
         <v>7.5</v>
@@ -4522,13 +4522,13 @@
         <v>41</v>
       </c>
       <c r="AZ22" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA22" t="n">
         <v>151</v>
       </c>
       <c r="BB22" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC22" t="n">
         <v>126</v>
@@ -4581,7 +4581,7 @@
         <v>2.1</v>
       </c>
       <c r="K23" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L23" t="n">
         <v>5.5</v>
@@ -4751,13 +4751,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H24" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J24" t="n">
         <v>2.92</v>
@@ -4781,10 +4781,10 @@
         <v>3.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="R24" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S24" t="n">
         <v>1.45</v>
@@ -4996,7 +4996,7 @@
         <v>19</v>
       </c>
       <c r="AB25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC25" t="n">
         <v>12</v>
@@ -5020,7 +5020,7 @@
         <v>15</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK25" t="n">
         <v>29</v>
@@ -5121,7 +5121,7 @@
         <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J26" t="n">
         <v>3.1</v>
@@ -5145,10 +5145,10 @@
         <v>2.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="R26" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="S26" t="n">
         <v>1.5</v>
@@ -6207,10 +6207,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I32" t="n">
         <v>3.6</v>
@@ -6237,10 +6237,10 @@
         <v>4.33</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R32" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S32" t="n">
         <v>1.3</v>
@@ -6724,7 +6724,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>rLBKZmvq</t>
+          <t>4tiSBi3c</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6734,179 +6734,179 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Chabab Mohammedia</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Maghreb Fez</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>4.05</v>
       </c>
       <c r="H35" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="J35" t="n">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="K35" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="L35" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="M35" t="n">
         <v>1.02</v>
       </c>
       <c r="N35" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X35" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>70</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE35" t="n">
         <v>19</v>
       </c>
-      <c r="O35" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P35" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R35" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T35" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V35" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W35" t="n">
-        <v>12</v>
-      </c>
-      <c r="X35" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y35" t="n">
+      <c r="AF35" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ35" t="n">
         <v>9</v>
       </c>
-      <c r="Z35" t="n">
+      <c r="AK35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL35" t="n">
         <v>19</v>
       </c>
-      <c r="AA35" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD35" t="n">
+      <c r="AM35" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>37</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>250</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU35" t="n">
         <v>8</v>
       </c>
-      <c r="AE35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL35" t="n">
+      <c r="AV35" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AY35" t="n">
         <v>23</v>
       </c>
-      <c r="AM35" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>19</v>
-      </c>
       <c r="AZ35" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="BA35" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="BB35" t="n">
-        <v>101</v>
+        <v>400</v>
       </c>
       <c r="BC35" t="n">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="BD35" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>OUJSXR8e</t>
+          <t>rLBKZmvq</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6926,160 +6926,160 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>FC Emmen</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
-        <v>4.33</v>
+        <v>3.7</v>
       </c>
       <c r="I36" t="n">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="J36" t="n">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="K36" t="n">
         <v>2.5</v>
       </c>
       <c r="L36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N36" t="n">
+        <v>19</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P36" t="n">
         <v>6</v>
       </c>
-      <c r="M36" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N36" t="n">
+      <c r="Q36" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W36" t="n">
+        <v>12</v>
+      </c>
+      <c r="X36" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH36" t="n">
         <v>17</v>
       </c>
-      <c r="O36" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R36" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T36" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V36" t="n">
-        <v>2</v>
-      </c>
-      <c r="W36" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X36" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB36" t="n">
+      <c r="AI36" t="n">
         <v>21</v>
       </c>
-      <c r="AC36" t="n">
+      <c r="AJ36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP36" t="n">
         <v>15</v>
       </c>
-      <c r="AD36" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO36" t="n">
+      <c r="AQ36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU36" t="n">
         <v>7</v>
       </c>
-      <c r="AP36" t="n">
+      <c r="AV36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX36" t="n">
         <v>17</v>
       </c>
-      <c r="AQ36" t="n">
+      <c r="AY36" t="n">
         <v>19</v>
       </c>
-      <c r="AR36" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS36" t="n">
+      <c r="AZ36" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB36" t="n">
         <v>101</v>
       </c>
-      <c r="AT36" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY36" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ36" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA36" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB36" t="n">
-        <v>201</v>
-      </c>
       <c r="BC36" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BD36" t="n">
         <v>151</v>
@@ -7088,7 +7088,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>drIzW5w8</t>
+          <t>OUJSXR8e</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7108,31 +7108,31 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>FC Emmen</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="H37" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="I37" t="n">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="J37" t="n">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="K37" t="n">
         <v>2.5</v>
       </c>
       <c r="L37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M37" t="n">
         <v>1.03</v>
@@ -7147,10 +7147,10 @@
         <v>5</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R37" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S37" t="n">
         <v>1.29</v>
@@ -7159,109 +7159,109 @@
         <v>3.5</v>
       </c>
       <c r="U37" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="V37" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X37" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z37" t="n">
         <v>11</v>
       </c>
-      <c r="X37" t="n">
+      <c r="AA37" t="n">
         <v>11</v>
       </c>
-      <c r="Y37" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>13</v>
-      </c>
       <c r="AB37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC37" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AD37" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI37" t="n">
         <v>34</v>
       </c>
-      <c r="AG37" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI37" t="n">
+      <c r="AJ37" t="n">
         <v>21</v>
       </c>
-      <c r="AJ37" t="n">
-        <v>13</v>
-      </c>
       <c r="AK37" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AL37" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM37" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN37" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="AO37" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AP37" t="n">
         <v>17</v>
       </c>
       <c r="AQ37" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AR37" t="n">
         <v>41</v>
       </c>
       <c r="AS37" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT37" t="n">
         <v>3.5</v>
       </c>
       <c r="AU37" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW37" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX37" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AY37" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ37" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA37" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB37" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC37" t="n">
         <v>126</v>
-      </c>
-      <c r="BC37" t="n">
-        <v>301</v>
       </c>
       <c r="BD37" t="n">
         <v>151</v>
@@ -7270,7 +7270,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>tY21JmBa</t>
+          <t>drIzW5w8</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7290,49 +7290,49 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="H38" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I38" t="n">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="K38" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
         <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O38" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P38" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R38" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S38" t="n">
         <v>1.29</v>
@@ -7347,31 +7347,31 @@
         <v>2.5</v>
       </c>
       <c r="W38" t="n">
+        <v>11</v>
+      </c>
+      <c r="X38" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA38" t="n">
         <v>13</v>
       </c>
-      <c r="X38" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA38" t="n">
+      <c r="AB38" t="n">
         <v>19</v>
       </c>
-      <c r="AB38" t="n">
-        <v>21</v>
-      </c>
       <c r="AC38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF38" t="n">
         <v>34</v>
@@ -7380,40 +7380,40 @@
         <v>101</v>
       </c>
       <c r="AH38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ38" t="n">
         <v>13</v>
       </c>
-      <c r="AI38" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>10</v>
-      </c>
       <c r="AK38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL38" t="n">
         <v>26</v>
       </c>
-      <c r="AL38" t="n">
-        <v>19</v>
-      </c>
       <c r="AM38" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AN38" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AO38" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ38" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR38" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS38" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT38" t="n">
         <v>3.5</v>
@@ -7425,22 +7425,22 @@
         <v>41</v>
       </c>
       <c r="AW38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX38" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AY38" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ38" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA38" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB38" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC38" t="n">
         <v>301</v>
@@ -7452,7 +7452,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>buIT9Q5k</t>
+          <t>tY21JmBa</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7467,165 +7467,165 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Grau</t>
+          <t>Jong Utrecht</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Deportivo Garcilaso</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.67</v>
+        <v>2.55</v>
       </c>
       <c r="H39" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I39" t="n">
-        <v>5.25</v>
+        <v>2.55</v>
       </c>
       <c r="J39" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="K39" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="L39" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M39" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N39" t="n">
+        <v>15</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W39" t="n">
+        <v>13</v>
+      </c>
+      <c r="X39" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y39" t="n">
         <v>10</v>
       </c>
-      <c r="O39" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P39" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T39" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U39" t="n">
-        <v>2</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W39" t="n">
-        <v>6</v>
-      </c>
-      <c r="X39" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z39" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AA39" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB39" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AD39" t="n">
         <v>7</v>
       </c>
       <c r="AE39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL39" t="n">
         <v>19</v>
       </c>
-      <c r="AF39" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>41</v>
-      </c>
       <c r="AM39" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AN39" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT39" t="n">
         <v>3.5</v>
       </c>
-      <c r="AO39" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>2.63</v>
-      </c>
       <c r="AU39" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV39" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW39" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AX39" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AY39" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AZ39" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB39" t="n">
         <v>101</v>
       </c>
-      <c r="BA39" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB39" t="n">
+      <c r="BC39" t="n">
         <v>301</v>
-      </c>
-      <c r="BC39" t="n">
-        <v>126</v>
       </c>
       <c r="BD39" t="n">
         <v>151</v>
@@ -7634,7 +7634,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>EmIF29bM</t>
+          <t>buIT9Q5k</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -7644,7 +7644,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -7654,67 +7654,67 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Los Chankas</t>
+          <t>Grau</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Cesar Vallejo</t>
+          <t>Deportivo Garcilaso</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H40" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I40" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J40" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K40" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L40" t="n">
         <v>5.5</v>
       </c>
       <c r="M40" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O40" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P40" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="R40" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="S40" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T40" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U40" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V40" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W40" t="n">
+        <v>6</v>
+      </c>
+      <c r="X40" t="n">
         <v>7</v>
-      </c>
-      <c r="X40" t="n">
-        <v>7.5</v>
       </c>
       <c r="Y40" t="n">
         <v>8.5</v>
@@ -7723,31 +7723,31 @@
         <v>12</v>
       </c>
       <c r="AA40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB40" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC40" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AD40" t="n">
         <v>7</v>
       </c>
       <c r="AE40" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF40" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG40" t="n">
-        <v>251</v>
+        <v>900</v>
       </c>
       <c r="AH40" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AI40" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ40" t="n">
         <v>17</v>
@@ -7759,19 +7759,19 @@
         <v>41</v>
       </c>
       <c r="AM40" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN40" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO40" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ40" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR40" t="n">
         <v>51</v>
@@ -7780,34 +7780,34 @@
         <v>151</v>
       </c>
       <c r="AT40" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU40" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV40" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW40" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX40" t="n">
         <v>29</v>
       </c>
       <c r="AY40" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ40" t="n">
         <v>101</v>
       </c>
       <c r="BA40" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC40" t="n">
         <v>126</v>
-      </c>
-      <c r="BB40" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC40" t="n">
-        <v>151</v>
       </c>
       <c r="BD40" t="n">
         <v>151</v>
@@ -7816,7 +7816,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>8AwkH8DF</t>
+          <t>EmIF29bM</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -7826,7 +7826,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -7836,37 +7836,37 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FBC Melgar</t>
+          <t>Los Chankas</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Cajamarca</t>
+          <t>Cesar Vallejo</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="H41" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I41" t="n">
         <v>5.75</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L41" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N41" t="n">
         <v>11</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K41" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L41" t="n">
-        <v>10</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N41" t="n">
-        <v>13</v>
       </c>
       <c r="O41" t="n">
         <v>1.25</v>
@@ -7875,121 +7875,121 @@
         <v>3.75</v>
       </c>
       <c r="Q41" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T41" t="n">
+        <v>3</v>
+      </c>
+      <c r="U41" t="n">
         <v>1.83</v>
       </c>
-      <c r="R41" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T41" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U41" t="n">
-        <v>2.5</v>
-      </c>
       <c r="V41" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="W41" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X41" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC41" t="n">
         <v>10</v>
       </c>
-      <c r="Z41" t="n">
+      <c r="AD41" t="n">
         <v>7</v>
       </c>
-      <c r="AA41" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>11</v>
-      </c>
       <c r="AE41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI41" t="n">
         <v>29</v>
       </c>
-      <c r="AF41" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH41" t="n">
+      <c r="AJ41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP41" t="n">
         <v>19</v>
       </c>
-      <c r="AI41" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ41" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AR41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS41" t="n">
         <v>151</v>
       </c>
       <c r="AT41" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU41" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AV41" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW41" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AX41" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AY41" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AZ41" t="n">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="BA41" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="BB41" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="BC41" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD41" t="n">
         <v>151</v>
@@ -7998,7 +7998,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MD3OV7S8</t>
+          <t>8AwkH8DF</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>22:15</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -8018,31 +8018,31 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Alianza Lima</t>
+          <t>FBC Melgar</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Sport Huancayo</t>
+          <t>Cajamarca</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H42" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I42" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J42" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="K42" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L42" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M42" t="n">
         <v>1.04</v>
@@ -8057,10 +8057,10 @@
         <v>3.75</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R42" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S42" t="n">
         <v>1.33</v>
@@ -8069,10 +8069,10 @@
         <v>3.25</v>
       </c>
       <c r="U42" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V42" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W42" t="n">
         <v>6.5</v>
@@ -8081,52 +8081,52 @@
         <v>5.5</v>
       </c>
       <c r="Y42" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD42" t="n">
         <v>11</v>
       </c>
-      <c r="Z42" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>12</v>
-      </c>
       <c r="AE42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF42" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG42" t="n">
         <v>201</v>
       </c>
       <c r="AH42" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI42" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK42" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL42" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM42" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AN42" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AO42" t="n">
         <v>5.5</v>
@@ -8135,25 +8135,25 @@
         <v>21</v>
       </c>
       <c r="AQ42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR42" t="n">
         <v>41</v>
       </c>
       <c r="AS42" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT42" t="n">
         <v>3.25</v>
       </c>
       <c r="AU42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV42" t="n">
         <v>81</v>
       </c>
       <c r="AW42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX42" t="n">
         <v>51</v>
@@ -8162,10 +8162,10 @@
         <v>51</v>
       </c>
       <c r="AZ42" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BA42" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="BB42" t="n">
         <v>501</v>
@@ -8180,7 +8180,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>8ni80y74</t>
+          <t>MD3OV7S8</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8190,41 +8190,41 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>22:15</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Leczna</t>
+          <t>Alianza Lima</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Wisla</t>
+          <t>Sport Huancayo</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4</v>
+        <v>1.22</v>
       </c>
       <c r="H43" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="I43" t="n">
-        <v>1.75</v>
+        <v>13</v>
       </c>
       <c r="J43" t="n">
-        <v>4.5</v>
+        <v>1.67</v>
       </c>
       <c r="K43" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L43" t="n">
-        <v>2.38</v>
+        <v>12</v>
       </c>
       <c r="M43" t="n">
         <v>1.04</v>
@@ -8233,16 +8233,16 @@
         <v>13</v>
       </c>
       <c r="O43" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P43" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R43" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S43" t="n">
         <v>1.33</v>
@@ -8251,118 +8251,118 @@
         <v>3.25</v>
       </c>
       <c r="U43" t="n">
-        <v>1.73</v>
+        <v>2.63</v>
       </c>
       <c r="V43" t="n">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="W43" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X43" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA43" t="n">
         <v>13</v>
       </c>
-      <c r="X43" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA43" t="n">
+      <c r="AB43" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE43" t="n">
         <v>34</v>
       </c>
-      <c r="AB43" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>15</v>
-      </c>
       <c r="AF43" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AG43" t="n">
         <v>201</v>
       </c>
       <c r="AH43" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AI43" t="n">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="AJ43" t="n">
-        <v>8.5</v>
+        <v>34</v>
       </c>
       <c r="AK43" t="n">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="AL43" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ43" t="n">
         <v>13</v>
       </c>
-      <c r="AM43" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>67</v>
-      </c>
       <c r="AR43" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AS43" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT43" t="n">
         <v>3.25</v>
       </c>
       <c r="AU43" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AV43" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW43" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AX43" t="n">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="AY43" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AZ43" t="n">
-        <v>29</v>
+        <v>351</v>
       </c>
       <c r="BA43" t="n">
-        <v>41</v>
+        <v>501</v>
       </c>
       <c r="BB43" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC43" t="n">
         <v>126</v>
       </c>
-      <c r="BC43" t="n">
-        <v>81</v>
-      </c>
       <c r="BD43" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>QFRek53d</t>
+          <t>8ni80y74</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8372,167 +8372,167 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Leczna</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.62</v>
+        <v>4</v>
       </c>
       <c r="H44" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="I44" t="n">
-        <v>6.25</v>
+        <v>1.75</v>
       </c>
       <c r="J44" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="K44" t="n">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="L44" t="n">
-        <v>7</v>
+        <v>2.38</v>
       </c>
       <c r="M44" t="n">
-        <v>1.14</v>
+        <v>1.04</v>
       </c>
       <c r="N44" t="n">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="O44" t="n">
-        <v>1.67</v>
+        <v>1.22</v>
       </c>
       <c r="P44" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Q44" t="n">
-        <v>3.1</v>
+        <v>1.73</v>
       </c>
       <c r="R44" t="n">
-        <v>1.36</v>
+        <v>2.08</v>
       </c>
       <c r="S44" t="n">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="T44" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="U44" t="n">
-        <v>2.75</v>
+        <v>1.73</v>
       </c>
       <c r="V44" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="W44" t="n">
-        <v>4.33</v>
+        <v>13</v>
       </c>
       <c r="X44" t="n">
-        <v>6.5</v>
+        <v>21</v>
       </c>
       <c r="Y44" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z44" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC44" t="n">
         <v>13</v>
       </c>
-      <c r="AA44" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AD44" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AF44" t="n">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="AG44" t="n">
         <v>201</v>
       </c>
       <c r="AH44" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AI44" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="AJ44" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO44" t="n">
         <v>21</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>10</v>
       </c>
       <c r="AP44" t="n">
         <v>29</v>
       </c>
       <c r="AQ44" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR44" t="n">
         <v>81</v>
       </c>
       <c r="AS44" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="AU44" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AV44" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AW44" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX44" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="AY44" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AZ44" t="n">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="BA44" t="n">
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="BB44" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BC44" t="n">
         <v>81</v>
@@ -8544,7 +8544,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>xSbPbIzg</t>
+          <t>QFRek53d</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -8554,7 +8554,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -8564,157 +8564,157 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="H45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L45" t="n">
+        <v>7</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N45" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W45" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="X45" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN45" t="n">
         <v>3.4</v>
       </c>
-      <c r="I45" t="n">
-        <v>3</v>
-      </c>
-      <c r="J45" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K45" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N45" t="n">
-        <v>13</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R45" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T45" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V45" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W45" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X45" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG45" t="n">
+      <c r="AO45" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ45" t="n">
         <v>151</v>
       </c>
-      <c r="AH45" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR45" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS45" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT45" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU45" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV45" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW45" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX45" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY45" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ45" t="n">
-        <v>51</v>
-      </c>
       <c r="BA45" t="n">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="BB45" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BC45" t="n">
         <v>81</v>
@@ -8726,7 +8726,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>j5id34KA</t>
+          <t>xSbPbIzg</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -8736,41 +8736,41 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Orebro</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.51</v>
+        <v>2.25</v>
       </c>
       <c r="H46" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="I46" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="K46" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L46" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M46" t="n">
         <v>1.04</v>
@@ -8785,10 +8785,10 @@
         <v>4</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R46" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S46" t="n">
         <v>1.33</v>
@@ -8797,76 +8797,76 @@
         <v>3.25</v>
       </c>
       <c r="U46" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="V46" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="W46" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="X46" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AA46" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AB46" t="n">
         <v>23</v>
       </c>
       <c r="AC46" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE46" t="n">
         <v>12</v>
       </c>
-      <c r="AD46" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>15</v>
-      </c>
       <c r="AF46" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG46" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH46" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI46" t="n">
         <v>17</v>
       </c>
-      <c r="AI46" t="n">
+      <c r="AJ46" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK46" t="n">
         <v>29</v>
       </c>
-      <c r="AJ46" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>51</v>
-      </c>
       <c r="AL46" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AM46" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN46" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AP46" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ46" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AR46" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS46" t="n">
         <v>126</v>
@@ -8875,33 +8875,215 @@
         <v>3.25</v>
       </c>
       <c r="AU46" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>j5id34KA</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>22/10/2024</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>SWEDEN - SUPERETTAN</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Orebro</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L47" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N47" t="n">
+        <v>13</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T47" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W47" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X47" t="n">
         <v>8</v>
       </c>
-      <c r="AV46" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW46" t="n">
+      <c r="Y47" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW47" t="n">
         <v>7</v>
       </c>
-      <c r="AX46" t="n">
+      <c r="AX47" t="n">
         <v>29</v>
       </c>
-      <c r="AY46" t="n">
+      <c r="AY47" t="n">
         <v>34</v>
       </c>
-      <c r="AZ46" t="n">
+      <c r="AZ47" t="n">
         <v>101</v>
       </c>
-      <c r="BA46" t="n">
+      <c r="BA47" t="n">
         <v>101</v>
       </c>
-      <c r="BB46" t="n">
+      <c r="BB47" t="n">
         <v>201</v>
       </c>
-      <c r="BC46" t="n">
+      <c r="BC47" t="n">
         <v>501</v>
       </c>
-      <c r="BD46" t="n">
+      <c r="BD47" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
@@ -1675,10 +1675,10 @@
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
         <v>1.29</v>
@@ -1687,10 +1687,10 @@
         <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R7" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S7" t="n">
         <v>1.36</v>
@@ -2224,7 +2224,7 @@
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
         <v>1.33</v>
@@ -4432,7 +4432,7 @@
         <v>2.05</v>
       </c>
       <c r="V22" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W22" t="n">
         <v>6</v>
@@ -4611,10 +4611,10 @@
         <v>3.25</v>
       </c>
       <c r="U23" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V23" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W23" t="n">
         <v>7.5</v>
@@ -4760,22 +4760,22 @@
         <v>3.1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L24" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P24" t="n">
         <v>3.25</v>
@@ -4787,112 +4787,112 @@
         <v>1.73</v>
       </c>
       <c r="S24" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="T24" t="n">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
       <c r="U24" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="V24" t="n">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="W24" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="X24" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Y24" t="n">
         <v>9.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AD24" t="n">
         <v>6.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>500</v>
+        <v>301</v>
       </c>
       <c r="AH24" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AI24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ24" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AK24" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AL24" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM24" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="AO24" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP24" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AQ24" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AR24" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AS24" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="AU24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV24" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AW24" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AX24" t="n">
         <v>17</v>
       </c>
       <c r="AY24" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ24" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="BA24" t="n">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="BB24" t="n">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="BC24" t="n">
         <v>126</v>
@@ -4975,7 +4975,7 @@
         <v>3</v>
       </c>
       <c r="U25" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V25" t="n">
         <v>2.1</v>
@@ -5127,22 +5127,22 @@
         <v>3.1</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P26" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
         <v>2.15</v>
@@ -5151,25 +5151,25 @@
         <v>1.67</v>
       </c>
       <c r="S26" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T26" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U26" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V26" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W26" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z26" t="n">
         <v>21</v>
@@ -5181,22 +5181,22 @@
         <v>34</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD26" t="n">
         <v>6</v>
       </c>
       <c r="AE26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF26" t="n">
         <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
         <v>15</v>
@@ -5208,7 +5208,7 @@
         <v>34</v>
       </c>
       <c r="AL26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM26" t="n">
         <v>41</v>
@@ -5220,7 +5220,7 @@
         <v>13</v>
       </c>
       <c r="AP26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ26" t="n">
         <v>41</v>
@@ -5232,31 +5232,31 @@
         <v>201</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV26" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW26" t="n">
         <v>5</v>
       </c>
       <c r="AX26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY26" t="n">
         <v>29</v>
       </c>
       <c r="AZ26" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA26" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB26" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC26" t="n">
         <v>81</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="J35" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="K35" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="L35" t="n">
         <v>2.6</v>
@@ -6774,16 +6774,16 @@
         <v>1.02</v>
       </c>
       <c r="N35" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="O35" t="n">
         <v>1.47</v>
       </c>
       <c r="P35" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Q35" t="n">
         <v>2.32</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.35</v>
       </c>
       <c r="R35" t="n">
         <v>1.47</v>
@@ -6801,10 +6801,10 @@
         <v>1.6</v>
       </c>
       <c r="W35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X35" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y35" t="n">
         <v>14.5</v>
@@ -6816,16 +6816,16 @@
         <v>50</v>
       </c>
       <c r="AB35" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AC35" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AD35" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AE35" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF35" t="n">
         <v>120</v>
@@ -6834,16 +6834,16 @@
         <v>101</v>
       </c>
       <c r="AH35" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AI35" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AJ35" t="n">
         <v>9</v>
       </c>
       <c r="AK35" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL35" t="n">
         <v>19</v>
@@ -6852,7 +6852,7 @@
         <v>40</v>
       </c>
       <c r="AN35" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AO35" t="n">
         <v>25</v>
@@ -6861,7 +6861,7 @@
         <v>37</v>
       </c>
       <c r="AQ35" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AR35" t="n">
         <v>250</v>
@@ -6873,25 +6873,25 @@
         <v>2.2</v>
       </c>
       <c r="AU35" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AV35" t="n">
         <v>100</v>
       </c>
       <c r="AW35" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AX35" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AY35" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ35" t="n">
         <v>40</v>
       </c>
       <c r="BA35" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB35" t="n">
         <v>400</v>
@@ -6953,13 +6953,13 @@
         <v>3.5</v>
       </c>
       <c r="M36" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N36" t="n">
         <v>19</v>
       </c>
       <c r="O36" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P36" t="n">
         <v>6</v>
@@ -7135,13 +7135,13 @@
         <v>6</v>
       </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N37" t="n">
         <v>17</v>
       </c>
       <c r="O37" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -7317,16 +7317,16 @@
         <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N38" t="n">
         <v>17</v>
       </c>
       <c r="O38" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P38" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q38" t="n">
         <v>1.53</v>
@@ -7499,13 +7499,13 @@
         <v>3</v>
       </c>
       <c r="M39" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N39" t="n">
         <v>15</v>
       </c>
       <c r="O39" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -7681,10 +7681,10 @@
         <v>5.5</v>
       </c>
       <c r="M40" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O40" t="n">
         <v>1.33</v>
@@ -7726,7 +7726,7 @@
         <v>15</v>
       </c>
       <c r="AB40" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC40" t="n">
         <v>8.5</v>
@@ -7804,7 +7804,7 @@
         <v>151</v>
       </c>
       <c r="BB40" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC40" t="n">
         <v>126</v>
@@ -7854,7 +7854,7 @@
         <v>5.75</v>
       </c>
       <c r="J41" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K41" t="n">
         <v>2.25</v>
@@ -7863,10 +7863,10 @@
         <v>5.5</v>
       </c>
       <c r="M41" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O41" t="n">
         <v>1.25</v>
@@ -7917,7 +7917,7 @@
         <v>7</v>
       </c>
       <c r="AE41" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF41" t="n">
         <v>51</v>
@@ -7932,7 +7932,7 @@
         <v>29</v>
       </c>
       <c r="AJ41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK41" t="n">
         <v>51</v>
@@ -7959,7 +7959,7 @@
         <v>51</v>
       </c>
       <c r="AS41" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT41" t="n">
         <v>3</v>
@@ -8045,10 +8045,10 @@
         <v>10</v>
       </c>
       <c r="M42" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N42" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O42" t="n">
         <v>1.25</v>
@@ -8075,7 +8075,7 @@
         <v>1.5</v>
       </c>
       <c r="W42" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X42" t="n">
         <v>5.5</v>
@@ -8087,19 +8087,19 @@
         <v>7</v>
       </c>
       <c r="AA42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB42" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD42" t="n">
         <v>11</v>
       </c>
       <c r="AE42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF42" t="n">
         <v>101</v>
@@ -8123,10 +8123,10 @@
         <v>81</v>
       </c>
       <c r="AM42" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN42" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AO42" t="n">
         <v>5.5</v>
@@ -8141,7 +8141,7 @@
         <v>41</v>
       </c>
       <c r="AS42" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT42" t="n">
         <v>3.25</v>
@@ -8165,7 +8165,7 @@
         <v>301</v>
       </c>
       <c r="BA42" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BB42" t="n">
         <v>501</v>
@@ -8221,16 +8221,16 @@
         <v>1.67</v>
       </c>
       <c r="K43" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L43" t="n">
         <v>12</v>
       </c>
       <c r="M43" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O43" t="n">
         <v>1.25</v>
@@ -8257,10 +8257,10 @@
         <v>1.44</v>
       </c>
       <c r="W43" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X43" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Y43" t="n">
         <v>11</v>
@@ -8317,7 +8317,7 @@
         <v>21</v>
       </c>
       <c r="AQ43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR43" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD47"/>
+  <dimension ref="A1:BD48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J6" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K6" t="n">
         <v>1.95</v>
@@ -1493,10 +1493,10 @@
         <v>5.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1511,10 +1511,10 @@
         <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U6" t="n">
         <v>2.25</v>
@@ -1523,16 +1523,16 @@
         <v>1.57</v>
       </c>
       <c r="W6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y6" t="n">
         <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
         <v>19</v>
@@ -1556,10 +1556,10 @@
         <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
         <v>17</v>
@@ -1577,13 +1577,13 @@
         <v>3.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
         <v>26</v>
       </c>
       <c r="AQ6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
         <v>67</v>
@@ -1592,7 +1592,7 @@
         <v>251</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU6" t="n">
         <v>9.5</v>
@@ -1601,7 +1601,7 @@
         <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX6" t="n">
         <v>29</v>
@@ -1610,7 +1610,7 @@
         <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA6" t="n">
         <v>151</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H12" t="n">
         <v>3.4</v>
@@ -2588,7 +2588,7 @@
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
         <v>1.33</v>
@@ -2597,16 +2597,16 @@
         <v>3.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R12" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U12" t="n">
         <v>1.8</v>
@@ -2684,7 +2684,7 @@
         <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU12" t="n">
         <v>8</v>
@@ -2711,7 +2711,7 @@
         <v>201</v>
       </c>
       <c r="BC12" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD12" t="n">
         <v>151</v>
@@ -2949,10 +2949,10 @@
         <v>3.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
         <v>1.29</v>
@@ -2961,10 +2961,10 @@
         <v>3.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R14" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S14" t="n">
         <v>1.4</v>
@@ -4432,7 +4432,7 @@
         <v>2.05</v>
       </c>
       <c r="V22" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W22" t="n">
         <v>6</v>
@@ -4611,10 +4611,10 @@
         <v>3.25</v>
       </c>
       <c r="U23" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V23" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W23" t="n">
         <v>7.5</v>
@@ -4754,52 +4754,52 @@
         <v>2.3</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
         <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L24" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="R24" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="S24" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T24" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U24" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="V24" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="W24" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X24" t="n">
         <v>11</v>
@@ -4814,25 +4814,25 @@
         <v>19</v>
       </c>
       <c r="AB24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD24" t="n">
         <v>6.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG24" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI24" t="n">
         <v>15</v>
@@ -4841,13 +4841,13 @@
         <v>11</v>
       </c>
       <c r="AK24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN24" t="n">
         <v>4.33</v>
@@ -4856,22 +4856,22 @@
         <v>13</v>
       </c>
       <c r="AP24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ24" t="n">
         <v>41</v>
       </c>
       <c r="AR24" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS24" t="n">
         <v>151</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV24" t="n">
         <v>51</v>
@@ -4883,16 +4883,16 @@
         <v>17</v>
       </c>
       <c r="AY24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ24" t="n">
         <v>51</v>
       </c>
       <c r="BA24" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB24" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC24" t="n">
         <v>126</v>
@@ -4945,7 +4945,7 @@
         <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L25" t="n">
         <v>3.4</v>
@@ -4954,16 +4954,16 @@
         <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O25" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R25" t="n">
         <v>2</v>
@@ -4975,7 +4975,7 @@
         <v>3</v>
       </c>
       <c r="U25" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V25" t="n">
         <v>2.1</v>
@@ -4984,7 +4984,7 @@
         <v>9.5</v>
       </c>
       <c r="X25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y25" t="n">
         <v>9.5</v>
@@ -5029,7 +5029,7 @@
         <v>21</v>
       </c>
       <c r="AM25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN25" t="n">
         <v>4.5</v>
@@ -5065,7 +5065,7 @@
         <v>15</v>
       </c>
       <c r="AY25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ25" t="n">
         <v>51</v>
@@ -6216,13 +6216,13 @@
         <v>3.6</v>
       </c>
       <c r="J32" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="K32" t="n">
         <v>2.38</v>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M32" t="n">
         <v>1.03</v>
@@ -6249,37 +6249,37 @@
         <v>3.4</v>
       </c>
       <c r="U32" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V32" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W32" t="n">
+        <v>9</v>
+      </c>
+      <c r="X32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA32" t="n">
         <v>13</v>
       </c>
-      <c r="X32" t="n">
+      <c r="AB32" t="n">
         <v>21</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>29</v>
       </c>
       <c r="AC32" t="n">
         <v>15</v>
       </c>
       <c r="AD32" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF32" t="n">
         <v>41</v>
@@ -6288,40 +6288,40 @@
         <v>151</v>
       </c>
       <c r="AH32" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AI32" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AJ32" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AK32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP32" t="n">
         <v>17</v>
       </c>
-      <c r="AL32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ32" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AR32" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS32" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT32" t="n">
         <v>3.4</v>
@@ -6333,22 +6333,22 @@
         <v>41</v>
       </c>
       <c r="AW32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX32" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AY32" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AZ32" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="BA32" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB32" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC32" t="n">
         <v>351</v>
@@ -6953,13 +6953,13 @@
         <v>3.5</v>
       </c>
       <c r="M36" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N36" t="n">
         <v>19</v>
       </c>
       <c r="O36" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P36" t="n">
         <v>6</v>
@@ -7135,13 +7135,13 @@
         <v>6</v>
       </c>
       <c r="M37" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N37" t="n">
         <v>17</v>
       </c>
       <c r="O37" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -7317,13 +7317,13 @@
         <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N38" t="n">
         <v>17</v>
       </c>
       <c r="O38" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -7499,13 +7499,13 @@
         <v>3</v>
       </c>
       <c r="M39" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N39" t="n">
         <v>15</v>
       </c>
       <c r="O39" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -7663,28 +7663,28 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H40" t="n">
         <v>3.6</v>
       </c>
       <c r="I40" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J40" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K40" t="n">
         <v>2.1</v>
       </c>
       <c r="L40" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M40" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N40" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O40" t="n">
         <v>1.33</v>
@@ -7693,10 +7693,10 @@
         <v>3.25</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="R40" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="S40" t="n">
         <v>1.44</v>
@@ -7705,10 +7705,10 @@
         <v>2.63</v>
       </c>
       <c r="U40" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V40" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W40" t="n">
         <v>6</v>
@@ -7744,13 +7744,13 @@
         <v>900</v>
       </c>
       <c r="AH40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI40" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ40" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK40" t="n">
         <v>51</v>
@@ -7765,7 +7765,7 @@
         <v>3.5</v>
       </c>
       <c r="AO40" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP40" t="n">
         <v>21</v>
@@ -7777,7 +7777,7 @@
         <v>51</v>
       </c>
       <c r="AS40" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT40" t="n">
         <v>2.63</v>
@@ -7789,7 +7789,7 @@
         <v>67</v>
       </c>
       <c r="AW40" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX40" t="n">
         <v>29</v>
@@ -7798,7 +7798,7 @@
         <v>41</v>
       </c>
       <c r="AZ40" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA40" t="n">
         <v>151</v>
@@ -7845,13 +7845,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H41" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I41" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J41" t="n">
         <v>2.2</v>
@@ -7863,10 +7863,10 @@
         <v>5.5</v>
       </c>
       <c r="M41" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O41" t="n">
         <v>1.25</v>
@@ -7911,13 +7911,13 @@
         <v>26</v>
       </c>
       <c r="AC41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD41" t="n">
         <v>7</v>
       </c>
       <c r="AE41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF41" t="n">
         <v>51</v>
@@ -7947,7 +7947,7 @@
         <v>3.6</v>
       </c>
       <c r="AO41" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP41" t="n">
         <v>19</v>
@@ -7959,7 +7959,7 @@
         <v>51</v>
       </c>
       <c r="AS41" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT41" t="n">
         <v>3</v>
@@ -8239,7 +8239,7 @@
         <v>3.75</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R43" t="n">
         <v>2.05</v>
@@ -8585,16 +8585,16 @@
         <v>2.5</v>
       </c>
       <c r="K45" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L45" t="n">
         <v>7</v>
       </c>
       <c r="M45" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N45" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O45" t="n">
         <v>1.67</v>
@@ -8639,7 +8639,7 @@
         <v>51</v>
       </c>
       <c r="AC45" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD45" t="n">
         <v>7</v>
@@ -8654,19 +8654,19 @@
         <v>201</v>
       </c>
       <c r="AH45" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI45" t="n">
         <v>29</v>
       </c>
       <c r="AJ45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK45" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL45" t="n">
         <v>67</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>51</v>
       </c>
       <c r="AM45" t="n">
         <v>81</v>
@@ -8678,7 +8678,7 @@
         <v>10</v>
       </c>
       <c r="AP45" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ45" t="n">
         <v>41</v>
@@ -8711,7 +8711,7 @@
         <v>151</v>
       </c>
       <c r="BA45" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB45" t="n">
         <v>501</v>
@@ -8836,7 +8836,7 @@
         <v>151</v>
       </c>
       <c r="AH46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI46" t="n">
         <v>17</v>
@@ -8848,7 +8848,7 @@
         <v>29</v>
       </c>
       <c r="AL46" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM46" t="n">
         <v>29</v>
@@ -9084,6 +9084,188 @@
         <v>501</v>
       </c>
       <c r="BD47" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>IFBZH1E7</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>22/10/2024</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>CF Montreal</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Atlanta Utd</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N48" t="n">
+        <v>15</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W48" t="n">
+        <v>11</v>
+      </c>
+      <c r="X48" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD48" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H5" t="n">
         <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
@@ -1341,10 +1341,10 @@
         <v>1.5</v>
       </c>
       <c r="W5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y5" t="n">
         <v>9.5</v>
@@ -1374,7 +1374,7 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
         <v>23</v>
@@ -1675,10 +1675,10 @@
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
         <v>1.29</v>
@@ -1693,10 +1693,10 @@
         <v>1.93</v>
       </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U7" t="n">
         <v>1.73</v>
@@ -1711,7 +1711,7 @@
         <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
         <v>17</v>
@@ -1765,7 +1765,7 @@
         <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
@@ -1774,10 +1774,10 @@
         <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
@@ -1863,16 +1863,16 @@
         <v>15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R8" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S8" t="n">
         <v>1.29</v>
@@ -1908,7 +1908,7 @@
         <v>15</v>
       </c>
       <c r="AD8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
@@ -1920,7 +1920,7 @@
         <v>251</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
         <v>41</v>
@@ -1929,7 +1929,7 @@
         <v>23</v>
       </c>
       <c r="AK8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL8" t="n">
         <v>51</v>
@@ -1959,25 +1959,25 @@
         <v>3.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ8" t="n">
         <v>151</v>
       </c>
       <c r="BA8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB8" t="n">
         <v>251</v>
@@ -2218,13 +2218,13 @@
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.33</v>
@@ -2529,7 +2529,7 @@
         <v>201</v>
       </c>
       <c r="BC11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD11" t="n">
         <v>151</v>
@@ -2576,13 +2576,13 @@
         <v>2.9</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
         <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
@@ -2591,16 +2591,16 @@
         <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S12" t="n">
         <v>1.4</v>
@@ -2609,10 +2609,10 @@
         <v>2.75</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V12" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
         <v>8</v>
@@ -2633,7 +2633,7 @@
         <v>29</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
         <v>6.5</v>
@@ -2645,10 +2645,10 @@
         <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI12" t="n">
         <v>15</v>
@@ -2663,10 +2663,10 @@
         <v>23</v>
       </c>
       <c r="AM12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO12" t="n">
         <v>13</v>
@@ -2699,19 +2699,19 @@
         <v>17</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
         <v>51</v>
       </c>
       <c r="BA12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD12" t="n">
         <v>151</v>
@@ -2749,16 +2749,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H13" t="n">
         <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
         <v>2.2</v>
@@ -2797,7 +2797,7 @@
         <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X13" t="n">
         <v>15</v>
@@ -2830,7 +2830,7 @@
         <v>201</v>
       </c>
       <c r="AH13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI13" t="n">
         <v>12</v>
@@ -2845,10 +2845,10 @@
         <v>19</v>
       </c>
       <c r="AM13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO13" t="n">
         <v>15</v>
@@ -4769,10 +4769,10 @@
         <v>3.6</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O24" t="n">
         <v>1.29</v>
@@ -4781,10 +4781,10 @@
         <v>3.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R24" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S24" t="n">
         <v>1.4</v>
@@ -4951,10 +4951,10 @@
         <v>3.4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O25" t="n">
         <v>1.25</v>
@@ -4963,10 +4963,10 @@
         <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R25" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S25" t="n">
         <v>1.36</v>
@@ -6753,52 +6753,52 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="H35" t="n">
         <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J35" t="n">
-        <v>4.65</v>
+        <v>5.5</v>
       </c>
       <c r="K35" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="L35" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M35" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="N35" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P35" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="R35" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S35" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="T35" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="U35" t="n">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="V35" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="W35" t="n">
         <v>9</v>
@@ -6807,94 +6807,94 @@
         <v>21</v>
       </c>
       <c r="Y35" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="Z35" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AA35" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AB35" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AC35" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AF35" t="n">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="AG35" t="n">
         <v>101</v>
       </c>
       <c r="AH35" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AJ35" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK35" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL35" t="n">
         <v>19</v>
       </c>
       <c r="AM35" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AN35" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AO35" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AP35" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AQ35" t="n">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="AR35" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="AS35" t="n">
         <v>51</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU35" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="AV35" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AW35" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AX35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY35" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ35" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BA35" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="BB35" t="n">
-        <v>400</v>
+        <v>251</v>
       </c>
       <c r="BC35" t="n">
         <v>51</v>
@@ -7663,28 +7663,28 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="H40" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I40" t="n">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="K40" t="n">
         <v>2.1</v>
       </c>
       <c r="L40" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M40" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O40" t="n">
         <v>1.33</v>
@@ -7693,10 +7693,10 @@
         <v>3.25</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="R40" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S40" t="n">
         <v>1.44</v>
@@ -7705,28 +7705,28 @@
         <v>2.63</v>
       </c>
       <c r="U40" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V40" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W40" t="n">
         <v>6</v>
       </c>
       <c r="X40" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y40" t="n">
         <v>8.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA40" t="n">
         <v>15</v>
       </c>
       <c r="AB40" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC40" t="n">
         <v>8.5</v>
@@ -7735,7 +7735,7 @@
         <v>7</v>
       </c>
       <c r="AE40" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF40" t="n">
         <v>67</v>
@@ -7744,13 +7744,13 @@
         <v>900</v>
       </c>
       <c r="AH40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI40" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AJ40" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK40" t="n">
         <v>51</v>
@@ -7762,10 +7762,10 @@
         <v>51</v>
       </c>
       <c r="AN40" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO40" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP40" t="n">
         <v>21</v>
@@ -7777,7 +7777,7 @@
         <v>51</v>
       </c>
       <c r="AS40" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT40" t="n">
         <v>2.63</v>
@@ -7789,22 +7789,22 @@
         <v>67</v>
       </c>
       <c r="AW40" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX40" t="n">
         <v>29</v>
       </c>
       <c r="AY40" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ40" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA40" t="n">
         <v>126</v>
       </c>
-      <c r="BA40" t="n">
-        <v>151</v>
-      </c>
       <c r="BB40" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC40" t="n">
         <v>126</v>
@@ -8045,22 +8045,22 @@
         <v>10</v>
       </c>
       <c r="M42" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O42" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P42" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R42" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S42" t="n">
         <v>1.33</v>
@@ -8075,7 +8075,7 @@
         <v>1.5</v>
       </c>
       <c r="W42" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X42" t="n">
         <v>5.5</v>
@@ -8087,19 +8087,19 @@
         <v>7</v>
       </c>
       <c r="AA42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB42" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD42" t="n">
         <v>11</v>
       </c>
       <c r="AE42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF42" t="n">
         <v>101</v>
@@ -8123,10 +8123,10 @@
         <v>81</v>
       </c>
       <c r="AM42" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN42" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AO42" t="n">
         <v>5.5</v>
@@ -8141,7 +8141,7 @@
         <v>41</v>
       </c>
       <c r="AS42" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT42" t="n">
         <v>3.25</v>
@@ -8165,7 +8165,7 @@
         <v>301</v>
       </c>
       <c r="BA42" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BB42" t="n">
         <v>501</v>
@@ -8239,7 +8239,7 @@
         <v>3.75</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R43" t="n">
         <v>2.05</v>
@@ -8770,7 +8770,7 @@
         <v>2.25</v>
       </c>
       <c r="L46" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M46" t="n">
         <v>1.04</v>
@@ -8821,7 +8821,7 @@
         <v>23</v>
       </c>
       <c r="AC46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD46" t="n">
         <v>6.5</v>
@@ -8848,7 +8848,7 @@
         <v>29</v>
       </c>
       <c r="AL46" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM46" t="n">
         <v>29</v>
@@ -8878,7 +8878,7 @@
         <v>7.5</v>
       </c>
       <c r="AV46" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW46" t="n">
         <v>5</v>
@@ -8887,7 +8887,7 @@
         <v>15</v>
       </c>
       <c r="AY46" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ46" t="n">
         <v>51</v>
@@ -8896,7 +8896,7 @@
         <v>67</v>
       </c>
       <c r="BB46" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC46" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD48"/>
+  <dimension ref="A1:BD49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
@@ -777,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="I3" t="n">
         <v>3.2</v>
@@ -941,28 +941,28 @@
         <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="L3" t="n">
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.7</v>
+        <v>2.87</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="S3" t="n">
         <v>1.62</v>
@@ -995,7 +995,7 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1025,7 +1025,7 @@
         <v>34</v>
       </c>
       <c r="AM3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
         <v>4.33</v>
@@ -1034,7 +1034,7 @@
         <v>15</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ3" t="n">
         <v>51</v>
@@ -1043,7 +1043,7 @@
         <v>101</v>
       </c>
       <c r="AS3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT3" t="n">
         <v>2.2</v>
@@ -1067,7 +1067,7 @@
         <v>67</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
         <v>351</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
@@ -1144,7 +1144,7 @@
         <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1228,7 +1228,7 @@
         <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU4" t="n">
         <v>8.5</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="H5" t="n">
         <v>3.2</v>
@@ -1305,7 +1305,7 @@
         <v>2.5</v>
       </c>
       <c r="K5" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
@@ -1326,7 +1326,7 @@
         <v>2.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1487,7 +1487,7 @@
         <v>2.6</v>
       </c>
       <c r="K6" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L6" t="n">
         <v>5.5</v>
@@ -1666,7 +1666,7 @@
         <v>3.75</v>
       </c>
       <c r="J7" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K7" t="n">
         <v>2.2</v>
@@ -1687,10 +1687,10 @@
         <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="R7" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
@@ -1848,7 +1848,7 @@
         <v>8.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K8" t="n">
         <v>2.6</v>
@@ -2233,10 +2233,10 @@
         <v>3.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="R10" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="S10" t="n">
         <v>1.4</v>
@@ -2502,7 +2502,7 @@
         <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU11" t="n">
         <v>8</v>
@@ -2597,10 +2597,10 @@
         <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="R12" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="S12" t="n">
         <v>1.4</v>
@@ -2767,10 +2767,10 @@
         <v>3.1</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
         <v>1.29</v>
@@ -2779,10 +2779,10 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R13" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>
@@ -3689,10 +3689,10 @@
         <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="R18" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="S18" t="n">
         <v>1.4</v>
@@ -3871,10 +3871,10 @@
         <v>3.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="S19" t="n">
         <v>1.36</v>
@@ -4205,13 +4205,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="H21" t="n">
         <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J21" t="n">
         <v>3.2</v>
@@ -4387,7 +4387,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="H22" t="n">
         <v>3.8</v>
@@ -4569,7 +4569,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="H23" t="n">
         <v>3.9</v>
@@ -4751,7 +4751,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H24" t="n">
         <v>3.4</v>
@@ -4933,13 +4933,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="H25" t="n">
         <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J25" t="n">
         <v>3</v>
@@ -5232,7 +5232,7 @@
         <v>201</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU26" t="n">
         <v>8</v>
@@ -5297,7 +5297,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H27" t="n">
         <v>3.9</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H29" t="n">
         <v>3.9</v>
@@ -5679,19 +5679,19 @@
         <v>4.75</v>
       </c>
       <c r="M29" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N29" t="n">
         <v>13</v>
       </c>
       <c r="O29" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R29" t="n">
         <v>2.1</v>
@@ -5843,7 +5843,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="H30" t="n">
         <v>4</v>
@@ -5861,19 +5861,19 @@
         <v>4.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N30" t="n">
         <v>17</v>
       </c>
       <c r="O30" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R30" t="n">
         <v>2.35</v>
@@ -6043,19 +6043,19 @@
         <v>2.63</v>
       </c>
       <c r="M31" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N31" t="n">
         <v>17</v>
       </c>
       <c r="O31" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R31" t="n">
         <v>2.35</v>
@@ -6389,28 +6389,28 @@
         </is>
       </c>
       <c r="G33" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H33" t="n">
         <v>3.7</v>
       </c>
-      <c r="H33" t="n">
-        <v>3.6</v>
-      </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="J33" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
         <v>2.3</v>
       </c>
       <c r="L33" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O33" t="n">
         <v>1.2</v>
@@ -6443,7 +6443,7 @@
         <v>21</v>
       </c>
       <c r="Y33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z33" t="n">
         <v>41</v>
@@ -6473,13 +6473,13 @@
         <v>9.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ33" t="n">
         <v>8.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL33" t="n">
         <v>15</v>
@@ -6488,7 +6488,7 @@
         <v>21</v>
       </c>
       <c r="AN33" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO33" t="n">
         <v>19</v>
@@ -6503,7 +6503,7 @@
         <v>67</v>
       </c>
       <c r="AS33" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT33" t="n">
         <v>3.4</v>
@@ -6515,7 +6515,7 @@
         <v>41</v>
       </c>
       <c r="AW33" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX33" t="n">
         <v>10</v>
@@ -6527,13 +6527,13 @@
         <v>34</v>
       </c>
       <c r="BA33" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB33" t="n">
         <v>101</v>
       </c>
       <c r="BC33" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BD33" t="n">
         <v>151</v>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="H34" t="n">
         <v>3.6</v>
@@ -6580,7 +6580,7 @@
         <v>5</v>
       </c>
       <c r="J34" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="K34" t="n">
         <v>2.25</v>
@@ -6759,16 +6759,16 @@
         <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="J35" t="n">
         <v>5.5</v>
       </c>
       <c r="K35" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L35" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="M35" t="n">
         <v>1.11</v>
@@ -6906,7 +6906,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>rLBKZmvq</t>
+          <t>8Ymq892M</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6916,179 +6916,179 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Raja Casablanca</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>FAR Rabat</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H36" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="I36" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J36" t="n">
         <v>3.4</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P36" t="n">
         <v>2.5</v>
       </c>
-      <c r="K36" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N36" t="n">
+      <c r="Q36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X36" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE36" t="n">
         <v>19</v>
       </c>
-      <c r="O36" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P36" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R36" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T36" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V36" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W36" t="n">
-        <v>12</v>
-      </c>
-      <c r="X36" t="n">
+      <c r="AF36" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI36" t="n">
         <v>13</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>21</v>
       </c>
       <c r="AJ36" t="n">
         <v>12</v>
       </c>
       <c r="AK36" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL36" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AM36" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AN36" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO36" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AP36" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AQ36" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AR36" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AS36" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="AT36" t="n">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="AU36" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV36" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AW36" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY36" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AZ36" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA36" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB36" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="BC36" t="n">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="BD36" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>OUJSXR8e</t>
+          <t>rLBKZmvq</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7108,160 +7108,160 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>FC Emmen</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="H37" t="n">
-        <v>4.33</v>
+        <v>3.7</v>
       </c>
       <c r="I37" t="n">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="J37" t="n">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="K37" t="n">
         <v>2.5</v>
       </c>
       <c r="L37" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N37" t="n">
+        <v>19</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P37" t="n">
         <v>6</v>
       </c>
-      <c r="M37" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N37" t="n">
+      <c r="Q37" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T37" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W37" t="n">
+        <v>12</v>
+      </c>
+      <c r="X37" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH37" t="n">
         <v>17</v>
       </c>
-      <c r="O37" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R37" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T37" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V37" t="n">
-        <v>2</v>
-      </c>
-      <c r="W37" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB37" t="n">
+      <c r="AI37" t="n">
         <v>21</v>
       </c>
-      <c r="AC37" t="n">
+      <c r="AJ37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP37" t="n">
         <v>15</v>
       </c>
-      <c r="AD37" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO37" t="n">
+      <c r="AQ37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU37" t="n">
         <v>7</v>
       </c>
-      <c r="AP37" t="n">
+      <c r="AV37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX37" t="n">
         <v>17</v>
       </c>
-      <c r="AQ37" t="n">
+      <c r="AY37" t="n">
         <v>19</v>
       </c>
-      <c r="AR37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS37" t="n">
+      <c r="AZ37" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB37" t="n">
         <v>101</v>
       </c>
-      <c r="AT37" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY37" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ37" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA37" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB37" t="n">
-        <v>201</v>
-      </c>
       <c r="BC37" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BD37" t="n">
         <v>151</v>
@@ -7270,7 +7270,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>drIzW5w8</t>
+          <t>OUJSXR8e</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7290,31 +7290,31 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>FC Emmen</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="H38" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="I38" t="n">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="J38" t="n">
-        <v>2.4</v>
+        <v>1.92</v>
       </c>
       <c r="K38" t="n">
         <v>2.5</v>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M38" t="n">
         <v>1.03</v>
@@ -7329,10 +7329,10 @@
         <v>5</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R38" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S38" t="n">
         <v>1.29</v>
@@ -7341,109 +7341,109 @@
         <v>3.5</v>
       </c>
       <c r="U38" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="V38" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X38" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z38" t="n">
         <v>11</v>
       </c>
-      <c r="X38" t="n">
+      <c r="AA38" t="n">
         <v>11</v>
       </c>
-      <c r="Y38" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>13</v>
-      </c>
       <c r="AB38" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC38" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AD38" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI38" t="n">
         <v>34</v>
       </c>
-      <c r="AG38" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI38" t="n">
+      <c r="AJ38" t="n">
         <v>21</v>
       </c>
-      <c r="AJ38" t="n">
-        <v>13</v>
-      </c>
       <c r="AK38" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AL38" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM38" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN38" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="AO38" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AP38" t="n">
         <v>17</v>
       </c>
       <c r="AQ38" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AR38" t="n">
         <v>41</v>
       </c>
       <c r="AS38" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT38" t="n">
         <v>3.5</v>
       </c>
       <c r="AU38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV38" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW38" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX38" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AY38" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ38" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA38" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB38" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC38" t="n">
         <v>126</v>
-      </c>
-      <c r="BC38" t="n">
-        <v>301</v>
       </c>
       <c r="BD38" t="n">
         <v>151</v>
@@ -7452,7 +7452,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>tY21JmBa</t>
+          <t>drIzW5w8</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7472,37 +7472,37 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="H39" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I39" t="n">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="K39" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O39" t="n">
         <v>1.17</v>
@@ -7511,10 +7511,10 @@
         <v>5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R39" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S39" t="n">
         <v>1.29</v>
@@ -7529,31 +7529,31 @@
         <v>2.5</v>
       </c>
       <c r="W39" t="n">
+        <v>11</v>
+      </c>
+      <c r="X39" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA39" t="n">
         <v>13</v>
       </c>
-      <c r="X39" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA39" t="n">
+      <c r="AB39" t="n">
         <v>19</v>
       </c>
-      <c r="AB39" t="n">
-        <v>21</v>
-      </c>
       <c r="AC39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF39" t="n">
         <v>34</v>
@@ -7562,40 +7562,40 @@
         <v>101</v>
       </c>
       <c r="AH39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ39" t="n">
         <v>13</v>
       </c>
-      <c r="AI39" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>10</v>
-      </c>
       <c r="AK39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL39" t="n">
         <v>26</v>
       </c>
-      <c r="AL39" t="n">
-        <v>19</v>
-      </c>
       <c r="AM39" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AN39" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AO39" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ39" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR39" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS39" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT39" t="n">
         <v>3.5</v>
@@ -7607,22 +7607,22 @@
         <v>41</v>
       </c>
       <c r="AW39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX39" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AY39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ39" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA39" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB39" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC39" t="n">
         <v>301</v>
@@ -7634,7 +7634,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>buIT9Q5k</t>
+          <t>tY21JmBa</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -7649,165 +7649,165 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Grau</t>
+          <t>Jong Utrecht</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Deportivo Garcilaso</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.73</v>
+        <v>2.55</v>
       </c>
       <c r="H40" t="n">
         <v>3.5</v>
       </c>
       <c r="I40" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L40" t="n">
+        <v>3</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N40" t="n">
+        <v>15</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P40" t="n">
         <v>5</v>
       </c>
-      <c r="J40" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L40" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N40" t="n">
-        <v>9</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P40" t="n">
-        <v>3.25</v>
-      </c>
       <c r="Q40" t="n">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="R40" t="n">
-        <v>1.7</v>
+        <v>2.35</v>
       </c>
       <c r="S40" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="T40" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="U40" t="n">
-        <v>2</v>
+        <v>1.47</v>
       </c>
       <c r="V40" t="n">
-        <v>1.73</v>
+        <v>2.5</v>
       </c>
       <c r="W40" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="X40" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z40" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AA40" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB40" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AC40" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AD40" t="n">
         <v>7</v>
       </c>
       <c r="AE40" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AF40" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AG40" t="n">
-        <v>900</v>
+        <v>101</v>
       </c>
       <c r="AH40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI40" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AJ40" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AK40" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AL40" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AM40" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AN40" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="AO40" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AP40" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ40" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR40" t="n">
         <v>51</v>
       </c>
       <c r="AS40" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="AU40" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV40" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW40" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AX40" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AY40" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AZ40" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB40" t="n">
         <v>101</v>
       </c>
-      <c r="BA40" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB40" t="n">
+      <c r="BC40" t="n">
         <v>301</v>
-      </c>
-      <c r="BC40" t="n">
-        <v>126</v>
       </c>
       <c r="BD40" t="n">
         <v>151</v>
@@ -7816,7 +7816,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EmIF29bM</t>
+          <t>buIT9Q5k</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -7826,7 +7826,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -7836,28 +7836,28 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Los Chankas</t>
+          <t>Grau</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Cesar Vallejo</t>
+          <t>Deportivo Garcilaso</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H41" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I41" t="n">
-        <v>6.25</v>
+        <v>5.25</v>
       </c>
       <c r="J41" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="K41" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L41" t="n">
         <v>5.5</v>
@@ -7866,34 +7866,34 @@
         <v>1.05</v>
       </c>
       <c r="N41" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O41" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P41" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="R41" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="S41" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T41" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U41" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="W41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X41" t="n">
         <v>7.5</v>
@@ -7902,38 +7902,38 @@
         <v>8.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC41" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AD41" t="n">
         <v>7</v>
       </c>
       <c r="AE41" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ41" t="n">
         <v>17</v>
       </c>
-      <c r="AF41" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>19</v>
-      </c>
       <c r="AK41" t="n">
         <v>51</v>
       </c>
@@ -7941,19 +7941,19 @@
         <v>41</v>
       </c>
       <c r="AM41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN41" t="n">
         <v>3.6</v>
       </c>
       <c r="AO41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR41" t="n">
         <v>51</v>
@@ -7962,22 +7962,22 @@
         <v>151</v>
       </c>
       <c r="AT41" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU41" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV41" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW41" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX41" t="n">
         <v>29</v>
       </c>
       <c r="AY41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ41" t="n">
         <v>101</v>
@@ -7986,7 +7986,7 @@
         <v>126</v>
       </c>
       <c r="BB41" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC41" t="n">
         <v>151</v>
@@ -7998,7 +7998,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>8AwkH8DF</t>
+          <t>EmIF29bM</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -8018,160 +8018,160 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>FBC Melgar</t>
+          <t>Los Chankas</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Cajamarca</t>
+          <t>Cesar Vallejo</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="H42" t="n">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="I42" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L42" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N42" t="n">
         <v>11</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K42" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L42" t="n">
-        <v>10</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N42" t="n">
-        <v>12</v>
       </c>
       <c r="O42" t="n">
         <v>1.22</v>
       </c>
       <c r="P42" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="R42" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="S42" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T42" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U42" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="V42" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="W42" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X42" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD42" t="n">
         <v>7</v>
       </c>
-      <c r="AA42" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>11</v>
-      </c>
       <c r="AE42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI42" t="n">
         <v>29</v>
       </c>
-      <c r="AF42" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH42" t="n">
+      <c r="AJ42" t="n">
         <v>19</v>
       </c>
-      <c r="AI42" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>29</v>
-      </c>
       <c r="AK42" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="AL42" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM42" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AN42" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AO42" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="AP42" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ42" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AR42" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS42" t="n">
         <v>151</v>
       </c>
       <c r="AT42" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU42" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AV42" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW42" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AX42" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AY42" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AZ42" t="n">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="BA42" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="BB42" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="BC42" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD42" t="n">
         <v>151</v>
@@ -8180,7 +8180,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MD3OV7S8</t>
+          <t>8AwkH8DF</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8190,7 +8190,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>22:15</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -8200,43 +8200,43 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Alianza Lima</t>
+          <t>FBC Melgar</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Sport Huancayo</t>
+          <t>Cajamarca</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H43" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I43" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J43" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="K43" t="n">
         <v>2.5</v>
       </c>
       <c r="L43" t="n">
+        <v>10</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N43" t="n">
         <v>12</v>
       </c>
-      <c r="M43" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N43" t="n">
-        <v>11</v>
-      </c>
       <c r="O43" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="P43" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q43" t="n">
         <v>1.75</v>
@@ -8251,64 +8251,64 @@
         <v>3.25</v>
       </c>
       <c r="U43" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V43" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="W43" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X43" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y43" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD43" t="n">
         <v>11</v>
       </c>
-      <c r="Z43" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>12</v>
-      </c>
       <c r="AE43" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF43" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG43" t="n">
         <v>201</v>
       </c>
       <c r="AH43" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI43" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ43" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK43" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL43" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM43" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AN43" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AO43" t="n">
         <v>5.5</v>
@@ -8323,19 +8323,19 @@
         <v>41</v>
       </c>
       <c r="AS43" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT43" t="n">
         <v>3.25</v>
       </c>
       <c r="AU43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV43" t="n">
         <v>81</v>
       </c>
       <c r="AW43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX43" t="n">
         <v>51</v>
@@ -8344,10 +8344,10 @@
         <v>51</v>
       </c>
       <c r="AZ43" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BA43" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="BB43" t="n">
         <v>501</v>
@@ -8362,7 +8362,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>8ni80y74</t>
+          <t>MD3OV7S8</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8372,59 +8372,59 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>22:15</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Leczna</t>
+          <t>Alianza Lima</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Wisla</t>
+          <t>Sport Huancayo</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>1.22</v>
       </c>
       <c r="H44" t="n">
+        <v>6</v>
+      </c>
+      <c r="I44" t="n">
+        <v>13</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L44" t="n">
+        <v>12</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N44" t="n">
+        <v>11</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P44" t="n">
         <v>3.75</v>
       </c>
-      <c r="I44" t="n">
+      <c r="Q44" t="n">
         <v>1.75</v>
       </c>
-      <c r="J44" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K44" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N44" t="n">
-        <v>13</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P44" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1.73</v>
-      </c>
       <c r="R44" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S44" t="n">
         <v>1.33</v>
@@ -8433,118 +8433,118 @@
         <v>3.25</v>
       </c>
       <c r="U44" t="n">
-        <v>1.73</v>
+        <v>2.63</v>
       </c>
       <c r="V44" t="n">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="W44" t="n">
+        <v>6</v>
+      </c>
+      <c r="X44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA44" t="n">
         <v>13</v>
       </c>
-      <c r="X44" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA44" t="n">
+      <c r="AB44" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE44" t="n">
         <v>34</v>
       </c>
-      <c r="AB44" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>15</v>
-      </c>
       <c r="AF44" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AG44" t="n">
         <v>201</v>
       </c>
       <c r="AH44" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AI44" t="n">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="AJ44" t="n">
-        <v>8.5</v>
+        <v>34</v>
       </c>
       <c r="AK44" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ44" t="n">
         <v>15</v>
       </c>
-      <c r="AL44" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP44" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ44" t="n">
-        <v>67</v>
-      </c>
       <c r="AR44" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AS44" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT44" t="n">
         <v>3.25</v>
       </c>
       <c r="AU44" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AV44" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW44" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AX44" t="n">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="AY44" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AZ44" t="n">
-        <v>29</v>
+        <v>351</v>
       </c>
       <c r="BA44" t="n">
-        <v>41</v>
+        <v>501</v>
       </c>
       <c r="BB44" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC44" t="n">
         <v>126</v>
       </c>
-      <c r="BC44" t="n">
-        <v>81</v>
-      </c>
       <c r="BD44" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>QFRek53d</t>
+          <t>8ni80y74</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -8554,167 +8554,167 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Leczna</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H45" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="I45" t="n">
-        <v>6.25</v>
+        <v>1.75</v>
       </c>
       <c r="J45" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="K45" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="L45" t="n">
-        <v>7</v>
+        <v>2.38</v>
       </c>
       <c r="M45" t="n">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="N45" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O45" t="n">
-        <v>1.67</v>
+        <v>1.22</v>
       </c>
       <c r="P45" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Q45" t="n">
-        <v>3.1</v>
+        <v>1.73</v>
       </c>
       <c r="R45" t="n">
-        <v>1.36</v>
+        <v>2.08</v>
       </c>
       <c r="S45" t="n">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="T45" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="U45" t="n">
-        <v>2.75</v>
+        <v>1.73</v>
       </c>
       <c r="V45" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="W45" t="n">
-        <v>4.33</v>
+        <v>13</v>
       </c>
       <c r="X45" t="n">
-        <v>6.5</v>
+        <v>21</v>
       </c>
       <c r="Y45" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z45" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC45" t="n">
         <v>13</v>
       </c>
-      <c r="AA45" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>5</v>
-      </c>
       <c r="AD45" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AF45" t="n">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="AG45" t="n">
         <v>201</v>
       </c>
       <c r="AH45" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI45" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP45" t="n">
         <v>29</v>
       </c>
-      <c r="AJ45" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL45" t="n">
+      <c r="AQ45" t="n">
         <v>67</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>41</v>
       </c>
       <c r="AR45" t="n">
         <v>81</v>
       </c>
       <c r="AS45" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="AU45" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AV45" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AW45" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX45" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="AY45" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AZ45" t="n">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="BA45" t="n">
-        <v>301</v>
+        <v>41</v>
       </c>
       <c r="BB45" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BC45" t="n">
         <v>81</v>
@@ -8726,7 +8726,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>xSbPbIzg</t>
+          <t>QFRek53d</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -8736,7 +8736,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -8746,157 +8746,157 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="H46" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L46" t="n">
+        <v>7</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N46" t="n">
+        <v>5</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W46" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="X46" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN46" t="n">
         <v>3.4</v>
       </c>
-      <c r="I46" t="n">
-        <v>3</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K46" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N46" t="n">
-        <v>13</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P46" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R46" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T46" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U46" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V46" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W46" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X46" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG46" t="n">
+      <c r="AO46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ46" t="n">
         <v>151</v>
       </c>
-      <c r="AH46" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ46" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR46" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS46" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT46" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU46" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW46" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX46" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY46" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ46" t="n">
-        <v>51</v>
-      </c>
       <c r="BA46" t="n">
-        <v>67</v>
+        <v>301</v>
       </c>
       <c r="BB46" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BC46" t="n">
         <v>81</v>
@@ -8908,7 +8908,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>j5id34KA</t>
+          <t>xSbPbIzg</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -8918,41 +8918,41 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Orebro</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.57</v>
+        <v>2.25</v>
       </c>
       <c r="H47" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="I47" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="K47" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L47" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M47" t="n">
         <v>1.04</v>
@@ -8967,10 +8967,10 @@
         <v>4</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R47" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S47" t="n">
         <v>1.33</v>
@@ -8979,25 +8979,25 @@
         <v>3.25</v>
       </c>
       <c r="U47" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="V47" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="W47" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="X47" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y47" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AA47" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AB47" t="n">
         <v>23</v>
@@ -9006,49 +9006,49 @@
         <v>12</v>
       </c>
       <c r="AD47" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF47" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG47" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH47" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI47" t="n">
         <v>17</v>
       </c>
-      <c r="AI47" t="n">
+      <c r="AJ47" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK47" t="n">
         <v>29</v>
       </c>
-      <c r="AJ47" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>51</v>
-      </c>
       <c r="AL47" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AM47" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN47" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO47" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AP47" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ47" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AR47" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS47" t="n">
         <v>126</v>
@@ -9057,215 +9057,397 @@
         <v>3.25</v>
       </c>
       <c r="AU47" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV47" t="n">
         <v>51</v>
       </c>
       <c r="AW47" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX47" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AY47" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AZ47" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA47" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB47" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC47" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD47" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>j5id34KA</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>22/10/2024</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>SWEDEN - SUPERETTAN</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Orebro</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+      <c r="I48" t="n">
+        <v>6</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L48" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N48" t="n">
+        <v>13</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T48" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W48" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X48" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
           <t>IFBZH1E7</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>22/10/2024</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>20:30</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>USA - MLS</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>CF Montreal</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Atlanta Utd</t>
         </is>
       </c>
-      <c r="G48" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="H48" t="n">
+      <c r="G49" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H49" t="n">
         <v>3.6</v>
       </c>
-      <c r="I48" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J48" t="n">
+      <c r="I49" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J49" t="n">
         <v>2.88</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K49" t="n">
         <v>2.3</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L49" t="n">
         <v>3.25</v>
       </c>
-      <c r="M48" t="n">
+      <c r="M49" t="n">
         <v>1.03</v>
       </c>
-      <c r="N48" t="n">
+      <c r="N49" t="n">
         <v>15</v>
       </c>
-      <c r="O48" t="n">
+      <c r="O49" t="n">
         <v>1.18</v>
       </c>
-      <c r="P48" t="n">
+      <c r="P49" t="n">
         <v>4.5</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="Q49" t="n">
         <v>1.62</v>
       </c>
-      <c r="R48" t="n">
+      <c r="R49" t="n">
         <v>2.25</v>
       </c>
-      <c r="S48" t="n">
+      <c r="S49" t="n">
         <v>1.3</v>
       </c>
-      <c r="T48" t="n">
+      <c r="T49" t="n">
         <v>3.4</v>
       </c>
-      <c r="U48" t="n">
+      <c r="U49" t="n">
         <v>1.53</v>
       </c>
-      <c r="V48" t="n">
+      <c r="V49" t="n">
         <v>2.38</v>
       </c>
-      <c r="W48" t="n">
+      <c r="W49" t="n">
         <v>11</v>
       </c>
-      <c r="X48" t="n">
+      <c r="X49" t="n">
         <v>13</v>
       </c>
-      <c r="Y48" t="n">
+      <c r="Y49" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z48" t="n">
+      <c r="Z49" t="n">
         <v>23</v>
       </c>
-      <c r="AA48" t="n">
+      <c r="AA49" t="n">
         <v>17</v>
       </c>
-      <c r="AB48" t="n">
+      <c r="AB49" t="n">
         <v>21</v>
       </c>
-      <c r="AC48" t="n">
+      <c r="AC49" t="n">
         <v>15</v>
       </c>
-      <c r="AD48" t="n">
+      <c r="AD49" t="n">
         <v>7</v>
       </c>
-      <c r="AE48" t="n">
+      <c r="AE49" t="n">
         <v>12</v>
       </c>
-      <c r="AF48" t="n">
+      <c r="AF49" t="n">
         <v>34</v>
       </c>
-      <c r="AG48" t="n">
+      <c r="AG49" t="n">
         <v>126</v>
       </c>
-      <c r="AH48" t="n">
+      <c r="AH49" t="n">
         <v>12</v>
       </c>
-      <c r="AI48" t="n">
+      <c r="AI49" t="n">
         <v>17</v>
       </c>
-      <c r="AJ48" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK48" t="n">
+      <c r="AJ49" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK49" t="n">
         <v>29</v>
       </c>
-      <c r="AL48" t="n">
+      <c r="AL49" t="n">
         <v>21</v>
       </c>
-      <c r="AM48" t="n">
+      <c r="AM49" t="n">
         <v>23</v>
       </c>
-      <c r="AN48" t="n">
+      <c r="AN49" t="n">
         <v>4.75</v>
       </c>
-      <c r="AO48" t="n">
+      <c r="AO49" t="n">
         <v>12</v>
       </c>
-      <c r="AP48" t="n">
+      <c r="AP49" t="n">
         <v>19</v>
       </c>
-      <c r="AQ48" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR48" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS48" t="n">
+      <c r="AQ49" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS49" t="n">
         <v>101</v>
       </c>
-      <c r="AT48" t="n">
+      <c r="AT49" t="n">
         <v>3.4</v>
       </c>
-      <c r="AU48" t="n">
+      <c r="AU49" t="n">
         <v>7</v>
       </c>
-      <c r="AV48" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW48" t="n">
+      <c r="AV49" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW49" t="n">
         <v>5</v>
       </c>
-      <c r="AX48" t="n">
+      <c r="AX49" t="n">
         <v>15</v>
       </c>
-      <c r="AY48" t="n">
+      <c r="AY49" t="n">
         <v>21</v>
       </c>
-      <c r="AZ48" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA48" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB48" t="n">
+      <c r="AZ49" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB49" t="n">
         <v>101</v>
       </c>
-      <c r="BC48" t="n">
+      <c r="BC49" t="n">
         <v>351</v>
       </c>
-      <c r="BD48" t="n">
+      <c r="BD49" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD49"/>
+  <dimension ref="A1:BD50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
@@ -777,13 +777,13 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T2" t="n">
         <v>2.5</v>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I3" t="n">
         <v>3.2</v>
@@ -941,7 +941,7 @@
         <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L3" t="n">
         <v>4</v>
@@ -959,10 +959,10 @@
         <v>2.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
         <v>1.62</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
@@ -1144,7 +1144,7 @@
         <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1228,7 +1228,7 @@
         <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU4" t="n">
         <v>8.5</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="H5" t="n">
         <v>3.2</v>
@@ -1305,7 +1305,7 @@
         <v>2.5</v>
       </c>
       <c r="K5" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
@@ -1326,7 +1326,7 @@
         <v>2.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1487,7 +1487,7 @@
         <v>2.6</v>
       </c>
       <c r="K6" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L6" t="n">
         <v>5.5</v>
@@ -1666,7 +1666,7 @@
         <v>3.75</v>
       </c>
       <c r="J7" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="K7" t="n">
         <v>2.2</v>
@@ -1687,10 +1687,10 @@
         <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R7" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
@@ -1699,7 +1699,7 @@
         <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V7" t="n">
         <v>2</v>
@@ -1848,7 +1848,7 @@
         <v>8.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K8" t="n">
         <v>2.6</v>
@@ -1881,10 +1881,10 @@
         <v>3.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
         <v>8</v>
@@ -2063,10 +2063,10 @@
         <v>2.63</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
         <v>7.5</v>
@@ -2233,16 +2233,16 @@
         <v>3.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="S10" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="T10" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="U10" t="n">
         <v>1.8</v>
@@ -2275,7 +2275,7 @@
         <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
         <v>51</v>
@@ -2320,7 +2320,7 @@
         <v>201</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
         <v>8</v>
@@ -2421,10 +2421,10 @@
         <v>1.73</v>
       </c>
       <c r="S11" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T11" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U11" t="n">
         <v>1.8</v>
@@ -2502,7 +2502,7 @@
         <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU11" t="n">
         <v>8</v>
@@ -2597,13 +2597,13 @@
         <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="S12" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T12" t="n">
         <v>2.75</v>
@@ -2785,7 +2785,7 @@
         <v>1.93</v>
       </c>
       <c r="S13" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T13" t="n">
         <v>2.75</v>
@@ -2967,7 +2967,7 @@
         <v>1.93</v>
       </c>
       <c r="S14" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T14" t="n">
         <v>2.75</v>
@@ -3149,7 +3149,7 @@
         <v>2.08</v>
       </c>
       <c r="S15" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T15" t="n">
         <v>3.25</v>
@@ -3331,7 +3331,7 @@
         <v>1.93</v>
       </c>
       <c r="S16" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T16" t="n">
         <v>2.75</v>
@@ -3513,7 +3513,7 @@
         <v>2.08</v>
       </c>
       <c r="S17" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T17" t="n">
         <v>3.25</v>
@@ -3689,13 +3689,13 @@
         <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="R18" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="S18" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T18" t="n">
         <v>2.75</v>
@@ -3871,10 +3871,10 @@
         <v>3.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="R19" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
         <v>1.36</v>
@@ -4205,13 +4205,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="H21" t="n">
         <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J21" t="n">
         <v>3.2</v>
@@ -4387,7 +4387,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="H22" t="n">
         <v>3.8</v>
@@ -4405,10 +4405,10 @@
         <v>5.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O22" t="n">
         <v>1.36</v>
@@ -4569,7 +4569,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="H23" t="n">
         <v>3.9</v>
@@ -4581,46 +4581,46 @@
         <v>2.1</v>
       </c>
       <c r="K23" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L23" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R23" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T23" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U23" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="V23" t="n">
-        <v>1.95</v>
+        <v>1.77</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y23" t="n">
         <v>8.5</v>
@@ -4629,13 +4629,13 @@
         <v>11</v>
       </c>
       <c r="AA23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD23" t="n">
         <v>7.5</v>
@@ -4647,7 +4647,7 @@
         <v>51</v>
       </c>
       <c r="AG23" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH23" t="n">
         <v>17</v>
@@ -4665,7 +4665,7 @@
         <v>41</v>
       </c>
       <c r="AM23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN23" t="n">
         <v>3.5</v>
@@ -4686,7 +4686,7 @@
         <v>126</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU23" t="n">
         <v>8.5</v>
@@ -4704,7 +4704,7 @@
         <v>34</v>
       </c>
       <c r="AZ23" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA23" t="n">
         <v>126</v>
@@ -4716,7 +4716,7 @@
         <v>501</v>
       </c>
       <c r="BD23" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24">
@@ -4751,7 +4751,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H24" t="n">
         <v>3.4</v>
@@ -4793,7 +4793,7 @@
         <v>2.75</v>
       </c>
       <c r="U24" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V24" t="n">
         <v>2</v>
@@ -4933,13 +4933,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="H25" t="n">
         <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J25" t="n">
         <v>3</v>
@@ -4975,7 +4975,7 @@
         <v>3</v>
       </c>
       <c r="U25" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V25" t="n">
         <v>2.1</v>
@@ -5232,7 +5232,7 @@
         <v>201</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU26" t="n">
         <v>8</v>
@@ -5297,16 +5297,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="H27" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I27" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="J27" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K27" t="n">
         <v>2.38</v>
@@ -5327,10 +5327,10 @@
         <v>4.33</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R27" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S27" t="n">
         <v>1.3</v>
@@ -5345,19 +5345,19 @@
         <v>2.2</v>
       </c>
       <c r="W27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y27" t="n">
         <v>9</v>
       </c>
-      <c r="X27" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA27" t="n">
         <v>15</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>13</v>
       </c>
       <c r="AB27" t="n">
         <v>21</v>
@@ -5381,31 +5381,31 @@
         <v>13</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK27" t="n">
         <v>41</v>
       </c>
       <c r="AL27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM27" t="n">
         <v>29</v>
       </c>
       <c r="AN27" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO27" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP27" t="n">
         <v>17</v>
       </c>
       <c r="AQ27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR27" t="n">
         <v>41</v>
@@ -5423,22 +5423,22 @@
         <v>41</v>
       </c>
       <c r="AW27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY27" t="n">
         <v>23</v>
       </c>
       <c r="AZ27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA27" t="n">
         <v>67</v>
       </c>
       <c r="BB27" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC27" t="n">
         <v>81</v>
@@ -5491,7 +5491,7 @@
         <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L28" t="n">
         <v>3.1</v>
@@ -5503,16 +5503,16 @@
         <v>15</v>
       </c>
       <c r="O28" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P28" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R28" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S28" t="n">
         <v>1.3</v>
@@ -5527,7 +5527,7 @@
         <v>2.38</v>
       </c>
       <c r="W28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X28" t="n">
         <v>15</v>
@@ -5554,7 +5554,7 @@
         <v>12</v>
       </c>
       <c r="AF28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG28" t="n">
         <v>126</v>
@@ -5661,40 +5661,40 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H29" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I29" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K29" t="n">
         <v>2.3</v>
       </c>
       <c r="L29" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N29" t="n">
         <v>13</v>
       </c>
       <c r="O29" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R29" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S29" t="n">
         <v>1.33</v>
@@ -5718,7 +5718,7 @@
         <v>8.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA29" t="n">
         <v>13</v>
@@ -5739,16 +5739,16 @@
         <v>41</v>
       </c>
       <c r="AG29" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI29" t="n">
         <v>23</v>
       </c>
       <c r="AJ29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
         <v>41</v>
@@ -5760,16 +5760,16 @@
         <v>34</v>
       </c>
       <c r="AN29" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO29" t="n">
         <v>9</v>
       </c>
       <c r="AP29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR29" t="n">
         <v>41</v>
@@ -5787,13 +5787,13 @@
         <v>51</v>
       </c>
       <c r="AW29" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ29" t="n">
         <v>67</v>
@@ -5843,16 +5843,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="H30" t="n">
         <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J30" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K30" t="n">
         <v>2.4</v>
@@ -5861,19 +5861,19 @@
         <v>4.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
         <v>17</v>
       </c>
       <c r="O30" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R30" t="n">
         <v>2.35</v>
@@ -5894,7 +5894,7 @@
         <v>9.5</v>
       </c>
       <c r="X30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y30" t="n">
         <v>8.5</v>
@@ -5903,7 +5903,7 @@
         <v>15</v>
       </c>
       <c r="AA30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB30" t="n">
         <v>21</v>
@@ -5933,10 +5933,10 @@
         <v>15</v>
       </c>
       <c r="AK30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL30" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM30" t="n">
         <v>34</v>
@@ -5975,7 +5975,7 @@
         <v>21</v>
       </c>
       <c r="AY30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ30" t="n">
         <v>67</v>
@@ -5984,7 +5984,7 @@
         <v>81</v>
       </c>
       <c r="BB30" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC30" t="n">
         <v>81</v>
@@ -6040,22 +6040,22 @@
         <v>2.4</v>
       </c>
       <c r="L31" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="M31" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N31" t="n">
         <v>17</v>
       </c>
       <c r="O31" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R31" t="n">
         <v>2.35</v>
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="H32" t="n">
         <v>3.8</v>
@@ -6216,10 +6216,10 @@
         <v>3.6</v>
       </c>
       <c r="J32" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="K32" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L32" t="n">
         <v>4.33</v>
@@ -6255,22 +6255,22 @@
         <v>2.1</v>
       </c>
       <c r="W32" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="X32" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="Y32" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Z32" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AA32" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AB32" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AC32" t="n">
         <v>15</v>
@@ -6288,40 +6288,40 @@
         <v>151</v>
       </c>
       <c r="AH32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL32" t="n">
         <v>13</v>
       </c>
-      <c r="AI32" t="n">
+      <c r="AM32" t="n">
         <v>21</v>
       </c>
-      <c r="AJ32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>34</v>
-      </c>
       <c r="AN32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO32" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AP32" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AQ32" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AR32" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AS32" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT32" t="n">
         <v>3.4</v>
@@ -6333,22 +6333,22 @@
         <v>41</v>
       </c>
       <c r="AW32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX32" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AY32" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AZ32" t="n">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="BA32" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BB32" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BC32" t="n">
         <v>351</v>
@@ -6395,7 +6395,7 @@
         <v>3.7</v>
       </c>
       <c r="I33" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="J33" t="n">
         <v>4</v>
@@ -6473,7 +6473,7 @@
         <v>9.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ33" t="n">
         <v>8.5</v>
@@ -6515,7 +6515,7 @@
         <v>41</v>
       </c>
       <c r="AW33" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX33" t="n">
         <v>10</v>
@@ -6533,7 +6533,7 @@
         <v>101</v>
       </c>
       <c r="BC33" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD33" t="n">
         <v>151</v>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="H34" t="n">
         <v>3.6</v>
@@ -6580,7 +6580,7 @@
         <v>5</v>
       </c>
       <c r="J34" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="K34" t="n">
         <v>2.25</v>
@@ -6759,16 +6759,16 @@
         <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="J35" t="n">
         <v>5.5</v>
       </c>
       <c r="K35" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L35" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="M35" t="n">
         <v>1.11</v>
@@ -6906,7 +6906,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>8Ymq892M</t>
+          <t>08pyAVX9</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6916,7 +6916,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6926,67 +6926,67 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Raja Casablanca</t>
+          <t>Difaa El Jadidi</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>FAR Rabat</t>
+          <t>Moghreb Tetouan</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H36" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I36" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J36" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K36" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L36" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N36" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O36" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P36" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R36" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S36" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="T36" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U36" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V36" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W36" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y36" t="n">
         <v>11</v>
@@ -7001,34 +7001,34 @@
         <v>41</v>
       </c>
       <c r="AC36" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD36" t="n">
         <v>6</v>
       </c>
       <c r="AE36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF36" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG36" t="n">
-        <v>900</v>
+        <v>101</v>
       </c>
       <c r="AH36" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI36" t="n">
         <v>13</v>
       </c>
       <c r="AJ36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK36" t="n">
         <v>34</v>
       </c>
       <c r="AL36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM36" t="n">
         <v>41</v>
@@ -7052,19 +7052,19 @@
         <v>301</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU36" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV36" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW36" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY36" t="n">
         <v>34</v>
@@ -7073,10 +7073,10 @@
         <v>67</v>
       </c>
       <c r="BA36" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB36" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC36" t="n">
         <v>51</v>
@@ -7088,7 +7088,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>rLBKZmvq</t>
+          <t>8Ymq892M</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7098,179 +7098,179 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Raja Casablanca</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>FAR Rabat</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="H37" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="I37" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="J37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N37" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P37" t="n">
         <v>2.5</v>
       </c>
-      <c r="K37" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N37" t="n">
+      <c r="Q37" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W37" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X37" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE37" t="n">
         <v>19</v>
       </c>
-      <c r="O37" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P37" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R37" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T37" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V37" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W37" t="n">
+      <c r="AF37" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ37" t="n">
         <v>12</v>
       </c>
-      <c r="X37" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y37" t="n">
+      <c r="AK37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU37" t="n">
         <v>9</v>
       </c>
-      <c r="Z37" t="n">
+      <c r="AV37" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX37" t="n">
         <v>19</v>
       </c>
-      <c r="AA37" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ37" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW37" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>17</v>
-      </c>
       <c r="AY37" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AZ37" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA37" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB37" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="BC37" t="n">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="BD37" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>OUJSXR8e</t>
+          <t>rLBKZmvq</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7290,160 +7290,160 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>FC Emmen</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.45</v>
+        <v>2.05</v>
       </c>
       <c r="H38" t="n">
-        <v>4.33</v>
+        <v>3.7</v>
       </c>
       <c r="I38" t="n">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="J38" t="n">
-        <v>1.92</v>
+        <v>2.6</v>
       </c>
       <c r="K38" t="n">
         <v>2.5</v>
       </c>
       <c r="L38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N38" t="n">
+        <v>19</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P38" t="n">
         <v>6</v>
       </c>
-      <c r="M38" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N38" t="n">
+      <c r="Q38" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W38" t="n">
+        <v>13</v>
+      </c>
+      <c r="X38" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH38" t="n">
         <v>17</v>
       </c>
-      <c r="O38" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R38" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T38" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V38" t="n">
-        <v>2</v>
-      </c>
-      <c r="W38" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X38" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z38" t="n">
+      <c r="AI38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO38" t="n">
         <v>11</v>
       </c>
-      <c r="AA38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC38" t="n">
+      <c r="AP38" t="n">
         <v>15</v>
       </c>
-      <c r="AD38" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE38" t="n">
+      <c r="AQ38" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX38" t="n">
         <v>15</v>
       </c>
-      <c r="AF38" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ38" t="n">
+      <c r="AY38" t="n">
         <v>19</v>
       </c>
-      <c r="AR38" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS38" t="n">
+      <c r="AZ38" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB38" t="n">
         <v>101</v>
       </c>
-      <c r="AT38" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW38" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX38" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY38" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ38" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA38" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB38" t="n">
-        <v>201</v>
-      </c>
       <c r="BC38" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BD38" t="n">
         <v>151</v>
@@ -7452,7 +7452,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>drIzW5w8</t>
+          <t>OUJSXR8e</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7472,31 +7472,31 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>FC Emmen</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="H39" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="I39" t="n">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="J39" t="n">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="K39" t="n">
         <v>2.5</v>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
@@ -7511,121 +7511,121 @@
         <v>5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R39" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S39" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T39" t="n">
         <v>3.5</v>
       </c>
       <c r="U39" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="V39" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X39" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z39" t="n">
         <v>11</v>
       </c>
-      <c r="X39" t="n">
+      <c r="AA39" t="n">
         <v>11</v>
       </c>
-      <c r="Y39" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>13</v>
-      </c>
       <c r="AB39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC39" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AD39" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI39" t="n">
         <v>34</v>
       </c>
-      <c r="AG39" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI39" t="n">
+      <c r="AJ39" t="n">
         <v>21</v>
       </c>
-      <c r="AJ39" t="n">
-        <v>13</v>
-      </c>
       <c r="AK39" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AL39" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM39" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN39" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="AO39" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AP39" t="n">
         <v>17</v>
       </c>
       <c r="AQ39" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AR39" t="n">
         <v>41</v>
       </c>
       <c r="AS39" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT39" t="n">
         <v>3.5</v>
       </c>
       <c r="AU39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV39" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW39" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX39" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AY39" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ39" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA39" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB39" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC39" t="n">
         <v>126</v>
-      </c>
-      <c r="BC39" t="n">
-        <v>301</v>
       </c>
       <c r="BD39" t="n">
         <v>151</v>
@@ -7634,7 +7634,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>tY21JmBa</t>
+          <t>drIzW5w8</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -7654,88 +7654,88 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="H40" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I40" t="n">
-        <v>2.55</v>
+        <v>3.7</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="K40" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M40" t="n">
         <v>1.02</v>
       </c>
       <c r="N40" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O40" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P40" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R40" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="S40" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="T40" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U40" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V40" t="n">
         <v>2.5</v>
       </c>
       <c r="W40" t="n">
+        <v>11</v>
+      </c>
+      <c r="X40" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA40" t="n">
         <v>13</v>
       </c>
-      <c r="X40" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA40" t="n">
+      <c r="AB40" t="n">
         <v>19</v>
       </c>
-      <c r="AB40" t="n">
-        <v>21</v>
-      </c>
       <c r="AC40" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD40" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF40" t="n">
         <v>34</v>
@@ -7744,43 +7744,43 @@
         <v>101</v>
       </c>
       <c r="AH40" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ40" t="n">
         <v>13</v>
       </c>
-      <c r="AI40" t="n">
+      <c r="AK40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP40" t="n">
         <v>15</v>
       </c>
-      <c r="AJ40" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ40" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR40" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS40" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT40" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU40" t="n">
         <v>7</v>
@@ -7789,16 +7789,16 @@
         <v>41</v>
       </c>
       <c r="AW40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX40" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AY40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ40" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA40" t="n">
         <v>51</v>
@@ -7816,7 +7816,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>buIT9Q5k</t>
+          <t>tY21JmBa</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -7831,165 +7831,165 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Grau</t>
+          <t>Jong Utrecht</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Deportivo Garcilaso</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H41" t="n">
         <v>3.5</v>
       </c>
       <c r="I41" t="n">
-        <v>5.25</v>
+        <v>2.6</v>
       </c>
       <c r="J41" t="n">
+        <v>3</v>
+      </c>
+      <c r="K41" t="n">
         <v>2.38</v>
       </c>
-      <c r="K41" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L41" t="n">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="M41" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="O41" t="n">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="P41" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="R41" t="n">
-        <v>1.7</v>
+        <v>2.35</v>
       </c>
       <c r="S41" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="T41" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="U41" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="V41" t="n">
-        <v>1.69</v>
+        <v>2.5</v>
       </c>
       <c r="W41" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="X41" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="Y41" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z41" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AA41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB41" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AD41" t="n">
         <v>7</v>
       </c>
       <c r="AE41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL41" t="n">
         <v>19</v>
       </c>
-      <c r="AF41" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>41</v>
-      </c>
       <c r="AM41" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AN41" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="AO41" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AP41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ41" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR41" t="n">
         <v>51</v>
       </c>
       <c r="AS41" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="AU41" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV41" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW41" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AX41" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AY41" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AZ41" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB41" t="n">
         <v>101</v>
       </c>
-      <c r="BA41" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB41" t="n">
+      <c r="BC41" t="n">
         <v>301</v>
-      </c>
-      <c r="BC41" t="n">
-        <v>151</v>
       </c>
       <c r="BD41" t="n">
         <v>151</v>
@@ -7998,7 +7998,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>EmIF29bM</t>
+          <t>buIT9Q5k</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -8018,64 +8018,64 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Los Chankas</t>
+          <t>Grau</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Cesar Vallejo</t>
+          <t>Deportivo Garcilaso</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H42" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I42" t="n">
-        <v>6.25</v>
+        <v>5.25</v>
       </c>
       <c r="J42" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="K42" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L42" t="n">
         <v>5.5</v>
       </c>
       <c r="M42" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O42" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="P42" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="R42" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="S42" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T42" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U42" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V42" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X42" t="n">
         <v>7.5</v>
@@ -8084,38 +8084,38 @@
         <v>8.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB42" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC42" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AD42" t="n">
         <v>7</v>
       </c>
       <c r="AE42" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ42" t="n">
         <v>17</v>
       </c>
-      <c r="AF42" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>19</v>
-      </c>
       <c r="AK42" t="n">
         <v>51</v>
       </c>
@@ -8123,19 +8123,19 @@
         <v>41</v>
       </c>
       <c r="AM42" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN42" t="n">
         <v>3.6</v>
       </c>
       <c r="AO42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP42" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ42" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR42" t="n">
         <v>51</v>
@@ -8144,22 +8144,22 @@
         <v>151</v>
       </c>
       <c r="AT42" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV42" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW42" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX42" t="n">
         <v>29</v>
       </c>
       <c r="AY42" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ42" t="n">
         <v>101</v>
@@ -8168,7 +8168,7 @@
         <v>126</v>
       </c>
       <c r="BB42" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC42" t="n">
         <v>151</v>
@@ -8180,7 +8180,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>8AwkH8DF</t>
+          <t>EmIF29bM</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8190,7 +8190,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -8200,160 +8200,160 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FBC Melgar</t>
+          <t>Los Chankas</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Cajamarca</t>
+          <t>Cesar Vallejo</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I43" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L43" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N43" t="n">
+        <v>11</v>
+      </c>
+      <c r="O43" t="n">
         <v>1.25</v>
       </c>
-      <c r="H43" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="I43" t="n">
+      <c r="P43" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T43" t="n">
+        <v>3</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W43" t="n">
+        <v>7</v>
+      </c>
+      <c r="X43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC43" t="n">
         <v>11</v>
       </c>
-      <c r="J43" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K43" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L43" t="n">
-        <v>10</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N43" t="n">
-        <v>12</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P43" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R43" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S43" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T43" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U43" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W43" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X43" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z43" t="n">
+      <c r="AD43" t="n">
         <v>7</v>
       </c>
-      <c r="AA43" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>11</v>
-      </c>
       <c r="AE43" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI43" t="n">
         <v>29</v>
       </c>
-      <c r="AF43" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH43" t="n">
+      <c r="AJ43" t="n">
         <v>19</v>
       </c>
-      <c r="AI43" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>29</v>
-      </c>
       <c r="AK43" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="AL43" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM43" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AN43" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AO43" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="AP43" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ43" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AR43" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS43" t="n">
         <v>151</v>
       </c>
       <c r="AT43" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU43" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AV43" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW43" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AX43" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AY43" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AZ43" t="n">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="BA43" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="BB43" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="BC43" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD43" t="n">
         <v>151</v>
@@ -8362,7 +8362,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MD3OV7S8</t>
+          <t>8AwkH8DF</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>22:15</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -8382,43 +8382,43 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Alianza Lima</t>
+          <t>FBC Melgar</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Sport Huancayo</t>
+          <t>Cajamarca</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H44" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I44" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J44" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="K44" t="n">
         <v>2.5</v>
       </c>
       <c r="L44" t="n">
+        <v>10</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N44" t="n">
         <v>12</v>
       </c>
-      <c r="M44" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N44" t="n">
-        <v>11</v>
-      </c>
       <c r="O44" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P44" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q44" t="n">
         <v>1.75</v>
@@ -8433,64 +8433,64 @@
         <v>3.25</v>
       </c>
       <c r="U44" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V44" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W44" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X44" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y44" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD44" t="n">
         <v>11</v>
       </c>
-      <c r="Z44" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>12</v>
-      </c>
       <c r="AE44" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF44" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG44" t="n">
         <v>201</v>
       </c>
       <c r="AH44" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI44" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ44" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK44" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL44" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM44" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AN44" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AO44" t="n">
         <v>5.5</v>
@@ -8505,19 +8505,19 @@
         <v>41</v>
       </c>
       <c r="AS44" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT44" t="n">
         <v>3.25</v>
       </c>
       <c r="AU44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV44" t="n">
         <v>81</v>
       </c>
       <c r="AW44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX44" t="n">
         <v>51</v>
@@ -8526,10 +8526,10 @@
         <v>51</v>
       </c>
       <c r="AZ44" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BA44" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="BB44" t="n">
         <v>501</v>
@@ -8544,7 +8544,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>8ni80y74</t>
+          <t>MD3OV7S8</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -8554,59 +8554,59 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>22:15</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Leczna</t>
+          <t>Alianza Lima</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Wisla</t>
+          <t>Sport Huancayo</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4</v>
+        <v>1.22</v>
       </c>
       <c r="H45" t="n">
+        <v>6</v>
+      </c>
+      <c r="I45" t="n">
+        <v>13</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L45" t="n">
+        <v>12</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N45" t="n">
+        <v>11</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P45" t="n">
         <v>3.75</v>
       </c>
-      <c r="I45" t="n">
+      <c r="Q45" t="n">
         <v>1.75</v>
       </c>
-      <c r="J45" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K45" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N45" t="n">
-        <v>13</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.73</v>
-      </c>
       <c r="R45" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S45" t="n">
         <v>1.33</v>
@@ -8615,118 +8615,118 @@
         <v>3.25</v>
       </c>
       <c r="U45" t="n">
-        <v>1.73</v>
+        <v>2.63</v>
       </c>
       <c r="V45" t="n">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="W45" t="n">
+        <v>6</v>
+      </c>
+      <c r="X45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA45" t="n">
         <v>13</v>
       </c>
-      <c r="X45" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA45" t="n">
+      <c r="AB45" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE45" t="n">
         <v>34</v>
       </c>
-      <c r="AB45" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>15</v>
-      </c>
       <c r="AF45" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AG45" t="n">
         <v>201</v>
       </c>
       <c r="AH45" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AI45" t="n">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="AJ45" t="n">
-        <v>8.5</v>
+        <v>34</v>
       </c>
       <c r="AK45" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ45" t="n">
         <v>15</v>
       </c>
-      <c r="AL45" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>67</v>
-      </c>
       <c r="AR45" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AS45" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT45" t="n">
         <v>3.25</v>
       </c>
       <c r="AU45" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AV45" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW45" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AX45" t="n">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="AY45" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AZ45" t="n">
-        <v>29</v>
+        <v>351</v>
       </c>
       <c r="BA45" t="n">
-        <v>41</v>
+        <v>501</v>
       </c>
       <c r="BB45" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC45" t="n">
         <v>126</v>
       </c>
-      <c r="BC45" t="n">
-        <v>81</v>
-      </c>
       <c r="BD45" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>QFRek53d</t>
+          <t>8ni80y74</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -8736,167 +8736,167 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Leczna</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H46" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="I46" t="n">
-        <v>6.25</v>
+        <v>1.75</v>
       </c>
       <c r="J46" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="K46" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="L46" t="n">
-        <v>7</v>
+        <v>2.38</v>
       </c>
       <c r="M46" t="n">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="N46" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O46" t="n">
-        <v>1.67</v>
+        <v>1.22</v>
       </c>
       <c r="P46" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.1</v>
+        <v>1.73</v>
       </c>
       <c r="R46" t="n">
-        <v>1.36</v>
+        <v>2.08</v>
       </c>
       <c r="S46" t="n">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="T46" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="U46" t="n">
-        <v>2.75</v>
+        <v>1.73</v>
       </c>
       <c r="V46" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="W46" t="n">
-        <v>4.33</v>
+        <v>13</v>
       </c>
       <c r="X46" t="n">
-        <v>6.5</v>
+        <v>21</v>
       </c>
       <c r="Y46" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z46" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC46" t="n">
         <v>13</v>
       </c>
-      <c r="AA46" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>5</v>
-      </c>
       <c r="AD46" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AF46" t="n">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="AG46" t="n">
         <v>201</v>
       </c>
       <c r="AH46" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI46" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP46" t="n">
         <v>29</v>
       </c>
-      <c r="AJ46" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL46" t="n">
+      <c r="AQ46" t="n">
         <v>67</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ46" t="n">
-        <v>41</v>
       </c>
       <c r="AR46" t="n">
         <v>81</v>
       </c>
       <c r="AS46" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="AU46" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AV46" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AW46" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX46" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="AY46" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AZ46" t="n">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="BA46" t="n">
-        <v>301</v>
+        <v>41</v>
       </c>
       <c r="BB46" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BC46" t="n">
         <v>81</v>
@@ -8908,7 +8908,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>xSbPbIzg</t>
+          <t>QFRek53d</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -8918,7 +8918,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -8928,157 +8928,157 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L47" t="n">
+        <v>7</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W47" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="X47" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN47" t="n">
         <v>3.4</v>
       </c>
-      <c r="I47" t="n">
-        <v>3</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K47" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N47" t="n">
-        <v>13</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P47" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R47" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S47" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T47" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V47" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W47" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X47" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG47" t="n">
+      <c r="AO47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ47" t="n">
         <v>151</v>
       </c>
-      <c r="AH47" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP47" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ47" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR47" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS47" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT47" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU47" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV47" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW47" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX47" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY47" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ47" t="n">
-        <v>51</v>
-      </c>
       <c r="BA47" t="n">
-        <v>67</v>
+        <v>301</v>
       </c>
       <c r="BB47" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BC47" t="n">
         <v>81</v>
@@ -9090,7 +9090,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>j5id34KA</t>
+          <t>xSbPbIzg</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9100,41 +9100,41 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Orebro</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.57</v>
+        <v>2.25</v>
       </c>
       <c r="H48" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="I48" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="K48" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L48" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M48" t="n">
         <v>1.04</v>
@@ -9149,10 +9149,10 @@
         <v>4</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R48" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S48" t="n">
         <v>1.33</v>
@@ -9161,25 +9161,25 @@
         <v>3.25</v>
       </c>
       <c r="U48" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="V48" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="W48" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="X48" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y48" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AA48" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AB48" t="n">
         <v>23</v>
@@ -9188,49 +9188,49 @@
         <v>12</v>
       </c>
       <c r="AD48" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF48" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG48" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH48" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI48" t="n">
         <v>17</v>
       </c>
-      <c r="AI48" t="n">
+      <c r="AJ48" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK48" t="n">
         <v>29</v>
       </c>
-      <c r="AJ48" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>51</v>
-      </c>
       <c r="AL48" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AM48" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN48" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AP48" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ48" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AR48" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS48" t="n">
         <v>126</v>
@@ -9239,215 +9239,397 @@
         <v>3.25</v>
       </c>
       <c r="AU48" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV48" t="n">
         <v>51</v>
       </c>
       <c r="AW48" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX48" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AY48" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AZ48" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA48" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB48" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC48" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD48" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>j5id34KA</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>22/10/2024</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>SWEDEN - SUPERETTAN</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Orebro</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+      <c r="I49" t="n">
+        <v>6</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L49" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N49" t="n">
+        <v>13</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T49" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W49" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X49" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>IFBZH1E7</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>22/10/2024</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>20:30</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>USA - MLS</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>CF Montreal</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Atlanta Utd</t>
         </is>
       </c>
-      <c r="G49" t="n">
+      <c r="G50" t="n">
         <v>2.3</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H50" t="n">
         <v>3.6</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I50" t="n">
         <v>2.8</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J50" t="n">
         <v>2.88</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K50" t="n">
         <v>2.3</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L50" t="n">
         <v>3.25</v>
       </c>
-      <c r="M49" t="n">
+      <c r="M50" t="n">
         <v>1.03</v>
       </c>
-      <c r="N49" t="n">
+      <c r="N50" t="n">
         <v>15</v>
       </c>
-      <c r="O49" t="n">
+      <c r="O50" t="n">
         <v>1.18</v>
       </c>
-      <c r="P49" t="n">
+      <c r="P50" t="n">
         <v>4.5</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="Q50" t="n">
         <v>1.62</v>
       </c>
-      <c r="R49" t="n">
+      <c r="R50" t="n">
         <v>2.25</v>
       </c>
-      <c r="S49" t="n">
+      <c r="S50" t="n">
         <v>1.3</v>
       </c>
-      <c r="T49" t="n">
+      <c r="T50" t="n">
         <v>3.4</v>
       </c>
-      <c r="U49" t="n">
+      <c r="U50" t="n">
         <v>1.53</v>
       </c>
-      <c r="V49" t="n">
+      <c r="V50" t="n">
         <v>2.38</v>
       </c>
-      <c r="W49" t="n">
+      <c r="W50" t="n">
         <v>11</v>
       </c>
-      <c r="X49" t="n">
+      <c r="X50" t="n">
         <v>13</v>
       </c>
-      <c r="Y49" t="n">
+      <c r="Y50" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z49" t="n">
+      <c r="Z50" t="n">
         <v>23</v>
       </c>
-      <c r="AA49" t="n">
+      <c r="AA50" t="n">
         <v>17</v>
       </c>
-      <c r="AB49" t="n">
+      <c r="AB50" t="n">
         <v>21</v>
       </c>
-      <c r="AC49" t="n">
+      <c r="AC50" t="n">
         <v>15</v>
       </c>
-      <c r="AD49" t="n">
+      <c r="AD50" t="n">
         <v>7</v>
       </c>
-      <c r="AE49" t="n">
+      <c r="AE50" t="n">
         <v>12</v>
       </c>
-      <c r="AF49" t="n">
+      <c r="AF50" t="n">
         <v>34</v>
       </c>
-      <c r="AG49" t="n">
+      <c r="AG50" t="n">
         <v>126</v>
       </c>
-      <c r="AH49" t="n">
+      <c r="AH50" t="n">
         <v>12</v>
       </c>
-      <c r="AI49" t="n">
+      <c r="AI50" t="n">
         <v>17</v>
       </c>
-      <c r="AJ49" t="n">
+      <c r="AJ50" t="n">
         <v>11</v>
       </c>
-      <c r="AK49" t="n">
+      <c r="AK50" t="n">
         <v>29</v>
       </c>
-      <c r="AL49" t="n">
+      <c r="AL50" t="n">
         <v>21</v>
       </c>
-      <c r="AM49" t="n">
+      <c r="AM50" t="n">
         <v>23</v>
       </c>
-      <c r="AN49" t="n">
+      <c r="AN50" t="n">
         <v>4.75</v>
       </c>
-      <c r="AO49" t="n">
+      <c r="AO50" t="n">
         <v>12</v>
       </c>
-      <c r="AP49" t="n">
+      <c r="AP50" t="n">
         <v>19</v>
       </c>
-      <c r="AQ49" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR49" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS49" t="n">
+      <c r="AQ50" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS50" t="n">
         <v>101</v>
       </c>
-      <c r="AT49" t="n">
+      <c r="AT50" t="n">
         <v>3.4</v>
       </c>
-      <c r="AU49" t="n">
+      <c r="AU50" t="n">
         <v>7</v>
       </c>
-      <c r="AV49" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW49" t="n">
+      <c r="AV50" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW50" t="n">
         <v>5</v>
       </c>
-      <c r="AX49" t="n">
+      <c r="AX50" t="n">
         <v>15</v>
       </c>
-      <c r="AY49" t="n">
+      <c r="AY50" t="n">
         <v>21</v>
       </c>
-      <c r="AZ49" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA49" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB49" t="n">
+      <c r="AZ50" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB50" t="n">
         <v>101</v>
       </c>
-      <c r="BC49" t="n">
+      <c r="BC50" t="n">
         <v>351</v>
       </c>
-      <c r="BD49" t="n">
+      <c r="BD50" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD50"/>
+  <dimension ref="A1:BD52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
@@ -765,13 +765,13 @@
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
         <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -783,7 +783,7 @@
         <v>1.65</v>
       </c>
       <c r="S2" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
         <v>2.5</v>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I3" t="n">
         <v>3.2</v>
@@ -947,13 +947,13 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
         <v>5.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P3" t="n">
         <v>2.25</v>
@@ -1228,7 +1228,7 @@
         <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU4" t="n">
         <v>8.5</v>
@@ -1305,7 +1305,7 @@
         <v>2.5</v>
       </c>
       <c r="K5" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
@@ -1487,7 +1487,7 @@
         <v>2.6</v>
       </c>
       <c r="K6" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L6" t="n">
         <v>5.5</v>
@@ -1666,7 +1666,7 @@
         <v>3.75</v>
       </c>
       <c r="J7" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K7" t="n">
         <v>2.2</v>
@@ -1699,7 +1699,7 @@
         <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V7" t="n">
         <v>2</v>
@@ -1848,7 +1848,7 @@
         <v>8.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K8" t="n">
         <v>2.6</v>
@@ -1881,10 +1881,10 @@
         <v>3.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W8" t="n">
         <v>8</v>
@@ -2063,10 +2063,10 @@
         <v>2.63</v>
       </c>
       <c r="U9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W9" t="n">
         <v>7.5</v>
@@ -2239,10 +2239,10 @@
         <v>1.8</v>
       </c>
       <c r="S10" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
         <v>1.8</v>
@@ -2421,10 +2421,10 @@
         <v>1.73</v>
       </c>
       <c r="S11" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U11" t="n">
         <v>1.8</v>
@@ -2597,13 +2597,13 @@
         <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="R12" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="S12" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T12" t="n">
         <v>2.75</v>
@@ -2764,7 +2764,7 @@
         <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2779,22 +2779,22 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="R13" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S13" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T13" t="n">
         <v>2.75</v>
       </c>
       <c r="U13" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W13" t="n">
         <v>10</v>
@@ -2815,7 +2815,7 @@
         <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
@@ -2887,7 +2887,7 @@
         <v>41</v>
       </c>
       <c r="BA13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB13" t="n">
         <v>151</v>
@@ -2961,13 +2961,13 @@
         <v>3.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="R14" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S14" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T14" t="n">
         <v>2.75</v>
@@ -3149,7 +3149,7 @@
         <v>2.08</v>
       </c>
       <c r="S15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T15" t="n">
         <v>3.25</v>
@@ -3325,13 +3325,13 @@
         <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="R16" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S16" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T16" t="n">
         <v>2.75</v>
@@ -3507,13 +3507,13 @@
         <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="R17" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="S17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T17" t="n">
         <v>3.25</v>
@@ -3695,7 +3695,7 @@
         <v>1.9</v>
       </c>
       <c r="S18" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T18" t="n">
         <v>2.75</v>
@@ -4053,10 +4053,10 @@
         <v>3.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="R20" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S20" t="n">
         <v>1.44</v>
@@ -4235,7 +4235,7 @@
         <v>4.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="R21" t="n">
         <v>2.25</v>
@@ -4420,7 +4420,7 @@
         <v>2.1</v>
       </c>
       <c r="R22" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S22" t="n">
         <v>1.44</v>
@@ -4504,7 +4504,7 @@
         <v>151</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU22" t="n">
         <v>9</v>
@@ -4599,10 +4599,10 @@
         <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="S23" t="n">
         <v>1.36</v>
@@ -4611,10 +4611,10 @@
         <v>3</v>
       </c>
       <c r="U23" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V23" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W23" t="n">
         <v>7</v>
@@ -4781,10 +4781,10 @@
         <v>3.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="R24" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="S24" t="n">
         <v>1.4</v>
@@ -4793,7 +4793,7 @@
         <v>2.75</v>
       </c>
       <c r="U24" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V24" t="n">
         <v>2</v>
@@ -4963,10 +4963,10 @@
         <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="R25" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="S25" t="n">
         <v>1.36</v>
@@ -4975,7 +4975,7 @@
         <v>3</v>
       </c>
       <c r="U25" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V25" t="n">
         <v>2.1</v>
@@ -5327,10 +5327,10 @@
         <v>4.33</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R27" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S27" t="n">
         <v>1.3</v>
@@ -6040,7 +6040,7 @@
         <v>2.4</v>
       </c>
       <c r="L31" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
@@ -6198,31 +6198,31 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
+          <t>Beitar Jerusalem</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>Maccabi Haifa</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Beitar Jerusalem</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>1.77</v>
+        <v>3.6</v>
       </c>
       <c r="H32" t="n">
         <v>3.8</v>
       </c>
       <c r="I32" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="J32" t="n">
-        <v>2.37</v>
+        <v>4.33</v>
       </c>
       <c r="K32" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L32" t="n">
-        <v>4.33</v>
+        <v>2.38</v>
       </c>
       <c r="M32" t="n">
         <v>1.03</v>
@@ -6249,7 +6249,7 @@
         <v>3.4</v>
       </c>
       <c r="U32" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V32" t="n">
         <v>2.1</v>
@@ -6395,7 +6395,7 @@
         <v>3.7</v>
       </c>
       <c r="I33" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="J33" t="n">
         <v>4</v>
@@ -6431,7 +6431,7 @@
         <v>3.4</v>
       </c>
       <c r="U33" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="V33" t="n">
         <v>2.2</v>
@@ -6473,7 +6473,7 @@
         <v>9.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ33" t="n">
         <v>8.5</v>
@@ -6515,7 +6515,7 @@
         <v>41</v>
       </c>
       <c r="AW33" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX33" t="n">
         <v>10</v>
@@ -6533,7 +6533,7 @@
         <v>101</v>
       </c>
       <c r="BC33" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BD33" t="n">
         <v>151</v>
@@ -6724,7 +6724,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4tiSBi3c</t>
+          <t>d2EuAnyi</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6734,167 +6734,167 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Chabab Mohammedia</t>
+          <t>Tampico Madero</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Maghreb Fez</t>
+          <t>Dorados de Sinaloa</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="H35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L35" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N35" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P35" t="n">
         <v>3.1</v>
       </c>
-      <c r="I35" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J35" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K35" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N35" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2.5</v>
-      </c>
       <c r="Q35" t="n">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="R35" t="n">
-        <v>1.5</v>
+        <v>1.87</v>
       </c>
       <c r="S35" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="T35" t="n">
-        <v>2.25</v>
+        <v>2.57</v>
       </c>
       <c r="U35" t="n">
-        <v>2.25</v>
+        <v>1.82</v>
       </c>
       <c r="V35" t="n">
-        <v>1.57</v>
+        <v>1.78</v>
       </c>
       <c r="W35" t="n">
-        <v>9</v>
+        <v>6.7</v>
       </c>
       <c r="X35" t="n">
-        <v>21</v>
+        <v>7.4</v>
       </c>
       <c r="Y35" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE35" t="n">
         <v>17</v>
       </c>
-      <c r="Z35" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>21</v>
-      </c>
       <c r="AF35" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG35" t="n">
-        <v>101</v>
+        <v>700</v>
       </c>
       <c r="AH35" t="n">
-        <v>5.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>7.5</v>
+        <v>29</v>
       </c>
       <c r="AJ35" t="n">
-        <v>9.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK35" t="n">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="AL35" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="AM35" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AN35" t="n">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="AO35" t="n">
-        <v>29</v>
+        <v>7.6</v>
       </c>
       <c r="AP35" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AQ35" t="n">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="AR35" t="n">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="AS35" t="n">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="AU35" t="n">
-        <v>9.5</v>
+        <v>7.7</v>
       </c>
       <c r="AV35" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="AW35" t="n">
-        <v>3.6</v>
+        <v>6.6</v>
       </c>
       <c r="AX35" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="AY35" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AZ35" t="n">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="BA35" t="n">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="BB35" t="n">
-        <v>251</v>
+        <v>450</v>
       </c>
       <c r="BC35" t="n">
         <v>51</v>
@@ -6906,7 +6906,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>08pyAVX9</t>
+          <t>4tiSBi3c</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6916,7 +6916,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6926,85 +6926,85 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Difaa El Jadidi</t>
+          <t>Chabab Mohammedia</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Moghreb Tetouan</t>
+          <t>Maghreb Fez</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="H36" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>1.73</v>
       </c>
       <c r="J36" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="K36" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M36" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N36" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O36" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P36" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="R36" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S36" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="T36" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U36" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V36" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W36" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="X36" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="Y36" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Z36" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AA36" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AB36" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC36" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE36" t="n">
         <v>21</v>
@@ -7016,43 +7016,43 @@
         <v>101</v>
       </c>
       <c r="AH36" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI36" t="n">
         <v>7</v>
       </c>
-      <c r="AI36" t="n">
+      <c r="AJ36" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK36" t="n">
         <v>13</v>
       </c>
-      <c r="AJ36" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>34</v>
-      </c>
       <c r="AL36" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AM36" t="n">
         <v>41</v>
       </c>
       <c r="AN36" t="n">
-        <v>4.33</v>
+        <v>6.5</v>
       </c>
       <c r="AO36" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AP36" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AQ36" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AR36" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AS36" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU36" t="n">
         <v>9.5</v>
@@ -7061,22 +7061,22 @@
         <v>81</v>
       </c>
       <c r="AW36" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="AX36" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AY36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ36" t="n">
         <v>34</v>
       </c>
-      <c r="AZ36" t="n">
+      <c r="BA36" t="n">
         <v>67</v>
       </c>
-      <c r="BA36" t="n">
-        <v>126</v>
-      </c>
       <c r="BB36" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BC36" t="n">
         <v>51</v>
@@ -7088,7 +7088,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>8Ymq892M</t>
+          <t>Cn4tllBj</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7098,7 +7098,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -7108,25 +7108,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Raja Casablanca</t>
+          <t>Hassania Agadir</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>FAR Rabat</t>
+          <t>Union Touarga</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H37" t="n">
         <v>2.8</v>
       </c>
       <c r="I37" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J37" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K37" t="n">
         <v>1.91</v>
@@ -7135,34 +7135,34 @@
         <v>3.75</v>
       </c>
       <c r="M37" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N37" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O37" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P37" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R37" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S37" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T37" t="n">
         <v>2.25</v>
       </c>
       <c r="U37" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V37" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W37" t="n">
         <v>6.5</v>
@@ -7174,16 +7174,16 @@
         <v>11</v>
       </c>
       <c r="Z37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB37" t="n">
         <v>41</v>
       </c>
       <c r="AC37" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD37" t="n">
         <v>6</v>
@@ -7195,10 +7195,10 @@
         <v>67</v>
       </c>
       <c r="AG37" t="n">
-        <v>900</v>
+        <v>101</v>
       </c>
       <c r="AH37" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI37" t="n">
         <v>13</v>
@@ -7207,7 +7207,7 @@
         <v>12</v>
       </c>
       <c r="AK37" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL37" t="n">
         <v>29</v>
@@ -7216,10 +7216,10 @@
         <v>41</v>
       </c>
       <c r="AN37" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO37" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP37" t="n">
         <v>29</v>
@@ -7228,7 +7228,7 @@
         <v>51</v>
       </c>
       <c r="AR37" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS37" t="n">
         <v>301</v>
@@ -7240,7 +7240,7 @@
         <v>9</v>
       </c>
       <c r="AV37" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW37" t="n">
         <v>4.75</v>
@@ -7258,7 +7258,7 @@
         <v>101</v>
       </c>
       <c r="BB37" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC37" t="n">
         <v>51</v>
@@ -7270,7 +7270,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>rLBKZmvq</t>
+          <t>08pyAVX9</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7280,179 +7280,179 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Difaa El Jadidi</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Moghreb Tetouan</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H38" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
         <v>3.25</v>
       </c>
       <c r="J38" t="n">
+        <v>3</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L38" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q38" t="n">
         <v>2.6</v>
       </c>
-      <c r="K38" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N38" t="n">
-        <v>19</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P38" t="n">
+      <c r="R38" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W38" t="n">
         <v>6</v>
       </c>
-      <c r="Q38" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R38" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T38" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V38" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W38" t="n">
-        <v>13</v>
-      </c>
       <c r="X38" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Y38" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z38" t="n">
         <v>21</v>
       </c>
       <c r="AA38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI38" t="n">
         <v>15</v>
       </c>
-      <c r="AB38" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF38" t="n">
+      <c r="AJ38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP38" t="n">
         <v>29</v>
       </c>
-      <c r="AG38" t="n">
+      <c r="AQ38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR38" t="n">
         <v>81</v>
       </c>
-      <c r="AH38" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ38" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR38" t="n">
-        <v>41</v>
-      </c>
       <c r="AS38" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV38" t="n">
         <v>81</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>41</v>
       </c>
       <c r="AW38" t="n">
         <v>5.5</v>
       </c>
       <c r="AX38" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY38" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AZ38" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA38" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BB38" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BC38" t="n">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="BD38" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>OUJSXR8e</t>
+          <t>8Ymq892M</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7462,179 +7462,179 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>FC Emmen</t>
+          <t>Raja Casablanca</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>FAR Rabat</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.45</v>
+        <v>2.4</v>
       </c>
       <c r="H39" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W39" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X39" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN39" t="n">
         <v>4.33</v>
       </c>
-      <c r="I39" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K39" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L39" t="n">
-        <v>6</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N39" t="n">
-        <v>17</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R39" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T39" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V39" t="n">
-        <v>2</v>
-      </c>
-      <c r="W39" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X39" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC39" t="n">
+      <c r="AO39" t="n">
         <v>15</v>
       </c>
-      <c r="AD39" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK39" t="n">
+      <c r="AP39" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV39" t="n">
         <v>67</v>
       </c>
-      <c r="AL39" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ39" t="n">
+      <c r="AW39" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX39" t="n">
         <v>19</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX39" t="n">
-        <v>29</v>
       </c>
       <c r="AY39" t="n">
         <v>34</v>
       </c>
       <c r="AZ39" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BA39" t="n">
         <v>101</v>
       </c>
       <c r="BB39" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC39" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD39" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>drIzW5w8</t>
+          <t>rLBKZmvq</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -7654,31 +7654,31 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="H40" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I40" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="J40" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="K40" t="n">
         <v>2.5</v>
       </c>
       <c r="L40" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M40" t="n">
         <v>1.02</v>
@@ -7693,37 +7693,37 @@
         <v>5.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R40" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S40" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T40" t="n">
         <v>3.75</v>
       </c>
       <c r="U40" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V40" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W40" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y40" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB40" t="n">
         <v>19</v>
@@ -7735,43 +7735,43 @@
         <v>8</v>
       </c>
       <c r="AE40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF40" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG40" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH40" t="n">
         <v>17</v>
       </c>
       <c r="AI40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM40" t="n">
         <v>23</v>
       </c>
-      <c r="AJ40" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>26</v>
-      </c>
       <c r="AN40" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO40" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AP40" t="n">
         <v>15</v>
       </c>
       <c r="AQ40" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR40" t="n">
         <v>41</v>
@@ -7789,16 +7789,16 @@
         <v>41</v>
       </c>
       <c r="AW40" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY40" t="n">
         <v>19</v>
       </c>
-      <c r="AY40" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ40" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA40" t="n">
         <v>51</v>
@@ -7807,7 +7807,7 @@
         <v>101</v>
       </c>
       <c r="BC40" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD40" t="n">
         <v>151</v>
@@ -7816,7 +7816,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>tY21JmBa</t>
+          <t>OUJSXR8e</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -7836,31 +7836,31 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>FC Emmen</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="G41" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H41" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="K41" t="n">
         <v>2.5</v>
       </c>
-      <c r="H41" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3</v>
-      </c>
-      <c r="K41" t="n">
-        <v>2.38</v>
-      </c>
       <c r="L41" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="M41" t="n">
         <v>1.03</v>
@@ -7887,76 +7887,76 @@
         <v>3.5</v>
       </c>
       <c r="U41" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="V41" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W41" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="X41" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="Y41" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AA41" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AB41" t="n">
         <v>21</v>
       </c>
       <c r="AC41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP41" t="n">
         <v>17</v>
       </c>
-      <c r="AD41" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL41" t="n">
+      <c r="AQ41" t="n">
         <v>19</v>
       </c>
-      <c r="AM41" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>41</v>
-      </c>
       <c r="AR41" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS41" t="n">
         <v>101</v>
@@ -7965,31 +7965,31 @@
         <v>3.5</v>
       </c>
       <c r="AU41" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW41" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX41" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AY41" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AZ41" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BA41" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB41" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC41" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="BD41" t="n">
         <v>151</v>
@@ -7998,7 +7998,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>buIT9Q5k</t>
+          <t>drIzW5w8</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8013,165 +8013,165 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Grau</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Deportivo Garcilaso</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="H42" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I42" t="n">
-        <v>5.25</v>
+        <v>3.7</v>
       </c>
       <c r="J42" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K42" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N42" t="n">
+        <v>19</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P42" t="n">
         <v>5.5</v>
       </c>
-      <c r="M42" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N42" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P42" t="n">
-        <v>3.25</v>
-      </c>
       <c r="Q42" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="R42" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="S42" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="T42" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="V42" t="n">
-        <v>1.73</v>
+        <v>2.5</v>
       </c>
       <c r="W42" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X42" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="Y42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA42" t="n">
         <v>13</v>
       </c>
-      <c r="AA42" t="n">
+      <c r="AB42" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP42" t="n">
         <v>15</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>21</v>
       </c>
       <c r="AQ42" t="n">
         <v>29</v>
       </c>
       <c r="AR42" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS42" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="AU42" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV42" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW42" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX42" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AY42" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AZ42" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB42" t="n">
         <v>101</v>
       </c>
-      <c r="BA42" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB42" t="n">
+      <c r="BC42" t="n">
         <v>301</v>
-      </c>
-      <c r="BC42" t="n">
-        <v>151</v>
       </c>
       <c r="BD42" t="n">
         <v>151</v>
@@ -8180,7 +8180,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>EmIF29bM</t>
+          <t>tY21JmBa</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8190,170 +8190,170 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Los Chankas</t>
+          <t>Jong Utrecht</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Cesar Vallejo</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="H43" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I43" t="n">
-        <v>6.25</v>
+        <v>2.55</v>
       </c>
       <c r="J43" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="L43" t="n">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="M43" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N43" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="O43" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="P43" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.88</v>
+        <v>1.57</v>
       </c>
       <c r="R43" t="n">
-        <v>1.98</v>
+        <v>2.35</v>
       </c>
       <c r="S43" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="T43" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U43" t="n">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="V43" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="W43" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="X43" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z43" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AA43" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB43" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC43" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AD43" t="n">
         <v>7</v>
       </c>
       <c r="AE43" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AF43" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AG43" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="AH43" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI43" t="n">
         <v>15</v>
       </c>
-      <c r="AI43" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ43" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL43" t="n">
         <v>19</v>
       </c>
-      <c r="AK43" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>41</v>
-      </c>
       <c r="AM43" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AN43" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="AO43" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AP43" t="n">
         <v>19</v>
       </c>
       <c r="AQ43" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AR43" t="n">
         <v>51</v>
       </c>
       <c r="AS43" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT43" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AU43" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AV43" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW43" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX43" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AY43" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AZ43" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB43" t="n">
         <v>101</v>
       </c>
-      <c r="BA43" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB43" t="n">
-        <v>251</v>
-      </c>
       <c r="BC43" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BD43" t="n">
         <v>151</v>
@@ -8362,7 +8362,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>8AwkH8DF</t>
+          <t>buIT9Q5k</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -8382,160 +8382,160 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>FBC Melgar</t>
+          <t>Grau</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Cajamarca</t>
+          <t>Deportivo Garcilaso</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.25</v>
+        <v>1.66</v>
       </c>
       <c r="H44" t="n">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="I44" t="n">
-        <v>11</v>
+        <v>5.25</v>
       </c>
       <c r="J44" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N44" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
         <v>1.73</v>
       </c>
-      <c r="K44" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L44" t="n">
-        <v>10</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N44" t="n">
+      <c r="W44" t="n">
+        <v>6</v>
+      </c>
+      <c r="X44" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH44" t="n">
         <v>12</v>
       </c>
-      <c r="O44" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P44" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R44" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T44" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U44" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W44" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X44" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>19</v>
-      </c>
       <c r="AI44" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AJ44" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AK44" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="AL44" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM44" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN44" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AO44" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="AP44" t="n">
         <v>21</v>
       </c>
       <c r="AQ44" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AR44" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS44" t="n">
         <v>151</v>
       </c>
       <c r="AT44" t="n">
-        <v>3.25</v>
+        <v>2.62</v>
       </c>
       <c r="AU44" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV44" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW44" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="AX44" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AY44" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ44" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB44" t="n">
         <v>301</v>
       </c>
-      <c r="BA44" t="n">
-        <v>301</v>
-      </c>
-      <c r="BB44" t="n">
-        <v>501</v>
-      </c>
       <c r="BC44" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD44" t="n">
         <v>151</v>
@@ -8544,7 +8544,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MD3OV7S8</t>
+          <t>EmIF29bM</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -8554,7 +8554,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>22:15</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -8564,31 +8564,31 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Alianza Lima</t>
+          <t>Los Chankas</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Sport Huancayo</t>
+          <t>Cesar Vallejo</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.22</v>
+        <v>1.56</v>
       </c>
       <c r="H45" t="n">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="I45" t="n">
-        <v>13</v>
+        <v>6.25</v>
       </c>
       <c r="J45" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="K45" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L45" t="n">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="M45" t="n">
         <v>1.05</v>
@@ -8603,121 +8603,121 @@
         <v>3.75</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="R45" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="S45" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T45" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U45" t="n">
-        <v>2.63</v>
+        <v>1.83</v>
       </c>
       <c r="V45" t="n">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="W45" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X45" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="AA45" t="n">
         <v>13</v>
       </c>
       <c r="AB45" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC45" t="n">
         <v>11</v>
       </c>
       <c r="AD45" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE45" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY45" t="n">
         <v>34</v>
       </c>
-      <c r="AF45" t="n">
+      <c r="AZ45" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA45" t="n">
         <v>126</v>
       </c>
-      <c r="AG45" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>101</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR45" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS45" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT45" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU45" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV45" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW45" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX45" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY45" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ45" t="n">
-        <v>351</v>
-      </c>
-      <c r="BA45" t="n">
-        <v>501</v>
-      </c>
       <c r="BB45" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="BC45" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD45" t="n">
         <v>151</v>
@@ -8726,7 +8726,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>8ni80y74</t>
+          <t>8AwkH8DF</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -8736,59 +8736,59 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Leczna</t>
+          <t>FBC Melgar</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Wisla</t>
+          <t>Cajamarca</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="H46" t="n">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="I46" t="n">
-        <v>1.75</v>
+        <v>11</v>
       </c>
       <c r="J46" t="n">
-        <v>4.5</v>
+        <v>1.67</v>
       </c>
       <c r="K46" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L46" t="n">
-        <v>2.38</v>
+        <v>10</v>
       </c>
       <c r="M46" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N46" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O46" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R46" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S46" t="n">
         <v>1.33</v>
@@ -8797,76 +8797,76 @@
         <v>3.25</v>
       </c>
       <c r="U46" t="n">
-        <v>1.73</v>
+        <v>2.5</v>
       </c>
       <c r="V46" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="W46" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="X46" t="n">
-        <v>21</v>
+        <v>5.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z46" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="AA46" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AB46" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD46" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AE46" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AF46" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AG46" t="n">
         <v>201</v>
       </c>
       <c r="AH46" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AI46" t="n">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="AJ46" t="n">
-        <v>8.5</v>
+        <v>29</v>
       </c>
       <c r="AK46" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ46" t="n">
         <v>15</v>
       </c>
-      <c r="AL46" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ46" t="n">
-        <v>67</v>
-      </c>
       <c r="AR46" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AS46" t="n">
         <v>151</v>
@@ -8875,40 +8875,40 @@
         <v>3.25</v>
       </c>
       <c r="AU46" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AV46" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW46" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AX46" t="n">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="AY46" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AZ46" t="n">
-        <v>29</v>
+        <v>301</v>
       </c>
       <c r="BA46" t="n">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="BB46" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC46" t="n">
         <v>126</v>
       </c>
-      <c r="BC46" t="n">
-        <v>81</v>
-      </c>
       <c r="BD46" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>QFRek53d</t>
+          <t>MD3OV7S8</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -8918,65 +8918,65 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>22:15</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Alianza Lima</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Sport Huancayo</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.7</v>
+        <v>1.17</v>
       </c>
       <c r="H47" t="n">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="I47" t="n">
-        <v>6.25</v>
+        <v>15</v>
       </c>
       <c r="J47" t="n">
-        <v>2.5</v>
+        <v>1.57</v>
       </c>
       <c r="K47" t="n">
-        <v>1.83</v>
+        <v>2.63</v>
       </c>
       <c r="L47" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M47" t="n">
-        <v>1.17</v>
+        <v>1.02</v>
       </c>
       <c r="N47" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="O47" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
         <v>1.67</v>
       </c>
-      <c r="P47" t="n">
+      <c r="R47" t="n">
         <v>2.1</v>
       </c>
-      <c r="Q47" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.36</v>
-      </c>
       <c r="S47" t="n">
-        <v>1.67</v>
+        <v>1.3</v>
       </c>
       <c r="T47" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="U47" t="n">
         <v>2.75</v>
@@ -8985,112 +8985,112 @@
         <v>1.4</v>
       </c>
       <c r="W47" t="n">
-        <v>4.33</v>
+        <v>6.5</v>
       </c>
       <c r="X47" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Y47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z47" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA47" t="n">
         <v>13</v>
       </c>
-      <c r="AA47" t="n">
-        <v>21</v>
-      </c>
       <c r="AB47" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC47" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AD47" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AE47" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AF47" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AG47" t="n">
         <v>201</v>
       </c>
       <c r="AH47" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AI47" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AJ47" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AK47" t="n">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="AL47" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AM47" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT47" t="n">
         <v>3.4</v>
       </c>
-      <c r="AO47" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP47" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ47" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR47" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS47" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT47" t="n">
-        <v>2.1</v>
-      </c>
       <c r="AU47" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AV47" t="n">
         <v>101</v>
       </c>
       <c r="AW47" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AX47" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AY47" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AZ47" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BA47" t="n">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="BB47" t="n">
         <v>501</v>
       </c>
       <c r="BC47" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD47" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>xSbPbIzg</t>
+          <t>8ni80y74</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9100,59 +9100,59 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Leczna</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="H48" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>1.72</v>
       </c>
       <c r="J48" t="n">
-        <v>2.88</v>
+        <v>4.5</v>
       </c>
       <c r="K48" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L48" t="n">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="M48" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N48" t="n">
         <v>13</v>
       </c>
       <c r="O48" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R48" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S48" t="n">
         <v>1.33</v>
@@ -9161,79 +9161,79 @@
         <v>3.25</v>
       </c>
       <c r="U48" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="V48" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W48" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="X48" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Y48" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Z48" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO48" t="n">
         <v>21</v>
       </c>
-      <c r="AA48" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG48" t="n">
+      <c r="AP48" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS48" t="n">
         <v>151</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP48" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ48" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR48" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS48" t="n">
-        <v>126</v>
       </c>
       <c r="AT48" t="n">
         <v>3.25</v>
@@ -9245,22 +9245,22 @@
         <v>51</v>
       </c>
       <c r="AW48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX48" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AY48" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AZ48" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="BA48" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BB48" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC48" t="n">
         <v>81</v>
@@ -9272,7 +9272,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>j5id34KA</t>
+          <t>QFRek53d</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -9287,174 +9287,174 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Orebro</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="H49" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="I49" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L49" t="n">
+        <v>7</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N49" t="n">
+        <v>5</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="P49" t="n">
         <v>2.1</v>
       </c>
-      <c r="K49" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L49" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N49" t="n">
+      <c r="Q49" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W49" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="X49" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z49" t="n">
         <v>13</v>
       </c>
-      <c r="O49" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P49" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R49" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S49" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T49" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U49" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V49" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W49" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X49" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>12</v>
-      </c>
       <c r="AA49" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AB49" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AC49" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AD49" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE49" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AF49" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AG49" t="n">
         <v>201</v>
       </c>
       <c r="AH49" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AI49" t="n">
         <v>29</v>
       </c>
       <c r="AJ49" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AK49" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AL49" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AM49" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN49" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AO49" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AP49" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AQ49" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AR49" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AS49" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="AT49" t="n">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="AU49" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV49" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AW49" t="n">
         <v>7</v>
       </c>
       <c r="AX49" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AY49" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AZ49" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BA49" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="BB49" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BC49" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD49" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>IFBZH1E7</t>
+          <t>xSbPbIzg</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -9464,107 +9464,107 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>CF Montreal</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Atlanta Utd</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H50" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I50" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
         <v>2.88</v>
       </c>
       <c r="K50" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L50" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M50" t="n">
         <v>1.03</v>
       </c>
       <c r="N50" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O50" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P50" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q50" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T50" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U50" t="n">
         <v>1.62</v>
       </c>
-      <c r="R50" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S50" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T50" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U50" t="n">
-        <v>1.53</v>
-      </c>
       <c r="V50" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="W50" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="X50" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y50" t="n">
         <v>9.5</v>
       </c>
       <c r="Z50" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA50" t="n">
         <v>17</v>
       </c>
       <c r="AB50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC50" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD50" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE50" t="n">
         <v>12</v>
       </c>
       <c r="AF50" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG50" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI50" t="n">
         <v>17</v>
@@ -9576,19 +9576,19 @@
         <v>29</v>
       </c>
       <c r="AL50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM50" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AN50" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO50" t="n">
         <v>12</v>
       </c>
       <c r="AP50" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ50" t="n">
         <v>41</v>
@@ -9597,16 +9597,16 @@
         <v>51</v>
       </c>
       <c r="AS50" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT50" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU50" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV50" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW50" t="n">
         <v>5</v>
@@ -9615,21 +9615,385 @@
         <v>15</v>
       </c>
       <c r="AY50" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>j5id34KA</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>22/10/2024</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>SWEDEN - SUPERETTAN</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Orebro</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+      <c r="I51" t="n">
+        <v>6</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L51" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N51" t="n">
+        <v>13</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W51" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X51" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>IFBZH1E7</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>22/10/2024</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>CF Montreal</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Atlanta Utd</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L52" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N52" t="n">
+        <v>15</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T52" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V52" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W52" t="n">
+        <v>11</v>
+      </c>
+      <c r="X52" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB52" t="n">
         <v>21</v>
       </c>
-      <c r="AZ50" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA50" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB50" t="n">
+      <c r="AC52" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS52" t="n">
         <v>101</v>
       </c>
-      <c r="BC50" t="n">
+      <c r="AT52" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC52" t="n">
         <v>351</v>
       </c>
-      <c r="BD50" t="n">
+      <c r="BD52" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
@@ -929,82 +929,82 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U3" t="n">
         <v>2</v>
       </c>
-      <c r="R3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.83</v>
-      </c>
       <c r="V3" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="n">
         <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
         <v>301</v>
@@ -1013,25 +1013,25 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
@@ -1046,31 +1046,31 @@
         <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1123,34 +1123,34 @@
         <v>2.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U4" t="n">
         <v>2</v>
@@ -1165,7 +1165,7 @@
         <v>8</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z4" t="n">
         <v>15</v>
@@ -1174,10 +1174,10 @@
         <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1186,10 +1186,10 @@
         <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH4" t="n">
         <v>11</v>
@@ -1228,10 +1228,10 @@
         <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV4" t="n">
         <v>67</v>
@@ -1246,7 +1246,7 @@
         <v>34</v>
       </c>
       <c r="AZ4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA4" t="n">
         <v>126</v>
@@ -1296,7 +1296,7 @@
         <v>2.4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I5" t="n">
         <v>3.3</v>
@@ -1329,10 +1329,10 @@
         <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U5" t="n">
         <v>2.2</v>
@@ -1368,7 +1368,7 @@
         <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
         <v>201</v>
@@ -1410,7 +1410,7 @@
         <v>301</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU5" t="n">
         <v>9.5</v>
@@ -1431,7 +1431,7 @@
         <v>67</v>
       </c>
       <c r="BA5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB5" t="n">
         <v>351</v>
@@ -1487,16 +1487,16 @@
         <v>2.4</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1505,28 +1505,28 @@
         <v>3.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R6" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W6" t="n">
         <v>6.5</v>
       </c>
       <c r="X6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
@@ -1562,7 +1562,7 @@
         <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
         <v>51</v>
@@ -1583,7 +1583,7 @@
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
@@ -1592,13 +1592,13 @@
         <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU6" t="n">
         <v>8.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
         <v>6.5</v>
@@ -1610,13 +1610,13 @@
         <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA6" t="n">
         <v>126</v>
       </c>
       <c r="BB6" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC6" t="n">
         <v>81</v>
@@ -1842,7 +1842,7 @@
         <v>1.75</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
         <v>5</v>
@@ -1854,7 +1854,7 @@
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.11</v>
@@ -1863,10 +1863,10 @@
         <v>6.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q8" t="n">
         <v>2.5</v>
@@ -1887,7 +1887,7 @@
         <v>1.57</v>
       </c>
       <c r="W8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X8" t="n">
         <v>7</v>
@@ -1932,7 +1932,7 @@
         <v>51</v>
       </c>
       <c r="AL8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="n">
         <v>51</v>
@@ -1959,7 +1959,7 @@
         <v>2.38</v>
       </c>
       <c r="AU8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV8" t="n">
         <v>81</v>
@@ -1968,7 +1968,7 @@
         <v>6.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY8" t="n">
         <v>41</v>
@@ -2024,13 +2024,13 @@
         <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J9" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K9" t="n">
         <v>2.25</v>
@@ -2045,28 +2045,28 @@
         <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="R9" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T9" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W9" t="n">
         <v>8.5</v>
@@ -2075,10 +2075,10 @@
         <v>10</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="n">
         <v>15</v>
@@ -2102,19 +2102,19 @@
         <v>151</v>
       </c>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK9" t="n">
         <v>41</v>
       </c>
       <c r="AL9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM9" t="n">
         <v>34</v>
@@ -2138,7 +2138,7 @@
         <v>126</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
         <v>7.5</v>
@@ -2153,13 +2153,13 @@
         <v>19</v>
       </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
         <v>51</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
         <v>151</v>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H10" t="n">
         <v>4.75</v>
@@ -2212,7 +2212,7 @@
         <v>8.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="K10" t="n">
         <v>2.6</v>
@@ -2233,10 +2233,10 @@
         <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="R10" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="S10" t="n">
         <v>1.29</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H11" t="n">
         <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
@@ -2415,10 +2415,10 @@
         <v>3.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R11" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="S11" t="n">
         <v>1.44</v>
@@ -2439,13 +2439,13 @@
         <v>11</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA11" t="n">
         <v>21</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>19</v>
       </c>
       <c r="AB11" t="n">
         <v>29</v>
@@ -2466,34 +2466,34 @@
         <v>301</v>
       </c>
       <c r="AH11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ11" t="n">
         <v>11</v>
       </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM11" t="n">
         <v>34</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
         <v>67</v>
@@ -2511,13 +2511,13 @@
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX11" t="n">
         <v>17</v>
       </c>
       <c r="AY11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ11" t="n">
         <v>51</v>
@@ -2567,16 +2567,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H12" t="n">
         <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K12" t="n">
         <v>2.1</v>
@@ -2585,10 +2585,10 @@
         <v>3.1</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.33</v>
@@ -2597,10 +2597,10 @@
         <v>3.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="S12" t="n">
         <v>1.44</v>
@@ -2615,7 +2615,7 @@
         <v>1.91</v>
       </c>
       <c r="W12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X12" t="n">
         <v>15</v>
@@ -2639,7 +2639,7 @@
         <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
         <v>51</v>
@@ -2651,22 +2651,22 @@
         <v>8</v>
       </c>
       <c r="AI12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK12" t="n">
         <v>23</v>
       </c>
       <c r="AL12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM12" t="n">
         <v>29</v>
       </c>
       <c r="AN12" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO12" t="n">
         <v>17</v>
@@ -2693,7 +2693,7 @@
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX12" t="n">
         <v>13</v>
@@ -2779,10 +2779,10 @@
         <v>3.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="R13" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>
@@ -2961,10 +2961,10 @@
         <v>3.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="S14" t="n">
         <v>1.44</v>
@@ -3143,10 +3143,10 @@
         <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="R15" t="n">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="S15" t="n">
         <v>1.36</v>
@@ -3298,7 +3298,7 @@
         <v>2.2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
         <v>3.2</v>
@@ -3310,7 +3310,7 @@
         <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -3325,25 +3325,25 @@
         <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="R16" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="S16" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T16" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U16" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V16" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X16" t="n">
         <v>11</v>
@@ -3358,10 +3358,10 @@
         <v>17</v>
       </c>
       <c r="AB16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
@@ -3373,10 +3373,10 @@
         <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI16" t="n">
         <v>17</v>
@@ -3388,10 +3388,10 @@
         <v>34</v>
       </c>
       <c r="AL16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN16" t="n">
         <v>4.33</v>
@@ -3409,10 +3409,10 @@
         <v>51</v>
       </c>
       <c r="AS16" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU16" t="n">
         <v>7.5</v>
@@ -3427,7 +3427,7 @@
         <v>17</v>
       </c>
       <c r="AY16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ16" t="n">
         <v>51</v>
@@ -3439,7 +3439,7 @@
         <v>151</v>
       </c>
       <c r="BC16" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD16" t="n">
         <v>126</v>
@@ -3477,22 +3477,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H17" t="n">
         <v>3.75</v>
       </c>
       <c r="I17" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J17" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="K17" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L17" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
@@ -3525,7 +3525,7 @@
         <v>2.1</v>
       </c>
       <c r="W17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X17" t="n">
         <v>9.5</v>
@@ -3546,7 +3546,7 @@
         <v>13</v>
       </c>
       <c r="AD17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="n">
         <v>13</v>
@@ -3600,7 +3600,7 @@
         <v>7.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW17" t="n">
         <v>6</v>
@@ -3671,16 +3671,16 @@
         <v>2.75</v>
       </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O18" t="n">
         <v>1.25</v>
@@ -3689,28 +3689,28 @@
         <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S18" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T18" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U18" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y18" t="n">
         <v>9</v>
@@ -3722,10 +3722,10 @@
         <v>17</v>
       </c>
       <c r="AB18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="n">
         <v>6.5</v>
@@ -3737,25 +3737,25 @@
         <v>41</v>
       </c>
       <c r="AG18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="n">
         <v>12</v>
       </c>
       <c r="AK18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL18" t="n">
         <v>26</v>
       </c>
       <c r="AM18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN18" t="n">
         <v>4.33</v>
@@ -3773,10 +3773,10 @@
         <v>51</v>
       </c>
       <c r="AS18" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU18" t="n">
         <v>7.5</v>
@@ -3791,19 +3791,19 @@
         <v>19</v>
       </c>
       <c r="AY18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ18" t="n">
         <v>51</v>
       </c>
       <c r="BA18" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB18" t="n">
         <v>151</v>
       </c>
       <c r="BC18" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD18" t="n">
         <v>126</v>
@@ -3871,10 +3871,10 @@
         <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R19" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S19" t="n">
         <v>1.33</v>
@@ -4026,19 +4026,19 @@
         <v>3.6</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
         <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
@@ -4059,19 +4059,19 @@
         <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T20" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U20" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X20" t="n">
         <v>19</v>
@@ -4083,43 +4083,43 @@
         <v>41</v>
       </c>
       <c r="AA20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB20" t="n">
         <v>34</v>
       </c>
       <c r="AC20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI20" t="n">
         <v>10</v>
       </c>
       <c r="AJ20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN20" t="n">
         <v>5.5</v>
@@ -4131,19 +4131,19 @@
         <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR20" t="n">
         <v>81</v>
       </c>
       <c r="AS20" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV20" t="n">
         <v>51</v>
@@ -4155,19 +4155,19 @@
         <v>11</v>
       </c>
       <c r="AY20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA20" t="n">
         <v>51</v>
       </c>
       <c r="BB20" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC20" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD20" t="n">
         <v>126</v>
@@ -4205,13 +4205,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
         <v>3</v>
@@ -4220,7 +4220,7 @@
         <v>2.2</v>
       </c>
       <c r="L21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
@@ -4235,25 +4235,25 @@
         <v>3.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R21" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S21" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T21" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U21" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V21" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X21" t="n">
         <v>12</v>
@@ -4262,7 +4262,7 @@
         <v>9.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA21" t="n">
         <v>19</v>
@@ -4271,7 +4271,7 @@
         <v>26</v>
       </c>
       <c r="AC21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD21" t="n">
         <v>6.5</v>
@@ -4283,7 +4283,7 @@
         <v>41</v>
       </c>
       <c r="AG21" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH21" t="n">
         <v>10</v>
@@ -4298,13 +4298,13 @@
         <v>29</v>
       </c>
       <c r="AL21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM21" t="n">
         <v>29</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO21" t="n">
         <v>13</v>
@@ -4322,7 +4322,7 @@
         <v>151</v>
       </c>
       <c r="AT21" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU21" t="n">
         <v>7.5</v>
@@ -4334,7 +4334,7 @@
         <v>5</v>
       </c>
       <c r="AX21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY21" t="n">
         <v>23</v>
@@ -4387,13 +4387,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="H22" t="n">
         <v>3.25</v>
       </c>
       <c r="I22" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J22" t="n">
         <v>3.25</v>
@@ -4405,22 +4405,22 @@
         <v>3.4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P22" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="R22" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="S22" t="n">
         <v>1.44</v>
@@ -4569,13 +4569,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="H23" t="n">
         <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J23" t="n">
         <v>3.2</v>
@@ -4751,7 +4751,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="H24" t="n">
         <v>3.75</v>
@@ -4769,10 +4769,10 @@
         <v>5.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
         <v>1.36</v>
@@ -4933,13 +4933,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="H25" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I25" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
         <v>2.1</v>
@@ -4951,22 +4951,22 @@
         <v>6</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="R25" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S25" t="n">
         <v>1.36</v>
@@ -4975,16 +4975,16 @@
         <v>3</v>
       </c>
       <c r="U25" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V25" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W25" t="n">
         <v>7</v>
       </c>
       <c r="X25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y25" t="n">
         <v>8.5</v>
@@ -5014,10 +5014,10 @@
         <v>301</v>
       </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ25" t="n">
         <v>19</v>
@@ -5029,13 +5029,13 @@
         <v>41</v>
       </c>
       <c r="AM25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN25" t="n">
         <v>3.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP25" t="n">
         <v>19</v>
@@ -5059,7 +5059,7 @@
         <v>51</v>
       </c>
       <c r="AW25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX25" t="n">
         <v>29</v>
@@ -5068,7 +5068,7 @@
         <v>34</v>
       </c>
       <c r="AZ25" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA25" t="n">
         <v>126</v>
@@ -5115,7 +5115,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H26" t="n">
         <v>3.4</v>
@@ -5127,43 +5127,43 @@
         <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L26" t="n">
         <v>3.6</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P26" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R26" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S26" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T26" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U26" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V26" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W26" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X26" t="n">
         <v>11</v>
@@ -5178,25 +5178,25 @@
         <v>19</v>
       </c>
       <c r="AB26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD26" t="n">
         <v>6.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
         <v>15</v>
@@ -5205,13 +5205,13 @@
         <v>11</v>
       </c>
       <c r="AK26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL26" t="n">
         <v>23</v>
       </c>
       <c r="AM26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN26" t="n">
         <v>4.33</v>
@@ -5220,22 +5220,22 @@
         <v>13</v>
       </c>
       <c r="AP26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ26" t="n">
         <v>41</v>
       </c>
       <c r="AR26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS26" t="n">
         <v>151</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV26" t="n">
         <v>51</v>
@@ -5247,16 +5247,16 @@
         <v>17</v>
       </c>
       <c r="AY26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ26" t="n">
         <v>51</v>
       </c>
       <c r="BA26" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB26" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC26" t="n">
         <v>126</v>
@@ -5318,7 +5318,7 @@
         <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O27" t="n">
         <v>1.22</v>
@@ -5327,10 +5327,10 @@
         <v>4</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R27" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S27" t="n">
         <v>1.36</v>
@@ -5497,10 +5497,10 @@
         <v>3.75</v>
       </c>
       <c r="M28" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O28" t="n">
         <v>1.36</v>
@@ -5509,10 +5509,10 @@
         <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R28" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S28" t="n">
         <v>1.5</v>
@@ -5661,19 +5661,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
         <v>3.8</v>
       </c>
       <c r="I29" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J29" t="n">
         <v>2.6</v>
       </c>
       <c r="K29" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="L29" t="n">
         <v>3.75</v>
@@ -5691,10 +5691,10 @@
         <v>4.33</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R29" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S29" t="n">
         <v>1.3</v>
@@ -5703,10 +5703,10 @@
         <v>3.4</v>
       </c>
       <c r="U29" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V29" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W29" t="n">
         <v>9.5</v>
@@ -5754,7 +5754,7 @@
         <v>41</v>
       </c>
       <c r="AL29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM29" t="n">
         <v>29</v>
@@ -5766,13 +5766,13 @@
         <v>10</v>
       </c>
       <c r="AP29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ29" t="n">
         <v>34</v>
       </c>
       <c r="AR29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS29" t="n">
         <v>101</v>
@@ -5849,7 +5849,7 @@
         <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J30" t="n">
         <v>3.25</v>
@@ -5858,7 +5858,7 @@
         <v>2.3</v>
       </c>
       <c r="L30" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
@@ -5873,28 +5873,28 @@
         <v>4.33</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R30" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S30" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T30" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U30" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V30" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W30" t="n">
         <v>12</v>
       </c>
       <c r="X30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y30" t="n">
         <v>11</v>
@@ -5960,7 +5960,7 @@
         <v>126</v>
       </c>
       <c r="AT30" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU30" t="n">
         <v>7</v>
@@ -5972,7 +5972,7 @@
         <v>4.75</v>
       </c>
       <c r="AX30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY30" t="n">
         <v>19</v>
@@ -6025,7 +6025,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H31" t="n">
         <v>3.75</v>
@@ -6034,13 +6034,13 @@
         <v>4.1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K31" t="n">
         <v>2.3</v>
       </c>
       <c r="L31" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M31" t="n">
         <v>1.04</v>
@@ -6073,10 +6073,10 @@
         <v>2.1</v>
       </c>
       <c r="W31" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y31" t="n">
         <v>8.5</v>
@@ -6103,13 +6103,13 @@
         <v>41</v>
       </c>
       <c r="AG31" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH31" t="n">
         <v>13</v>
       </c>
       <c r="AI31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ31" t="n">
         <v>13</v>
@@ -6118,7 +6118,7 @@
         <v>41</v>
       </c>
       <c r="AL31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM31" t="n">
         <v>34</v>
@@ -6127,7 +6127,7 @@
         <v>4</v>
       </c>
       <c r="AO31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP31" t="n">
         <v>19</v>
@@ -6410,19 +6410,19 @@
         <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O33" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P33" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R33" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S33" t="n">
         <v>1.29</v>
@@ -6580,13 +6580,13 @@
         <v>1.8</v>
       </c>
       <c r="J34" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
         <v>2.38</v>
       </c>
       <c r="L34" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="M34" t="n">
         <v>1.03</v>
@@ -6595,16 +6595,16 @@
         <v>15</v>
       </c>
       <c r="O34" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P34" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R34" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S34" t="n">
         <v>1.3</v>
@@ -6613,10 +6613,10 @@
         <v>3.4</v>
       </c>
       <c r="U34" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V34" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W34" t="n">
         <v>13</v>
@@ -6631,10 +6631,10 @@
         <v>41</v>
       </c>
       <c r="AA34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB34" t="n">
         <v>29</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>34</v>
       </c>
       <c r="AC34" t="n">
         <v>15</v>
@@ -6643,7 +6643,7 @@
         <v>8</v>
       </c>
       <c r="AE34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF34" t="n">
         <v>41</v>
@@ -6652,16 +6652,16 @@
         <v>151</v>
       </c>
       <c r="AH34" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ34" t="n">
         <v>8.5</v>
       </c>
       <c r="AK34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL34" t="n">
         <v>13</v>
@@ -6676,13 +6676,13 @@
         <v>21</v>
       </c>
       <c r="AP34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR34" t="n">
         <v>67</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>81</v>
       </c>
       <c r="AS34" t="n">
         <v>151</v>
@@ -6700,7 +6700,7 @@
         <v>4</v>
       </c>
       <c r="AX34" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY34" t="n">
         <v>17</v>
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H35" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I35" t="n">
         <v>1.91</v>
@@ -6765,7 +6765,7 @@
         <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L35" t="n">
         <v>2.5</v>
@@ -6777,31 +6777,31 @@
         <v>13</v>
       </c>
       <c r="O35" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P35" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R35" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S35" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T35" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U35" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V35" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X35" t="n">
         <v>21</v>
@@ -6813,16 +6813,16 @@
         <v>41</v>
       </c>
       <c r="AA35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD35" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE35" t="n">
         <v>12</v>
@@ -6831,13 +6831,13 @@
         <v>41</v>
       </c>
       <c r="AG35" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH35" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ35" t="n">
         <v>8.5</v>
@@ -6861,46 +6861,46 @@
         <v>23</v>
       </c>
       <c r="AQ35" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR35" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS35" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT35" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU35" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV35" t="n">
         <v>41</v>
       </c>
       <c r="AW35" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX35" t="n">
         <v>10</v>
       </c>
       <c r="AY35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ35" t="n">
         <v>34</v>
       </c>
       <c r="BA35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB35" t="n">
         <v>101</v>
       </c>
       <c r="BC35" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BD35" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36">
@@ -6935,7 +6935,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="H36" t="n">
         <v>3.6</v>
@@ -6965,10 +6965,10 @@
         <v>3.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R36" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S36" t="n">
         <v>1.36</v>
@@ -6995,7 +6995,7 @@
         <v>13</v>
       </c>
       <c r="AA36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB36" t="n">
         <v>26</v>
@@ -7013,7 +7013,7 @@
         <v>51</v>
       </c>
       <c r="AG36" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH36" t="n">
         <v>13</v>
@@ -7663,13 +7663,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H40" t="n">
         <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J40" t="n">
         <v>2.75</v>
@@ -7678,13 +7678,13 @@
         <v>1.91</v>
       </c>
       <c r="L40" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M40" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N40" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O40" t="n">
         <v>1.57</v>
@@ -7705,10 +7705,10 @@
         <v>2.2</v>
       </c>
       <c r="U40" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V40" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W40" t="n">
         <v>5</v>
@@ -7720,7 +7720,7 @@
         <v>10</v>
       </c>
       <c r="Z40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA40" t="n">
         <v>21</v>
@@ -7744,13 +7744,13 @@
         <v>101</v>
       </c>
       <c r="AH40" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI40" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK40" t="n">
         <v>51</v>
@@ -7762,10 +7762,10 @@
         <v>51</v>
       </c>
       <c r="AN40" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP40" t="n">
         <v>29</v>
@@ -7792,7 +7792,7 @@
         <v>6</v>
       </c>
       <c r="AX40" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY40" t="n">
         <v>41</v>
@@ -7845,61 +7845,61 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H41" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I41" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K41" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L41" t="n">
         <v>3.75</v>
       </c>
       <c r="M41" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O41" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P41" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="R41" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="S41" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T41" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U41" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W41" t="n">
         <v>6.5</v>
       </c>
       <c r="X41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z41" t="n">
         <v>23</v>
@@ -7911,25 +7911,25 @@
         <v>41</v>
       </c>
       <c r="AC41" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD41" t="n">
         <v>6</v>
       </c>
       <c r="AE41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF41" t="n">
         <v>67</v>
       </c>
       <c r="AG41" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH41" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ41" t="n">
         <v>12</v>
@@ -7959,10 +7959,10 @@
         <v>81</v>
       </c>
       <c r="AS41" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU41" t="n">
         <v>9</v>
@@ -7971,7 +7971,7 @@
         <v>67</v>
       </c>
       <c r="AW41" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX41" t="n">
         <v>19</v>
@@ -8045,10 +8045,10 @@
         <v>3.4</v>
       </c>
       <c r="M42" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N42" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O42" t="n">
         <v>1.14</v>
@@ -8218,7 +8218,7 @@
         <v>6.5</v>
       </c>
       <c r="J43" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="K43" t="n">
         <v>2.5</v>
@@ -8227,19 +8227,19 @@
         <v>6</v>
       </c>
       <c r="M43" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O43" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R43" t="n">
         <v>2.35</v>
@@ -8409,19 +8409,19 @@
         <v>3.75</v>
       </c>
       <c r="M44" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N44" t="n">
         <v>19</v>
       </c>
       <c r="O44" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P44" t="n">
         <v>5.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R44" t="n">
         <v>2.5</v>
@@ -8582,7 +8582,7 @@
         <v>2.8</v>
       </c>
       <c r="J45" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K45" t="n">
         <v>2.4</v>
@@ -8591,19 +8591,19 @@
         <v>3.2</v>
       </c>
       <c r="M45" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N45" t="n">
         <v>17</v>
       </c>
       <c r="O45" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P45" t="n">
         <v>5.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R45" t="n">
         <v>2.4</v>
@@ -8755,46 +8755,46 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H46" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I46" t="n">
         <v>5.25</v>
       </c>
       <c r="J46" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="K46" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L46" t="n">
         <v>5.5</v>
       </c>
       <c r="M46" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N46" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O46" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P46" t="n">
         <v>3.25</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R46" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S46" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T46" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U46" t="n">
         <v>2</v>
@@ -8803,7 +8803,7 @@
         <v>1.73</v>
       </c>
       <c r="W46" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X46" t="n">
         <v>7.5</v>
@@ -8812,7 +8812,7 @@
         <v>8.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA46" t="n">
         <v>15</v>
@@ -8821,22 +8821,22 @@
         <v>29</v>
       </c>
       <c r="AC46" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD46" t="n">
         <v>7</v>
       </c>
       <c r="AE46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF46" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG46" t="n">
-        <v>800</v>
+        <v>351</v>
       </c>
       <c r="AH46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI46" t="n">
         <v>26</v>
@@ -8851,7 +8851,7 @@
         <v>41</v>
       </c>
       <c r="AM46" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN46" t="n">
         <v>3.6</v>
@@ -8872,10 +8872,10 @@
         <v>151</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU46" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV46" t="n">
         <v>67</v>
@@ -8887,7 +8887,7 @@
         <v>29</v>
       </c>
       <c r="AY46" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ46" t="n">
         <v>101</v>
@@ -8955,10 +8955,10 @@
         <v>5.5</v>
       </c>
       <c r="M47" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N47" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O47" t="n">
         <v>1.25</v>
@@ -8967,10 +8967,10 @@
         <v>3.75</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R47" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S47" t="n">
         <v>1.36</v>
@@ -9128,19 +9128,19 @@
         <v>13</v>
       </c>
       <c r="J48" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="K48" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="L48" t="n">
         <v>12</v>
       </c>
       <c r="M48" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N48" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O48" t="n">
         <v>1.22</v>
@@ -9149,16 +9149,16 @@
         <v>4</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R48" t="n">
         <v>2.1</v>
       </c>
       <c r="S48" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T48" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U48" t="n">
         <v>2.63</v>
@@ -9173,13 +9173,13 @@
         <v>5.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z48" t="n">
         <v>6.5</v>
       </c>
       <c r="AA48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB48" t="n">
         <v>41</v>
@@ -9200,7 +9200,7 @@
         <v>201</v>
       </c>
       <c r="AH48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI48" t="n">
         <v>51</v>
@@ -9233,10 +9233,10 @@
         <v>41</v>
       </c>
       <c r="AS48" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT48" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU48" t="n">
         <v>12</v>
@@ -9310,10 +9310,10 @@
         <v>15</v>
       </c>
       <c r="J49" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="K49" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="L49" t="n">
         <v>13</v>
@@ -9331,7 +9331,7 @@
         <v>4</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R49" t="n">
         <v>2.1</v>
@@ -9498,7 +9498,7 @@
         <v>2.3</v>
       </c>
       <c r="L50" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="M50" t="n">
         <v>1.04</v>
@@ -9513,10 +9513,10 @@
         <v>4</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R50" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="S50" t="n">
         <v>1.33</v>
@@ -9525,16 +9525,16 @@
         <v>3.25</v>
       </c>
       <c r="U50" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V50" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W50" t="n">
         <v>13</v>
       </c>
       <c r="X50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y50" t="n">
         <v>13</v>
@@ -9564,7 +9564,7 @@
         <v>201</v>
       </c>
       <c r="AH50" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI50" t="n">
         <v>9</v>
@@ -9582,10 +9582,10 @@
         <v>23</v>
       </c>
       <c r="AN50" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP50" t="n">
         <v>29</v>
@@ -9615,7 +9615,7 @@
         <v>9</v>
       </c>
       <c r="AY50" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ50" t="n">
         <v>29</v>
@@ -9624,7 +9624,7 @@
         <v>41</v>
       </c>
       <c r="BB50" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC50" t="n">
         <v>81</v>
@@ -9701,10 +9701,10 @@
         <v>1.33</v>
       </c>
       <c r="S51" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T51" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U51" t="n">
         <v>2.75</v>
@@ -9719,7 +9719,7 @@
         <v>6.5</v>
       </c>
       <c r="Y51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z51" t="n">
         <v>13</v>
@@ -9734,7 +9734,7 @@
         <v>5</v>
       </c>
       <c r="AD51" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE51" t="n">
         <v>29</v>
@@ -9758,7 +9758,7 @@
         <v>67</v>
       </c>
       <c r="AL51" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM51" t="n">
         <v>81</v>
@@ -9767,7 +9767,7 @@
         <v>3.4</v>
       </c>
       <c r="AO51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP51" t="n">
         <v>34</v>
@@ -9785,7 +9785,7 @@
         <v>2.1</v>
       </c>
       <c r="AU51" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV51" t="n">
         <v>101</v>
@@ -9856,10 +9856,10 @@
         <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K52" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L52" t="n">
         <v>3.4</v>
@@ -9889,16 +9889,16 @@
         <v>3.4</v>
       </c>
       <c r="U52" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V52" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y52" t="n">
         <v>9.5</v>
@@ -9922,13 +9922,13 @@
         <v>12</v>
       </c>
       <c r="AF52" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG52" t="n">
         <v>126</v>
       </c>
       <c r="AH52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI52" t="n">
         <v>17</v>
@@ -10211,16 +10211,16 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="H54" t="n">
         <v>3.6</v>
       </c>
       <c r="I54" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="J54" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K54" t="n">
         <v>2.38</v>
@@ -10262,7 +10262,7 @@
         <v>11</v>
       </c>
       <c r="X54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y54" t="n">
         <v>9.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
@@ -747,52 +747,52 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W2" t="n">
         <v>8.5</v>
@@ -801,19 +801,19 @@
         <v>10</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
         <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
         <v>7.5</v>
@@ -825,46 +825,46 @@
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
         <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU2" t="n">
         <v>7.5</v>
@@ -873,19 +873,19 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
         <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="n">
         <v>151</v>
@@ -929,40 +929,40 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="H3" t="n">
         <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="R3" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -983,22 +983,22 @@
         <v>8</v>
       </c>
       <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AD3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>19</v>
@@ -1013,16 +1013,16 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
@@ -1031,10 +1031,10 @@
         <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
         <v>34</v>
@@ -1043,7 +1043,7 @@
         <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
         <v>2.63</v>
@@ -1052,13 +1052,13 @@
         <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
         <v>34</v>
@@ -1067,7 +1067,7 @@
         <v>81</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
         <v>251</v>
@@ -1114,7 +1114,7 @@
         <v>1.83</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
         <v>4.5</v>
@@ -1129,22 +1129,22 @@
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1162,10 +1162,10 @@
         <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
         <v>15</v>
@@ -1174,10 +1174,10 @@
         <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1186,7 +1186,7 @@
         <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="n">
         <v>401</v>
@@ -1195,7 +1195,7 @@
         <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
         <v>15</v>
@@ -1210,7 +1210,7 @@
         <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO4" t="n">
         <v>10</v>
@@ -1231,7 +1231,7 @@
         <v>2.63</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV4" t="n">
         <v>67</v>
@@ -1246,7 +1246,7 @@
         <v>34</v>
       </c>
       <c r="AZ4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA4" t="n">
         <v>126</v>
@@ -1311,10 +1311,10 @@
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.53</v>
@@ -2203,19 +2203,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J10" t="n">
         <v>1.8</v>
       </c>
       <c r="K10" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L10" t="n">
         <v>7</v>
@@ -2239,10 +2239,10 @@
         <v>2.5</v>
       </c>
       <c r="S10" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T10" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U10" t="n">
         <v>1.8</v>
@@ -2257,7 +2257,7 @@
         <v>7.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z10" t="n">
         <v>9</v>
@@ -2281,19 +2281,19 @@
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
         <v>41</v>
       </c>
       <c r="AJ10" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AK10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL10" t="n">
         <v>51</v>
@@ -2314,13 +2314,13 @@
         <v>17</v>
       </c>
       <c r="AR10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS10" t="n">
         <v>101</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU10" t="n">
         <v>8.5</v>
@@ -2332,13 +2332,13 @@
         <v>9</v>
       </c>
       <c r="AX10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY10" t="n">
         <v>34</v>
       </c>
       <c r="AZ10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA10" t="n">
         <v>126</v>
@@ -2385,19 +2385,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
         <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L11" t="n">
         <v>3.5</v>
@@ -2433,10 +2433,10 @@
         <v>1.83</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
         <v>10</v>
@@ -2448,13 +2448,13 @@
         <v>21</v>
       </c>
       <c r="AB11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="n">
         <v>9</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>15</v>
@@ -2490,7 +2490,7 @@
         <v>15</v>
       </c>
       <c r="AP11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
         <v>51</v>
@@ -2585,10 +2585,10 @@
         <v>3.1</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
         <v>1.33</v>
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H14" t="n">
         <v>3.4</v>
@@ -2961,16 +2961,16 @@
         <v>3.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R14" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S14" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U14" t="n">
         <v>1.8</v>
@@ -3048,7 +3048,7 @@
         <v>151</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU14" t="n">
         <v>8</v>
@@ -3143,10 +3143,10 @@
         <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R15" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S15" t="n">
         <v>1.36</v>
@@ -3507,10 +3507,10 @@
         <v>4.33</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R17" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S17" t="n">
         <v>1.33</v>
@@ -3677,10 +3677,10 @@
         <v>3.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
         <v>1.25</v>
@@ -3689,10 +3689,10 @@
         <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R18" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S18" t="n">
         <v>1.36</v>
@@ -4035,16 +4035,16 @@
         <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L20" t="n">
         <v>2.63</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
         <v>1.25</v>
@@ -4053,10 +4053,10 @@
         <v>3.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S20" t="n">
         <v>1.36</v>
@@ -4071,7 +4071,7 @@
         <v>2.05</v>
       </c>
       <c r="W20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X20" t="n">
         <v>19</v>
@@ -4089,10 +4089,10 @@
         <v>34</v>
       </c>
       <c r="AC20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE20" t="n">
         <v>13</v>
@@ -4101,25 +4101,25 @@
         <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI20" t="n">
         <v>10</v>
       </c>
       <c r="AJ20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="n">
         <v>15</v>
       </c>
       <c r="AM20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN20" t="n">
         <v>5.5</v>
@@ -4155,10 +4155,10 @@
         <v>11</v>
       </c>
       <c r="AY20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA20" t="n">
         <v>51</v>
@@ -4205,22 +4205,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K21" t="n">
         <v>2.2</v>
       </c>
       <c r="L21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
@@ -4256,16 +4256,16 @@
         <v>8.5</v>
       </c>
       <c r="X21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z21" t="n">
         <v>21</v>
       </c>
       <c r="AA21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB21" t="n">
         <v>26</v>
@@ -4295,7 +4295,7 @@
         <v>11</v>
       </c>
       <c r="AK21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL21" t="n">
         <v>23</v>
@@ -4307,7 +4307,7 @@
         <v>4.33</v>
       </c>
       <c r="AO21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP21" t="n">
         <v>21</v>
@@ -4387,16 +4387,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H22" t="n">
         <v>3.25</v>
       </c>
       <c r="I22" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K22" t="n">
         <v>2.1</v>
@@ -4405,10 +4405,10 @@
         <v>3.4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O22" t="n">
         <v>1.29</v>
@@ -4423,19 +4423,19 @@
         <v>1.88</v>
       </c>
       <c r="S22" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T22" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U22" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X22" t="n">
         <v>13</v>
@@ -4453,22 +4453,22 @@
         <v>29</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
       </c>
       <c r="AF22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG22" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI22" t="n">
         <v>13</v>
@@ -4477,7 +4477,7 @@
         <v>10</v>
       </c>
       <c r="AK22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL22" t="n">
         <v>21</v>
@@ -4495,7 +4495,7 @@
         <v>23</v>
       </c>
       <c r="AQ22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR22" t="n">
         <v>67</v>
@@ -4504,10 +4504,10 @@
         <v>151</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV22" t="n">
         <v>51</v>
@@ -4578,7 +4578,7 @@
         <v>2.45</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K23" t="n">
         <v>2.3</v>
@@ -4599,10 +4599,10 @@
         <v>4.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S23" t="n">
         <v>1.3</v>
@@ -4674,7 +4674,7 @@
         <v>13</v>
       </c>
       <c r="AP23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ23" t="n">
         <v>41</v>
@@ -4933,16 +4933,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H25" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K25" t="n">
         <v>2.3</v>
@@ -4951,22 +4951,22 @@
         <v>6</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="R25" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
         <v>1.36</v>
@@ -4975,52 +4975,52 @@
         <v>3</v>
       </c>
       <c r="U25" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="W25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X25" t="n">
         <v>7</v>
-      </c>
-      <c r="X25" t="n">
-        <v>7.5</v>
       </c>
       <c r="Y25" t="n">
         <v>8.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA25" t="n">
         <v>13</v>
       </c>
       <c r="AB25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD25" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG25" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AH25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI25" t="n">
         <v>29</v>
       </c>
       <c r="AJ25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK25" t="n">
         <v>67</v>
@@ -5032,10 +5032,10 @@
         <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP25" t="n">
         <v>19</v>
@@ -5047,7 +5047,7 @@
         <v>41</v>
       </c>
       <c r="AS25" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT25" t="n">
         <v>3</v>
@@ -5059,22 +5059,22 @@
         <v>51</v>
       </c>
       <c r="AW25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ25" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA25" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB25" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC25" t="n">
         <v>501</v>
@@ -5118,7 +5118,7 @@
         <v>2.3</v>
       </c>
       <c r="H26" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I26" t="n">
         <v>3</v>
@@ -5133,10 +5133,10 @@
         <v>3.6</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O26" t="n">
         <v>1.33</v>
@@ -5181,7 +5181,7 @@
         <v>29</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD26" t="n">
         <v>6.5</v>
@@ -5208,7 +5208,7 @@
         <v>34</v>
       </c>
       <c r="AL26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM26" t="n">
         <v>34</v>
@@ -5327,10 +5327,10 @@
         <v>4</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R27" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S27" t="n">
         <v>1.36</v>
@@ -5843,13 +5843,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H30" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I30" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="J30" t="n">
         <v>3.25</v>
@@ -5867,16 +5867,16 @@
         <v>15</v>
       </c>
       <c r="O30" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P30" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R30" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S30" t="n">
         <v>1.33</v>
@@ -5885,10 +5885,10 @@
         <v>3.25</v>
       </c>
       <c r="U30" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V30" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W30" t="n">
         <v>12</v>
@@ -6237,10 +6237,10 @@
         <v>5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R32" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S32" t="n">
         <v>1.29</v>
@@ -6419,10 +6419,10 @@
         <v>5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R33" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S33" t="n">
         <v>1.29</v>
@@ -6595,16 +6595,16 @@
         <v>15</v>
       </c>
       <c r="O34" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P34" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R34" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S34" t="n">
         <v>1.3</v>
@@ -6783,10 +6783,10 @@
         <v>4</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R35" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S35" t="n">
         <v>1.33</v>
@@ -6965,10 +6965,10 @@
         <v>3.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R36" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S36" t="n">
         <v>1.36</v>
@@ -6995,7 +6995,7 @@
         <v>13</v>
       </c>
       <c r="AA36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB36" t="n">
         <v>26</v>
@@ -7013,7 +7013,7 @@
         <v>51</v>
       </c>
       <c r="AG36" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH36" t="n">
         <v>13</v>
@@ -7117,55 +7117,55 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H37" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I37" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J37" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="K37" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L37" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="M37" t="n">
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>10.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O37" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P37" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="Q37" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U37" t="n">
         <v>1.82</v>
       </c>
-      <c r="R37" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T37" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.8</v>
-      </c>
       <c r="V37" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="W37" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="X37" t="n">
         <v>7.4</v>
@@ -7174,91 +7174,91 @@
         <v>8</v>
       </c>
       <c r="Z37" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA37" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC37" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD37" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AE37" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF37" t="n">
         <v>80</v>
       </c>
       <c r="AG37" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH37" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ37" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK37" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AL37" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM37" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN37" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AO37" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AP37" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ37" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AR37" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AS37" t="n">
         <v>250</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AU37" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AV37" t="n">
         <v>75</v>
       </c>
       <c r="AW37" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AX37" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AY37" t="n">
         <v>35</v>
       </c>
       <c r="AZ37" t="n">
+        <v>175</v>
+      </c>
+      <c r="BA37" t="n">
         <v>200</v>
       </c>
-      <c r="BA37" t="n">
-        <v>250</v>
-      </c>
       <c r="BB37" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC37" t="n">
         <v>51</v>
@@ -7663,28 +7663,28 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I40" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="J40" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="K40" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M40" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N40" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O40" t="n">
         <v>1.57</v>
@@ -7693,10 +7693,10 @@
         <v>2.25</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R40" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S40" t="n">
         <v>1.62</v>
@@ -7711,19 +7711,19 @@
         <v>1.53</v>
       </c>
       <c r="W40" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X40" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
       </c>
       <c r="Z40" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA40" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB40" t="n">
         <v>41</v>
@@ -7744,16 +7744,16 @@
         <v>101</v>
       </c>
       <c r="AH40" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ40" t="n">
         <v>15</v>
       </c>
       <c r="AK40" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL40" t="n">
         <v>41</v>
@@ -7762,22 +7762,22 @@
         <v>51</v>
       </c>
       <c r="AN40" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP40" t="n">
         <v>29</v>
       </c>
       <c r="AQ40" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR40" t="n">
         <v>81</v>
       </c>
       <c r="AS40" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT40" t="n">
         <v>2.2</v>
@@ -7789,16 +7789,16 @@
         <v>81</v>
       </c>
       <c r="AW40" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX40" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY40" t="n">
         <v>41</v>
       </c>
       <c r="AZ40" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA40" t="n">
         <v>151</v>
@@ -7863,10 +7863,10 @@
         <v>3.75</v>
       </c>
       <c r="M41" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N41" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O41" t="n">
         <v>1.44</v>
@@ -7875,10 +7875,10 @@
         <v>2.63</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R41" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S41" t="n">
         <v>1.53</v>
@@ -8045,10 +8045,10 @@
         <v>3.4</v>
       </c>
       <c r="M42" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N42" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O42" t="n">
         <v>1.14</v>
@@ -8057,10 +8057,10 @@
         <v>5.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R42" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S42" t="n">
         <v>1.25</v>
@@ -8209,16 +8209,16 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H43" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I43" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J43" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K43" t="n">
         <v>2.5</v>
@@ -8257,7 +8257,7 @@
         <v>2</v>
       </c>
       <c r="W43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X43" t="n">
         <v>8</v>
@@ -8266,7 +8266,7 @@
         <v>8.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA43" t="n">
         <v>11</v>
@@ -8293,7 +8293,7 @@
         <v>21</v>
       </c>
       <c r="AI43" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ43" t="n">
         <v>21</v>
@@ -8314,10 +8314,10 @@
         <v>7</v>
       </c>
       <c r="AP43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ43" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR43" t="n">
         <v>41</v>
@@ -8335,13 +8335,13 @@
         <v>51</v>
       </c>
       <c r="AW43" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AX43" t="n">
         <v>29</v>
       </c>
       <c r="AY43" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ43" t="n">
         <v>101</v>
@@ -8421,10 +8421,10 @@
         <v>5.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R44" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S44" t="n">
         <v>1.25</v>
@@ -8597,10 +8597,10 @@
         <v>17</v>
       </c>
       <c r="O45" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P45" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q45" t="n">
         <v>1.53</v>
@@ -8902,7 +8902,7 @@
         <v>126</v>
       </c>
       <c r="BD46" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47">
@@ -9137,28 +9137,28 @@
         <v>12</v>
       </c>
       <c r="M48" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N48" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O48" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P48" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R48" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S48" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T48" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U48" t="n">
         <v>2.63</v>
@@ -9167,7 +9167,7 @@
         <v>1.44</v>
       </c>
       <c r="W48" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X48" t="n">
         <v>5.5</v>
@@ -9179,7 +9179,7 @@
         <v>6.5</v>
       </c>
       <c r="AA48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB48" t="n">
         <v>41</v>
@@ -9194,13 +9194,13 @@
         <v>34</v>
       </c>
       <c r="AF48" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG48" t="n">
         <v>201</v>
       </c>
       <c r="AH48" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI48" t="n">
         <v>51</v>
@@ -9221,7 +9221,7 @@
         <v>3</v>
       </c>
       <c r="AO48" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AP48" t="n">
         <v>21</v>
@@ -9233,10 +9233,10 @@
         <v>41</v>
       </c>
       <c r="AS48" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT48" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU48" t="n">
         <v>12</v>
@@ -9245,7 +9245,7 @@
         <v>81</v>
       </c>
       <c r="AW48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX48" t="n">
         <v>51</v>
@@ -9301,28 +9301,28 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="H49" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I49" t="n">
+        <v>17</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L49" t="n">
         <v>15</v>
       </c>
-      <c r="J49" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="K49" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L49" t="n">
-        <v>13</v>
-      </c>
       <c r="M49" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N49" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O49" t="n">
         <v>1.22</v>
@@ -9343,19 +9343,19 @@
         <v>3.25</v>
       </c>
       <c r="U49" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V49" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="W49" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X49" t="n">
         <v>5</v>
       </c>
       <c r="Y49" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z49" t="n">
         <v>6</v>
@@ -9370,13 +9370,13 @@
         <v>12</v>
       </c>
       <c r="AD49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE49" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF49" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AG49" t="n">
         <v>201</v>
@@ -9391,31 +9391,31 @@
         <v>41</v>
       </c>
       <c r="AK49" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL49" t="n">
+        <v>151</v>
+      </c>
+      <c r="AM49" t="n">
         <v>126</v>
       </c>
-      <c r="AM49" t="n">
-        <v>101</v>
-      </c>
       <c r="AN49" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AO49" t="n">
         <v>5</v>
       </c>
       <c r="AP49" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR49" t="n">
         <v>41</v>
       </c>
       <c r="AS49" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT49" t="n">
         <v>3.25</v>
@@ -9427,10 +9427,10 @@
         <v>101</v>
       </c>
       <c r="AW49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX49" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AY49" t="n">
         <v>67</v>
@@ -9483,22 +9483,22 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="H50" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I50" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="J50" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K50" t="n">
         <v>2.3</v>
       </c>
       <c r="L50" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="M50" t="n">
         <v>1.04</v>
@@ -9534,7 +9534,7 @@
         <v>13</v>
       </c>
       <c r="X50" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y50" t="n">
         <v>13</v>
@@ -9543,7 +9543,7 @@
         <v>41</v>
       </c>
       <c r="AA50" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB50" t="n">
         <v>34</v>
@@ -9552,22 +9552,22 @@
         <v>13</v>
       </c>
       <c r="AD50" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE50" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF50" t="n">
         <v>41</v>
       </c>
       <c r="AG50" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH50" t="n">
         <v>8.5</v>
       </c>
       <c r="AI50" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ50" t="n">
         <v>8.5</v>
@@ -9576,19 +9576,19 @@
         <v>15</v>
       </c>
       <c r="AL50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM50" t="n">
         <v>23</v>
       </c>
       <c r="AN50" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO50" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP50" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ50" t="n">
         <v>67</v>
@@ -9612,19 +9612,19 @@
         <v>4</v>
       </c>
       <c r="AX50" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY50" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ50" t="n">
         <v>29</v>
       </c>
       <c r="BA50" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB50" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC50" t="n">
         <v>81</v>
@@ -9674,7 +9674,7 @@
         <v>6</v>
       </c>
       <c r="J51" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K51" t="n">
         <v>1.83</v>
@@ -9683,10 +9683,10 @@
         <v>6.5</v>
       </c>
       <c r="M51" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N51" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="O51" t="n">
         <v>1.67</v>
@@ -9731,7 +9731,7 @@
         <v>51</v>
       </c>
       <c r="AC51" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AD51" t="n">
         <v>6.5</v>
@@ -9740,7 +9740,7 @@
         <v>29</v>
       </c>
       <c r="AF51" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AG51" t="n">
         <v>201</v>
@@ -9752,13 +9752,13 @@
         <v>26</v>
       </c>
       <c r="AJ51" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK51" t="n">
         <v>67</v>
       </c>
       <c r="AL51" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM51" t="n">
         <v>81</v>
@@ -9782,7 +9782,7 @@
         <v>351</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU51" t="n">
         <v>12</v>
@@ -9856,10 +9856,10 @@
         <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K52" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L52" t="n">
         <v>3.4</v>
@@ -9877,10 +9877,10 @@
         <v>4.5</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R52" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S52" t="n">
         <v>1.3</v>
@@ -9928,7 +9928,7 @@
         <v>126</v>
       </c>
       <c r="AH52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI52" t="n">
         <v>17</v>
@@ -9937,7 +9937,7 @@
         <v>11</v>
       </c>
       <c r="AK52" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL52" t="n">
         <v>21</v>
@@ -10211,22 +10211,22 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H54" t="n">
         <v>3.6</v>
       </c>
       <c r="I54" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J54" t="n">
         <v>3</v>
       </c>
       <c r="K54" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L54" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M54" t="n">
         <v>1.03</v>
@@ -10253,16 +10253,16 @@
         <v>3.4</v>
       </c>
       <c r="U54" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V54" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W54" t="n">
         <v>11</v>
       </c>
       <c r="X54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y54" t="n">
         <v>9.5</v>
@@ -10274,7 +10274,7 @@
         <v>17</v>
       </c>
       <c r="AB54" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC54" t="n">
         <v>15</v>
@@ -10286,13 +10286,13 @@
         <v>12</v>
       </c>
       <c r="AF54" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG54" t="n">
         <v>126</v>
       </c>
       <c r="AH54" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI54" t="n">
         <v>15</v>
@@ -10304,7 +10304,7 @@
         <v>29</v>
       </c>
       <c r="AL54" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM54" t="n">
         <v>23</v>
@@ -10343,7 +10343,7 @@
         <v>15</v>
       </c>
       <c r="AY54" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ54" t="n">
         <v>41</v>
@@ -10352,10 +10352,10 @@
         <v>51</v>
       </c>
       <c r="BB54" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC54" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BD54" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
         <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -777,10 +777,10 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -795,19 +795,19 @@
         <v>2.1</v>
       </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA2" t="n">
         <v>15</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>13</v>
       </c>
       <c r="AB2" t="n">
         <v>23</v>
@@ -816,10 +816,10 @@
         <v>13</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
@@ -843,25 +843,25 @@
         <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="n">
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
         <v>19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT2" t="n">
         <v>3.25</v>
@@ -873,19 +873,19 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA2" t="n">
         <v>67</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>81</v>
       </c>
       <c r="BB2" t="n">
         <v>151</v>
@@ -2051,10 +2051,10 @@
         <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R9" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2591,10 +2591,10 @@
         <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q12" t="n">
         <v>2.1</v>
@@ -2764,7 +2764,7 @@
         <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
@@ -2779,16 +2779,16 @@
         <v>3.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
         <v>1.8</v>
       </c>
       <c r="S13" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U13" t="n">
         <v>1.83</v>
@@ -2806,7 +2806,7 @@
         <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA13" t="n">
         <v>17</v>
@@ -2827,16 +2827,16 @@
         <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH13" t="n">
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK13" t="n">
         <v>41</v>
@@ -2866,7 +2866,7 @@
         <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU13" t="n">
         <v>8</v>
@@ -3313,10 +3313,10 @@
         <v>3.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
         <v>1.3</v>
@@ -3659,13 +3659,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
         <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J18" t="n">
         <v>2.88</v>
@@ -3674,13 +3674,13 @@
         <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
         <v>1.3</v>
@@ -3692,13 +3692,13 @@
         <v>2.05</v>
       </c>
       <c r="R18" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S18" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T18" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U18" t="n">
         <v>1.8</v>
@@ -3719,16 +3719,16 @@
         <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB18" t="n">
         <v>29</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -3770,13 +3770,13 @@
         <v>41</v>
       </c>
       <c r="AR18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS18" t="n">
         <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU18" t="n">
         <v>8</v>
@@ -4387,22 +4387,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H22" t="n">
         <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L22" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
@@ -4438,13 +4438,13 @@
         <v>7</v>
       </c>
       <c r="X22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA22" t="n">
         <v>21</v>
@@ -4468,7 +4468,7 @@
         <v>351</v>
       </c>
       <c r="AH22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI22" t="n">
         <v>15</v>
@@ -4480,7 +4480,7 @@
         <v>34</v>
       </c>
       <c r="AL22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM22" t="n">
         <v>41</v>
@@ -4495,7 +4495,7 @@
         <v>26</v>
       </c>
       <c r="AQ22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR22" t="n">
         <v>67</v>
@@ -4516,16 +4516,16 @@
         <v>5</v>
       </c>
       <c r="AX22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY22" t="n">
         <v>29</v>
       </c>
       <c r="AZ22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA22" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB22" t="n">
         <v>251</v>
@@ -4590,19 +4590,19 @@
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O23" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P23" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R23" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S23" t="n">
         <v>1.3</v>
@@ -4769,13 +4769,13 @@
         <v>5.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
         <v>8.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -4951,22 +4951,22 @@
         <v>6.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
         <v>13</v>
       </c>
       <c r="O25" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P25" t="n">
         <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R25" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
         <v>1.36</v>
@@ -5133,13 +5133,13 @@
         <v>3.6</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
         <v>9.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P26" t="n">
         <v>3.25</v>
@@ -5297,31 +5297,31 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H27" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J27" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K27" t="n">
         <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
         <v>10</v>
       </c>
       <c r="O27" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P27" t="n">
         <v>3.4</v>
@@ -5333,28 +5333,28 @@
         <v>1.83</v>
       </c>
       <c r="S27" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T27" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U27" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V27" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W27" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X27" t="n">
         <v>12</v>
       </c>
       <c r="Y27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA27" t="n">
         <v>21</v>
@@ -5363,7 +5363,7 @@
         <v>29</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD27" t="n">
         <v>6.5</v>
@@ -5378,34 +5378,34 @@
         <v>251</v>
       </c>
       <c r="AH27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK27" t="n">
         <v>29</v>
       </c>
       <c r="AL27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN27" t="n">
         <v>4.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP27" t="n">
         <v>23</v>
       </c>
       <c r="AQ27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR27" t="n">
         <v>67</v>
@@ -5414,7 +5414,7 @@
         <v>151</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU27" t="n">
         <v>8</v>
@@ -5426,10 +5426,10 @@
         <v>4.75</v>
       </c>
       <c r="AX27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ27" t="n">
         <v>51</v>
@@ -5479,22 +5479,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="H28" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I28" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="J28" t="n">
         <v>1.5</v>
       </c>
       <c r="K28" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="L28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M28" t="n">
         <v>1.01</v>
@@ -5503,37 +5503,37 @@
         <v>19.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="P28" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="R28" t="n">
-        <v>3.04</v>
+        <v>3.4</v>
       </c>
       <c r="S28" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="T28" t="n">
-        <v>4.5</v>
+        <v>4.51</v>
       </c>
       <c r="U28" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="V28" t="n">
-        <v>2.07</v>
+        <v>1.87</v>
       </c>
       <c r="W28" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="X28" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="Y28" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z28" t="n">
         <v>7</v>
@@ -5542,43 +5542,43 @@
         <v>8.25</v>
       </c>
       <c r="AB28" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC28" t="n">
         <v>20</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AE28" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF28" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG28" t="n">
         <v>300</v>
       </c>
       <c r="AH28" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AI28" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL28" t="n">
         <v>100</v>
       </c>
-      <c r="AJ28" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>350</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>120</v>
-      </c>
       <c r="AM28" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN28" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AO28" t="n">
         <v>4.9</v>
@@ -5593,28 +5593,28 @@
         <v>25</v>
       </c>
       <c r="AS28" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AT28" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="AU28" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AV28" t="n">
         <v>55</v>
       </c>
       <c r="AW28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX28" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AY28" t="n">
         <v>45</v>
       </c>
       <c r="AZ28" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BA28" t="n">
         <v>350</v>
@@ -5679,16 +5679,16 @@
         <v>4.75</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N29" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="O29" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="P29" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q29" t="n">
         <v>1.53</v>
@@ -5697,16 +5697,16 @@
         <v>2.18</v>
       </c>
       <c r="S29" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="T29" t="n">
-        <v>3.62</v>
+        <v>3.5</v>
       </c>
       <c r="U29" t="n">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="V29" t="n">
-        <v>2.43</v>
+        <v>2.11</v>
       </c>
       <c r="W29" t="n">
         <v>8.5</v>
@@ -5843,16 +5843,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H30" t="n">
         <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K30" t="n">
         <v>2</v>
@@ -5936,7 +5936,7 @@
         <v>34</v>
       </c>
       <c r="AL30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM30" t="n">
         <v>41</v>
@@ -5945,7 +5945,7 @@
         <v>4.33</v>
       </c>
       <c r="AO30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP30" t="n">
         <v>26</v>
@@ -5954,7 +5954,7 @@
         <v>51</v>
       </c>
       <c r="AR30" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS30" t="n">
         <v>201</v>
@@ -5969,10 +5969,10 @@
         <v>67</v>
       </c>
       <c r="AW30" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY30" t="n">
         <v>29</v>
@@ -6025,13 +6025,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H31" t="n">
         <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J31" t="n">
         <v>3</v>
@@ -6040,7 +6040,7 @@
         <v>2.3</v>
       </c>
       <c r="L31" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
@@ -6055,10 +6055,10 @@
         <v>4.33</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R31" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S31" t="n">
         <v>1.33</v>
@@ -6079,13 +6079,13 @@
         <v>13</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z31" t="n">
         <v>23</v>
       </c>
       <c r="AA31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB31" t="n">
         <v>23</v>
@@ -6097,7 +6097,7 @@
         <v>7</v>
       </c>
       <c r="AE31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF31" t="n">
         <v>41</v>
@@ -6115,13 +6115,13 @@
         <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN31" t="n">
         <v>4.75</v>
@@ -6419,10 +6419,10 @@
         <v>3.75</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="R33" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="S33" t="n">
         <v>1.36</v>
@@ -6774,7 +6774,7 @@
         <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O35" t="n">
         <v>1.17</v>
@@ -8391,16 +8391,16 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H44" t="n">
         <v>3.75</v>
       </c>
       <c r="I44" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J44" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K44" t="n">
         <v>2.6</v>
@@ -8433,19 +8433,19 @@
         <v>4</v>
       </c>
       <c r="U44" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V44" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X44" t="n">
         <v>13</v>
       </c>
       <c r="Y44" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z44" t="n">
         <v>19</v>
@@ -8457,7 +8457,7 @@
         <v>17</v>
       </c>
       <c r="AC44" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD44" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         <v>26</v>
       </c>
       <c r="AG44" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AH44" t="n">
         <v>21</v>
@@ -8484,22 +8484,22 @@
         <v>41</v>
       </c>
       <c r="AL44" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM44" t="n">
         <v>23</v>
       </c>
       <c r="AN44" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO44" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP44" t="n">
         <v>15</v>
       </c>
       <c r="AQ44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR44" t="n">
         <v>41</v>
@@ -8511,7 +8511,7 @@
         <v>4</v>
       </c>
       <c r="AU44" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AV44" t="n">
         <v>34</v>
@@ -8535,7 +8535,7 @@
         <v>81</v>
       </c>
       <c r="BC44" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD44" t="n">
         <v>151</v>
@@ -8594,7 +8594,7 @@
         <v>1.02</v>
       </c>
       <c r="N45" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O45" t="n">
         <v>1.13</v>
@@ -8755,46 +8755,46 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H46" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L46" t="n">
         <v>4</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K46" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.75</v>
       </c>
       <c r="M46" t="n">
         <v>1.02</v>
       </c>
       <c r="N46" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O46" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P46" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R46" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S46" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T46" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U46" t="n">
         <v>1.44</v>
@@ -8803,7 +8803,7 @@
         <v>2.63</v>
       </c>
       <c r="W46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X46" t="n">
         <v>12</v>
@@ -8815,10 +8815,10 @@
         <v>17</v>
       </c>
       <c r="AA46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC46" t="n">
         <v>21</v>
@@ -8827,28 +8827,28 @@
         <v>8.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF46" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG46" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ46" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK46" t="n">
         <v>41</v>
       </c>
       <c r="AL46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM46" t="n">
         <v>26</v>
@@ -8857,22 +8857,22 @@
         <v>4.33</v>
       </c>
       <c r="AO46" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP46" t="n">
         <v>15</v>
       </c>
       <c r="AQ46" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR46" t="n">
         <v>41</v>
       </c>
       <c r="AS46" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT46" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU46" t="n">
         <v>7</v>
@@ -8881,10 +8881,10 @@
         <v>41</v>
       </c>
       <c r="AW46" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY46" t="n">
         <v>21</v>
@@ -8961,16 +8961,16 @@
         <v>15</v>
       </c>
       <c r="O47" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P47" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R47" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S47" t="n">
         <v>1.29</v>
@@ -9504,7 +9504,7 @@
         <v>1.03</v>
       </c>
       <c r="N50" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O50" t="n">
         <v>1.2</v>
@@ -9850,7 +9850,7 @@
         <v>3.75</v>
       </c>
       <c r="H52" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I52" t="n">
         <v>1.83</v>
@@ -9883,7 +9883,7 @@
         <v>2.08</v>
       </c>
       <c r="S52" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T52" t="n">
         <v>3.25</v>
@@ -9913,10 +9913,10 @@
         <v>34</v>
       </c>
       <c r="AC52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD52" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE52" t="n">
         <v>13</v>
@@ -9985,10 +9985,10 @@
         <v>29</v>
       </c>
       <c r="BA52" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB52" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC52" t="n">
         <v>81</v>
@@ -10029,28 +10029,28 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H53" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I53" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J53" t="n">
         <v>2.75</v>
       </c>
       <c r="K53" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L53" t="n">
         <v>6</v>
       </c>
       <c r="M53" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N53" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O53" t="n">
         <v>1.67</v>
@@ -10059,16 +10059,16 @@
         <v>2.1</v>
       </c>
       <c r="Q53" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R53" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S53" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="T53" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U53" t="n">
         <v>2.63</v>
@@ -10131,7 +10131,7 @@
         <v>3.6</v>
       </c>
       <c r="AO53" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP53" t="n">
         <v>34</v>
@@ -10146,7 +10146,7 @@
         <v>351</v>
       </c>
       <c r="AT53" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU53" t="n">
         <v>11</v>
@@ -10167,7 +10167,7 @@
         <v>151</v>
       </c>
       <c r="BA53" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB53" t="n">
         <v>501</v>
@@ -10211,22 +10211,22 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H54" t="n">
         <v>3.5</v>
       </c>
       <c r="I54" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J54" t="n">
         <v>2.75</v>
       </c>
       <c r="K54" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L54" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M54" t="n">
         <v>1.04</v>
@@ -10247,16 +10247,16 @@
         <v>2.08</v>
       </c>
       <c r="S54" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T54" t="n">
         <v>3.25</v>
       </c>
       <c r="U54" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V54" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W54" t="n">
         <v>9.5</v>
@@ -10295,10 +10295,10 @@
         <v>12</v>
       </c>
       <c r="AI54" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ54" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK54" t="n">
         <v>34</v>
@@ -10313,7 +10313,7 @@
         <v>4.33</v>
       </c>
       <c r="AO54" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP54" t="n">
         <v>19</v>
@@ -10337,7 +10337,7 @@
         <v>41</v>
       </c>
       <c r="AW54" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX54" t="n">
         <v>17</v>
@@ -10393,16 +10393,16 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H55" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I55" t="n">
         <v>4.75</v>
       </c>
       <c r="J55" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K55" t="n">
         <v>2.25</v>
@@ -10411,10 +10411,10 @@
         <v>4.75</v>
       </c>
       <c r="M55" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N55" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O55" t="n">
         <v>1.25</v>
@@ -10429,7 +10429,7 @@
         <v>2</v>
       </c>
       <c r="S55" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T55" t="n">
         <v>3</v>
@@ -10450,7 +10450,7 @@
         <v>8.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA55" t="n">
         <v>13</v>
@@ -10471,7 +10471,7 @@
         <v>51</v>
       </c>
       <c r="AG55" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH55" t="n">
         <v>13</v>
@@ -10486,7 +10486,7 @@
         <v>51</v>
       </c>
       <c r="AL55" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM55" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L2" t="n">
         <v>3.6</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -789,25 +789,25 @@
         <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W2" t="n">
         <v>9</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA2" t="n">
         <v>17</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>15</v>
       </c>
       <c r="AB2" t="n">
         <v>23</v>
@@ -828,34 +828,34 @@
         <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AM2" t="n">
         <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
         <v>19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
@@ -870,13 +870,13 @@
         <v>7.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
         <v>23</v>
@@ -1657,19 +1657,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J7" t="n">
         <v>2.5</v>
       </c>
       <c r="K7" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L7" t="n">
         <v>6</v>
@@ -1741,13 +1741,13 @@
         <v>10</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL7" t="n">
         <v>51</v>
@@ -1756,16 +1756,16 @@
         <v>67</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR7" t="n">
         <v>67</v>
@@ -1783,7 +1783,7 @@
         <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX7" t="n">
         <v>34</v>
@@ -1792,7 +1792,7 @@
         <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA7" t="n">
         <v>201</v>
@@ -2051,10 +2051,10 @@
         <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R9" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2409,10 +2409,10 @@
         <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q11" t="n">
         <v>2.1</v>
@@ -2770,7 +2770,7 @@
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
         <v>1.33</v>
@@ -2955,16 +2955,16 @@
         <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R14" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S14" t="n">
         <v>1.4</v>
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J15" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.5</v>
       </c>
       <c r="K15" t="n">
         <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -3149,10 +3149,10 @@
         <v>1.93</v>
       </c>
       <c r="S15" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T15" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U15" t="n">
         <v>1.67</v>
@@ -3173,7 +3173,7 @@
         <v>29</v>
       </c>
       <c r="AA15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB15" t="n">
         <v>29</v>
@@ -3191,7 +3191,7 @@
         <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH15" t="n">
         <v>9</v>
@@ -3215,7 +3215,7 @@
         <v>5</v>
       </c>
       <c r="AO15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
         <v>23</v>
@@ -3230,7 +3230,7 @@
         <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU15" t="n">
         <v>7.5</v>
@@ -3677,10 +3677,10 @@
         <v>3.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.3</v>
@@ -3692,13 +3692,13 @@
         <v>2.05</v>
       </c>
       <c r="R18" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S18" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T18" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U18" t="n">
         <v>1.8</v>
@@ -3725,7 +3725,7 @@
         <v>29</v>
       </c>
       <c r="AC18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD18" t="n">
         <v>6</v>
@@ -3752,7 +3752,7 @@
         <v>34</v>
       </c>
       <c r="AL18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM18" t="n">
         <v>34</v>
@@ -3770,13 +3770,13 @@
         <v>41</v>
       </c>
       <c r="AR18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS18" t="n">
         <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU18" t="n">
         <v>8</v>
@@ -4023,7 +4023,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H20" t="n">
         <v>3.5</v>
@@ -4038,7 +4038,7 @@
         <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
@@ -4083,7 +4083,7 @@
         <v>34</v>
       </c>
       <c r="AA20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB20" t="n">
         <v>29</v>
@@ -4122,7 +4122,7 @@
         <v>23</v>
       </c>
       <c r="AN20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO20" t="n">
         <v>17</v>
@@ -4211,34 +4211,34 @@
         <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
         <v>2.88</v>
       </c>
       <c r="K21" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L21" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O21" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="R21" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="S21" t="n">
         <v>1.36</v>
@@ -4274,7 +4274,7 @@
         <v>12</v>
       </c>
       <c r="AD21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
         <v>13</v>
@@ -4387,13 +4387,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H22" t="n">
         <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J22" t="n">
         <v>3</v>
@@ -4411,10 +4411,10 @@
         <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q22" t="n">
         <v>2.25</v>
@@ -4751,34 +4751,34 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H24" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J24" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K24" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L24" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q24" t="n">
         <v>2.2</v>
@@ -4787,16 +4787,16 @@
         <v>1.65</v>
       </c>
       <c r="S24" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T24" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V24" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W24" t="n">
         <v>6</v>
@@ -4808,7 +4808,7 @@
         <v>9</v>
       </c>
       <c r="Z24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA24" t="n">
         <v>17</v>
@@ -4823,7 +4823,7 @@
         <v>7</v>
       </c>
       <c r="AE24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF24" t="n">
         <v>67</v>
@@ -4832,7 +4832,7 @@
         <v>501</v>
       </c>
       <c r="AH24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI24" t="n">
         <v>21</v>
@@ -4853,7 +4853,7 @@
         <v>3.6</v>
       </c>
       <c r="AO24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP24" t="n">
         <v>23</v>
@@ -4868,7 +4868,7 @@
         <v>201</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU24" t="n">
         <v>9</v>
@@ -4877,10 +4877,10 @@
         <v>67</v>
       </c>
       <c r="AW24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY24" t="n">
         <v>41</v>
@@ -4963,10 +4963,10 @@
         <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R25" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S25" t="n">
         <v>1.36</v>
@@ -5115,16 +5115,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H26" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K26" t="n">
         <v>2.1</v>
@@ -5136,7 +5136,7 @@
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
         <v>1.33</v>
@@ -5145,10 +5145,10 @@
         <v>3.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R26" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S26" t="n">
         <v>1.44</v>
@@ -5163,7 +5163,7 @@
         <v>1.95</v>
       </c>
       <c r="W26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X26" t="n">
         <v>11</v>
@@ -5172,10 +5172,10 @@
         <v>9.5</v>
       </c>
       <c r="Z26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA26" t="n">
         <v>21</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>19</v>
       </c>
       <c r="AB26" t="n">
         <v>29</v>
@@ -5196,7 +5196,7 @@
         <v>251</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI26" t="n">
         <v>15</v>
@@ -5205,10 +5205,10 @@
         <v>11</v>
       </c>
       <c r="AK26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM26" t="n">
         <v>34</v>
@@ -5241,7 +5241,7 @@
         <v>51</v>
       </c>
       <c r="AW26" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX26" t="n">
         <v>17</v>
@@ -5297,13 +5297,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H27" t="n">
         <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J27" t="n">
         <v>3.1</v>
@@ -5312,7 +5312,7 @@
         <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M27" t="n">
         <v>1.06</v>
@@ -5345,7 +5345,7 @@
         <v>2</v>
       </c>
       <c r="W27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X27" t="n">
         <v>12</v>
@@ -5381,7 +5381,7 @@
         <v>9</v>
       </c>
       <c r="AI27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ27" t="n">
         <v>11</v>
@@ -5393,7 +5393,7 @@
         <v>23</v>
       </c>
       <c r="AM27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN27" t="n">
         <v>4.5</v>
@@ -5426,10 +5426,10 @@
         <v>4.75</v>
       </c>
       <c r="AX27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ27" t="n">
         <v>51</v>
@@ -6025,22 +6025,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="H31" t="n">
         <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K31" t="n">
         <v>2.3</v>
       </c>
       <c r="L31" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
@@ -6076,16 +6076,16 @@
         <v>10</v>
       </c>
       <c r="X31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB31" t="n">
         <v>23</v>
@@ -6097,7 +6097,7 @@
         <v>7</v>
       </c>
       <c r="AE31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF31" t="n">
         <v>41</v>
@@ -6106,31 +6106,31 @@
         <v>151</v>
       </c>
       <c r="AH31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ31" t="n">
         <v>11</v>
       </c>
-      <c r="AI31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>10</v>
-      </c>
       <c r="AK31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM31" t="n">
         <v>26</v>
       </c>
-      <c r="AL31" t="n">
+      <c r="AN31" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP31" t="n">
         <v>19</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>21</v>
       </c>
       <c r="AQ31" t="n">
         <v>41</v>
@@ -6160,7 +6160,7 @@
         <v>21</v>
       </c>
       <c r="AZ31" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA31" t="n">
         <v>51</v>
@@ -6407,10 +6407,10 @@
         <v>4.33</v>
       </c>
       <c r="M33" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O33" t="n">
         <v>1.25</v>
@@ -6419,10 +6419,10 @@
         <v>3.75</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R33" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S33" t="n">
         <v>1.36</v>
@@ -6571,22 +6571,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I34" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J34" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K34" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L34" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M34" t="n">
         <v>1.03</v>
@@ -6622,7 +6622,7 @@
         <v>9.5</v>
       </c>
       <c r="X34" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y34" t="n">
         <v>8.5</v>
@@ -6640,10 +6640,10 @@
         <v>17</v>
       </c>
       <c r="AD34" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF34" t="n">
         <v>41</v>
@@ -6655,7 +6655,7 @@
         <v>17</v>
       </c>
       <c r="AI34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ34" t="n">
         <v>15</v>
@@ -6673,13 +6673,13 @@
         <v>4</v>
       </c>
       <c r="AO34" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR34" t="n">
         <v>41</v>
@@ -6697,16 +6697,16 @@
         <v>41</v>
       </c>
       <c r="AW34" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY34" t="n">
         <v>26</v>
       </c>
       <c r="AZ34" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA34" t="n">
         <v>81</v>
@@ -6935,19 +6935,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H36" t="n">
         <v>3.9</v>
       </c>
       <c r="I36" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J36" t="n">
         <v>4.33</v>
       </c>
       <c r="K36" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L36" t="n">
         <v>2.38</v>
@@ -6965,10 +6965,10 @@
         <v>4.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R36" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S36" t="n">
         <v>1.3</v>
@@ -6977,16 +6977,16 @@
         <v>3.4</v>
       </c>
       <c r="U36" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V36" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W36" t="n">
         <v>15</v>
       </c>
       <c r="X36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y36" t="n">
         <v>13</v>
@@ -7049,7 +7049,7 @@
         <v>67</v>
       </c>
       <c r="AS36" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT36" t="n">
         <v>3.4</v>
@@ -7064,7 +7064,7 @@
         <v>4</v>
       </c>
       <c r="AX36" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY36" t="n">
         <v>17</v>
@@ -8594,7 +8594,7 @@
         <v>1.02</v>
       </c>
       <c r="N45" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O45" t="n">
         <v>1.13</v>
@@ -8621,7 +8621,7 @@
         <v>2</v>
       </c>
       <c r="W45" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X45" t="n">
         <v>8</v>
@@ -8633,7 +8633,7 @@
         <v>9</v>
       </c>
       <c r="AA45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB45" t="n">
         <v>21</v>
@@ -8654,25 +8654,25 @@
         <v>201</v>
       </c>
       <c r="AH45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI45" t="n">
         <v>41</v>
       </c>
       <c r="AJ45" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AK45" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL45" t="n">
         <v>51</v>
       </c>
       <c r="AM45" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN45" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO45" t="n">
         <v>6</v>
@@ -8699,16 +8699,16 @@
         <v>51</v>
       </c>
       <c r="AW45" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AX45" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY45" t="n">
         <v>34</v>
       </c>
       <c r="AZ45" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA45" t="n">
         <v>126</v>
@@ -8755,16 +8755,16 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H46" t="n">
         <v>4.1</v>
       </c>
       <c r="I46" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J46" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K46" t="n">
         <v>2.6</v>
@@ -8773,10 +8773,10 @@
         <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O46" t="n">
         <v>1.11</v>
@@ -8797,10 +8797,10 @@
         <v>4</v>
       </c>
       <c r="U46" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V46" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W46" t="n">
         <v>13</v>
@@ -8821,7 +8821,7 @@
         <v>17</v>
       </c>
       <c r="AC46" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD46" t="n">
         <v>8.5</v>
@@ -8836,13 +8836,13 @@
         <v>81</v>
       </c>
       <c r="AH46" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI46" t="n">
         <v>26</v>
       </c>
       <c r="AJ46" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK46" t="n">
         <v>41</v>
@@ -8854,7 +8854,7 @@
         <v>26</v>
       </c>
       <c r="AN46" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO46" t="n">
         <v>9</v>
@@ -8937,16 +8937,16 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H47" t="n">
         <v>3.5</v>
       </c>
       <c r="I47" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J47" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K47" t="n">
         <v>2.38</v>
@@ -8973,10 +8973,10 @@
         <v>2.25</v>
       </c>
       <c r="S47" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T47" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U47" t="n">
         <v>1.5</v>
@@ -8997,10 +8997,10 @@
         <v>26</v>
       </c>
       <c r="AA47" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC47" t="n">
         <v>15</v>
@@ -9018,7 +9018,7 @@
         <v>101</v>
       </c>
       <c r="AH47" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI47" t="n">
         <v>15</v>
@@ -9054,7 +9054,7 @@
         <v>101</v>
       </c>
       <c r="AT47" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU47" t="n">
         <v>7</v>
@@ -9063,7 +9063,7 @@
         <v>41</v>
       </c>
       <c r="AW47" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX47" t="n">
         <v>13</v>
@@ -9331,10 +9331,10 @@
         <v>3.75</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R49" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S49" t="n">
         <v>1.36</v>
@@ -9883,7 +9883,7 @@
         <v>2.08</v>
       </c>
       <c r="S52" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T52" t="n">
         <v>3.25</v>
@@ -10029,97 +10029,97 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="H53" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="I53" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="J53" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="K53" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="L53" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N53" t="n">
+        <v>7</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W53" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="X53" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC53" t="n">
         <v>6</v>
       </c>
-      <c r="M53" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N53" t="n">
-        <v>5</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P53" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R53" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S53" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="T53" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U53" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V53" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W53" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="X53" t="n">
+      <c r="AD53" t="n">
         <v>7</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>6.5</v>
       </c>
       <c r="AE53" t="n">
         <v>26</v>
       </c>
       <c r="AF53" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG53" t="n">
         <v>201</v>
       </c>
       <c r="AH53" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AI53" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ53" t="n">
         <v>21</v>
       </c>
       <c r="AK53" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL53" t="n">
         <v>51</v>
@@ -10128,25 +10128,25 @@
         <v>67</v>
       </c>
       <c r="AN53" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AO53" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AP53" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ53" t="n">
         <v>34</v>
       </c>
-      <c r="AQ53" t="n">
-        <v>41</v>
-      </c>
       <c r="AR53" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS53" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT53" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AU53" t="n">
         <v>11</v>
@@ -10155,10 +10155,10 @@
         <v>101</v>
       </c>
       <c r="AW53" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX53" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY53" t="n">
         <v>51</v>
@@ -10167,7 +10167,7 @@
         <v>151</v>
       </c>
       <c r="BA53" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB53" t="n">
         <v>501</v>
@@ -10235,19 +10235,19 @@
         <v>13</v>
       </c>
       <c r="O54" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P54" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R54" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S54" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T54" t="n">
         <v>3.25</v>
@@ -10429,16 +10429,16 @@
         <v>2</v>
       </c>
       <c r="S55" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T55" t="n">
         <v>3</v>
       </c>
       <c r="U55" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V55" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W55" t="n">
         <v>7.5</v>
@@ -10459,7 +10459,7 @@
         <v>23</v>
       </c>
       <c r="AC55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD55" t="n">
         <v>7</v>
@@ -10471,7 +10471,7 @@
         <v>51</v>
       </c>
       <c r="AG55" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH55" t="n">
         <v>13</v>
@@ -10486,7 +10486,7 @@
         <v>51</v>
       </c>
       <c r="AL55" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM55" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
@@ -759,7 +759,7 @@
         <v>2.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L2" t="n">
         <v>3.6</v>
@@ -783,7 +783,7 @@
         <v>2.08</v>
       </c>
       <c r="S2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T2" t="n">
         <v>3.25</v>
@@ -795,10 +795,10 @@
         <v>2.2</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
@@ -828,7 +828,7 @@
         <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI2" t="n">
         <v>17</v>
@@ -849,7 +849,7 @@
         <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
         <v>19</v>
@@ -873,7 +873,7 @@
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX2" t="n">
         <v>17</v>
@@ -959,16 +959,16 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T3" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U3" t="n">
         <v>1.91</v>
@@ -1147,10 +1147,10 @@
         <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="U4" t="n">
         <v>2.1</v>
@@ -1329,7 +1329,7 @@
         <v>1.36</v>
       </c>
       <c r="S5" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T5" t="n">
         <v>2.1</v>
@@ -2051,10 +2051,10 @@
         <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R9" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2168,7 +2168,7 @@
         <v>501</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
@@ -2209,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J10" t="n">
         <v>1.8</v>
@@ -2251,10 +2251,10 @@
         <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
@@ -2269,7 +2269,7 @@
         <v>26</v>
       </c>
       <c r="AC10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD10" t="n">
         <v>9.5</v>
@@ -2281,10 +2281,10 @@
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
         <v>41</v>
@@ -2302,7 +2302,7 @@
         <v>51</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO10" t="n">
         <v>6</v>
@@ -2591,10 +2591,10 @@
         <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q12" t="n">
         <v>2.1</v>
@@ -2961,10 +2961,10 @@
         <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R14" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S14" t="n">
         <v>1.4</v>
@@ -3143,10 +3143,10 @@
         <v>3.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R15" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S15" t="n">
         <v>1.4</v>
@@ -3477,22 +3477,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H17" t="n">
         <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J17" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K17" t="n">
         <v>2.3</v>
       </c>
       <c r="L17" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
@@ -3525,7 +3525,7 @@
         <v>2.05</v>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X17" t="n">
         <v>9</v>
@@ -3543,7 +3543,7 @@
         <v>23</v>
       </c>
       <c r="AC17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD17" t="n">
         <v>7</v>
@@ -3567,16 +3567,16 @@
         <v>15</v>
       </c>
       <c r="AK17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL17" t="n">
         <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO17" t="n">
         <v>9</v>
@@ -3603,16 +3603,16 @@
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ17" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA17" t="n">
         <v>81</v>
@@ -3680,7 +3680,7 @@
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
         <v>1.3</v>
@@ -4205,58 +4205,58 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N21" t="n">
+        <v>15</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T21" t="n">
         <v>3.5</v>
       </c>
-      <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N21" t="n">
+      <c r="U21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W21" t="n">
+        <v>11</v>
+      </c>
+      <c r="X21" t="n">
         <v>13</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W21" t="n">
-        <v>9</v>
-      </c>
-      <c r="X21" t="n">
-        <v>12</v>
       </c>
       <c r="Y21" t="n">
         <v>9</v>
@@ -4265,28 +4265,28 @@
         <v>21</v>
       </c>
       <c r="AA21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC21" t="n">
         <v>17</v>
       </c>
-      <c r="AB21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC21" t="n">
+      <c r="AD21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE21" t="n">
         <v>12</v>
       </c>
-      <c r="AD21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE21" t="n">
+      <c r="AF21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH21" t="n">
         <v>13</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>11</v>
       </c>
       <c r="AI21" t="n">
         <v>17</v>
@@ -4298,61 +4298,61 @@
         <v>34</v>
       </c>
       <c r="AL21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM21" t="n">
         <v>23</v>
       </c>
-      <c r="AM21" t="n">
-        <v>29</v>
-      </c>
       <c r="AN21" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY21" t="n">
         <v>21</v>
       </c>
-      <c r="AQ21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>23</v>
-      </c>
       <c r="AZ21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB21" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD21" t="n">
         <v>151</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="22">
@@ -4569,19 +4569,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I23" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J23" t="n">
         <v>3.1</v>
       </c>
       <c r="K23" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L23" t="n">
         <v>3</v>
@@ -4605,16 +4605,16 @@
         <v>2.35</v>
       </c>
       <c r="S23" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U23" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V23" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W23" t="n">
         <v>12</v>
@@ -4632,10 +4632,10 @@
         <v>19</v>
       </c>
       <c r="AB23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD23" t="n">
         <v>7.5</v>
@@ -4644,28 +4644,28 @@
         <v>12</v>
       </c>
       <c r="AF23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG23" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI23" t="n">
         <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL23" t="n">
         <v>17</v>
       </c>
       <c r="AM23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN23" t="n">
         <v>5</v>
@@ -4686,7 +4686,7 @@
         <v>101</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU23" t="n">
         <v>7</v>
@@ -4695,7 +4695,7 @@
         <v>41</v>
       </c>
       <c r="AW23" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX23" t="n">
         <v>13</v>
@@ -5843,19 +5843,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H30" t="n">
         <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J30" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L30" t="n">
         <v>3.75</v>
@@ -5867,10 +5867,10 @@
         <v>7.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P30" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q30" t="n">
         <v>2.25</v>
@@ -5885,10 +5885,10 @@
         <v>2.5</v>
       </c>
       <c r="U30" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V30" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W30" t="n">
         <v>7</v>
@@ -5936,7 +5936,7 @@
         <v>34</v>
       </c>
       <c r="AL30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM30" t="n">
         <v>41</v>
@@ -5945,7 +5945,7 @@
         <v>4.33</v>
       </c>
       <c r="AO30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP30" t="n">
         <v>26</v>
@@ -5954,7 +5954,7 @@
         <v>51</v>
       </c>
       <c r="AR30" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS30" t="n">
         <v>201</v>
@@ -5969,7 +5969,7 @@
         <v>67</v>
       </c>
       <c r="AW30" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX30" t="n">
         <v>17</v>
@@ -6055,10 +6055,10 @@
         <v>4.33</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R31" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S31" t="n">
         <v>1.33</v>
@@ -6207,16 +6207,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H32" t="n">
         <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="J32" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K32" t="n">
         <v>2.3</v>
@@ -6231,16 +6231,16 @@
         <v>15</v>
       </c>
       <c r="O32" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P32" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R32" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S32" t="n">
         <v>1.3</v>
@@ -6264,10 +6264,10 @@
         <v>10</v>
       </c>
       <c r="Z32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB32" t="n">
         <v>23</v>
@@ -6282,7 +6282,7 @@
         <v>12</v>
       </c>
       <c r="AF32" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG32" t="n">
         <v>126</v>
@@ -6291,10 +6291,10 @@
         <v>11</v>
       </c>
       <c r="AI32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ32" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK32" t="n">
         <v>23</v>
@@ -6309,7 +6309,7 @@
         <v>5</v>
       </c>
       <c r="AO32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP32" t="n">
         <v>21</v>
@@ -6321,7 +6321,7 @@
         <v>51</v>
       </c>
       <c r="AS32" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT32" t="n">
         <v>3.4</v>
@@ -6392,16 +6392,16 @@
         <v>1.85</v>
       </c>
       <c r="H33" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
         <v>2.5</v>
       </c>
       <c r="K33" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L33" t="n">
         <v>4.33</v>
@@ -6413,34 +6413,34 @@
         <v>11</v>
       </c>
       <c r="O33" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P33" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R33" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S33" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T33" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U33" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V33" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W33" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X33" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y33" t="n">
         <v>8.5</v>
@@ -6452,10 +6452,10 @@
         <v>15</v>
       </c>
       <c r="AB33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD33" t="n">
         <v>7</v>
@@ -6464,7 +6464,7 @@
         <v>15</v>
       </c>
       <c r="AF33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG33" t="n">
         <v>201</v>
@@ -6482,10 +6482,10 @@
         <v>41</v>
       </c>
       <c r="AL33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM33" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN33" t="n">
         <v>4</v>
@@ -6494,7 +6494,7 @@
         <v>10</v>
       </c>
       <c r="AP33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ33" t="n">
         <v>34</v>
@@ -6503,10 +6503,10 @@
         <v>51</v>
       </c>
       <c r="AS33" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT33" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU33" t="n">
         <v>8</v>
@@ -6521,7 +6521,7 @@
         <v>21</v>
       </c>
       <c r="AY33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ33" t="n">
         <v>67</v>
@@ -6530,7 +6530,7 @@
         <v>81</v>
       </c>
       <c r="BB33" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC33" t="n">
         <v>81</v>
@@ -6580,7 +6580,7 @@
         <v>4.75</v>
       </c>
       <c r="J34" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K34" t="n">
         <v>2.5</v>
@@ -6640,7 +6640,7 @@
         <v>17</v>
       </c>
       <c r="AD34" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE34" t="n">
         <v>15</v>
@@ -6655,7 +6655,7 @@
         <v>17</v>
       </c>
       <c r="AI34" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ34" t="n">
         <v>15</v>
@@ -6697,7 +6697,7 @@
         <v>41</v>
       </c>
       <c r="AW34" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX34" t="n">
         <v>23</v>
@@ -6706,7 +6706,7 @@
         <v>26</v>
       </c>
       <c r="AZ34" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA34" t="n">
         <v>81</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H35" t="n">
         <v>3.6</v>
       </c>
       <c r="I35" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J35" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K35" t="n">
         <v>2.38</v>
@@ -6774,7 +6774,7 @@
         <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O35" t="n">
         <v>1.17</v>
@@ -6810,7 +6810,7 @@
         <v>11</v>
       </c>
       <c r="Z35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA35" t="n">
         <v>21</v>
@@ -6825,7 +6825,7 @@
         <v>7.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF35" t="n">
         <v>34</v>
@@ -6846,13 +6846,13 @@
         <v>21</v>
       </c>
       <c r="AL35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM35" t="n">
         <v>21</v>
       </c>
       <c r="AN35" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO35" t="n">
         <v>15</v>
@@ -6861,7 +6861,7 @@
         <v>21</v>
       </c>
       <c r="AQ35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR35" t="n">
         <v>51</v>
@@ -6879,16 +6879,16 @@
         <v>41</v>
       </c>
       <c r="AW35" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA35" t="n">
         <v>51</v>
@@ -6935,13 +6935,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H36" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="J36" t="n">
         <v>4.33</v>
@@ -6950,13 +6950,13 @@
         <v>2.4</v>
       </c>
       <c r="L36" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M36" t="n">
         <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O36" t="n">
         <v>1.18</v>
@@ -7001,13 +7001,13 @@
         <v>29</v>
       </c>
       <c r="AC36" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD36" t="n">
         <v>8</v>
       </c>
       <c r="AE36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF36" t="n">
         <v>41</v>
@@ -7019,7 +7019,7 @@
         <v>9.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ36" t="n">
         <v>8.5</v>
@@ -7034,19 +7034,19 @@
         <v>21</v>
       </c>
       <c r="AN36" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO36" t="n">
         <v>21</v>
       </c>
       <c r="AP36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ36" t="n">
         <v>67</v>
       </c>
       <c r="AR36" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS36" t="n">
         <v>151</v>
@@ -7070,7 +7070,7 @@
         <v>17</v>
       </c>
       <c r="AZ36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA36" t="n">
         <v>41</v>
@@ -8027,22 +8027,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H42" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K42" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L42" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M42" t="n">
         <v>1.13</v>
@@ -8078,13 +8078,13 @@
         <v>5</v>
       </c>
       <c r="X42" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y42" t="n">
         <v>10</v>
       </c>
       <c r="Z42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA42" t="n">
         <v>21</v>
@@ -8108,16 +8108,16 @@
         <v>101</v>
       </c>
       <c r="AH42" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI42" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK42" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL42" t="n">
         <v>41</v>
@@ -8126,10 +8126,10 @@
         <v>51</v>
       </c>
       <c r="AN42" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP42" t="n">
         <v>29</v>
@@ -8141,7 +8141,7 @@
         <v>81</v>
       </c>
       <c r="AS42" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT42" t="n">
         <v>2.2</v>
@@ -8156,13 +8156,13 @@
         <v>6</v>
       </c>
       <c r="AX42" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY42" t="n">
         <v>41</v>
       </c>
       <c r="AZ42" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA42" t="n">
         <v>151</v>
@@ -8391,13 +8391,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H44" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I44" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J44" t="n">
         <v>2.4</v>
@@ -8406,13 +8406,13 @@
         <v>2.6</v>
       </c>
       <c r="L44" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M44" t="n">
         <v>1.02</v>
       </c>
       <c r="N44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O44" t="n">
         <v>1.11</v>
@@ -8433,13 +8433,13 @@
         <v>4</v>
       </c>
       <c r="U44" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V44" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X44" t="n">
         <v>13</v>
@@ -8457,7 +8457,7 @@
         <v>17</v>
       </c>
       <c r="AC44" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD44" t="n">
         <v>8</v>
@@ -8472,10 +8472,10 @@
         <v>67</v>
       </c>
       <c r="AH44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI44" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ44" t="n">
         <v>13</v>
@@ -8490,7 +8490,7 @@
         <v>23</v>
       </c>
       <c r="AN44" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO44" t="n">
         <v>10</v>
@@ -8511,7 +8511,7 @@
         <v>4</v>
       </c>
       <c r="AU44" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AV44" t="n">
         <v>34</v>
@@ -8594,7 +8594,7 @@
         <v>1.02</v>
       </c>
       <c r="N45" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O45" t="n">
         <v>1.13</v>
@@ -8761,7 +8761,7 @@
         <v>4.1</v>
       </c>
       <c r="I46" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J46" t="n">
         <v>2.3</v>
@@ -8770,7 +8770,7 @@
         <v>2.6</v>
       </c>
       <c r="L46" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M46" t="n">
         <v>1.01</v>
@@ -8806,7 +8806,7 @@
         <v>13</v>
       </c>
       <c r="X46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y46" t="n">
         <v>9</v>
@@ -8815,7 +8815,7 @@
         <v>17</v>
       </c>
       <c r="AA46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB46" t="n">
         <v>17</v>
@@ -8836,7 +8836,7 @@
         <v>81</v>
       </c>
       <c r="AH46" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI46" t="n">
         <v>26</v>
@@ -8851,7 +8851,7 @@
         <v>26</v>
       </c>
       <c r="AM46" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN46" t="n">
         <v>4.5</v>
@@ -8878,7 +8878,7 @@
         <v>7</v>
       </c>
       <c r="AV46" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AW46" t="n">
         <v>6.5</v>
@@ -9492,13 +9492,13 @@
         <v>12</v>
       </c>
       <c r="J50" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="K50" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L50" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M50" t="n">
         <v>1.03</v>
@@ -9519,52 +9519,52 @@
         <v>2.2</v>
       </c>
       <c r="S50" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T50" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U50" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V50" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W50" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X50" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z50" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA50" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC50" t="n">
         <v>13</v>
       </c>
-      <c r="AB50" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>12</v>
-      </c>
       <c r="AD50" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE50" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF50" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AG50" t="n">
         <v>201</v>
       </c>
       <c r="AH50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI50" t="n">
         <v>51</v>
@@ -9579,7 +9579,7 @@
         <v>101</v>
       </c>
       <c r="AM50" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AN50" t="n">
         <v>3</v>
@@ -9591,31 +9591,31 @@
         <v>21</v>
       </c>
       <c r="AQ50" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR50" t="n">
         <v>41</v>
       </c>
       <c r="AS50" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT50" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU50" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV50" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW50" t="n">
         <v>13</v>
       </c>
       <c r="AX50" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AY50" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AZ50" t="n">
         <v>351</v>
@@ -9630,7 +9630,7 @@
         <v>126</v>
       </c>
       <c r="BD50" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51">

--- a/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
@@ -783,7 +783,7 @@
         <v>2.08</v>
       </c>
       <c r="S2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T2" t="n">
         <v>3.25</v>
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
         <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>
@@ -959,34 +959,34 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R3" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
         <v>19</v>
@@ -1016,13 +1016,13 @@
         <v>17</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
         <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
@@ -1052,7 +1052,7 @@
         <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
         <v>5.5</v>
@@ -1061,7 +1061,7 @@
         <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
         <v>67</v>
@@ -1147,10 +1147,10 @@
         <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T4" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="U4" t="n">
         <v>2.1</v>
@@ -1323,13 +1323,13 @@
         <v>2.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S5" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T5" t="n">
         <v>2.1</v>
@@ -1496,7 +1496,7 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1505,10 +1505,10 @@
         <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R6" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>
@@ -2764,13 +2764,13 @@
         <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.33</v>
@@ -2779,16 +2779,16 @@
         <v>3.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R13" t="n">
         <v>1.8</v>
       </c>
       <c r="S13" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T13" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U13" t="n">
         <v>1.83</v>
@@ -2806,7 +2806,7 @@
         <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA13" t="n">
         <v>17</v>
@@ -2827,16 +2827,16 @@
         <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH13" t="n">
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK13" t="n">
         <v>41</v>
@@ -2866,7 +2866,7 @@
         <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU13" t="n">
         <v>8</v>
@@ -3143,10 +3143,10 @@
         <v>3.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R15" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S15" t="n">
         <v>1.4</v>
@@ -3325,10 +3325,10 @@
         <v>3.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S16" t="n">
         <v>1.4</v>
@@ -3477,10 +3477,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
         <v>4.33</v>
@@ -3558,7 +3558,7 @@
         <v>151</v>
       </c>
       <c r="AH17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI17" t="n">
         <v>23</v>
@@ -3579,7 +3579,7 @@
         <v>4</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP17" t="n">
         <v>19</v>
@@ -3624,7 +3624,7 @@
         <v>501</v>
       </c>
       <c r="BD17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18">
@@ -4963,10 +4963,10 @@
         <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R25" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
         <v>1.36</v>
@@ -5843,34 +5843,34 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I30" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="J30" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K30" t="n">
         <v>2.05</v>
       </c>
       <c r="L30" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M30" t="n">
         <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O30" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q30" t="n">
         <v>2.25</v>
@@ -5885,25 +5885,25 @@
         <v>2.5</v>
       </c>
       <c r="U30" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V30" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W30" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X30" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB30" t="n">
         <v>34</v>
@@ -5915,7 +5915,7 @@
         <v>6</v>
       </c>
       <c r="AE30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF30" t="n">
         <v>51</v>
@@ -5924,34 +5924,34 @@
         <v>351</v>
       </c>
       <c r="AH30" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO30" t="n">
         <v>12</v>
       </c>
-      <c r="AK30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>13</v>
-      </c>
       <c r="AP30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR30" t="n">
         <v>67</v>
@@ -5969,19 +5969,19 @@
         <v>67</v>
       </c>
       <c r="AW30" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX30" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AY30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ30" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA30" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB30" t="n">
         <v>251</v>
@@ -6207,13 +6207,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H32" t="n">
         <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J32" t="n">
         <v>3.1</v>
@@ -6222,7 +6222,7 @@
         <v>2.3</v>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M32" t="n">
         <v>1.03</v>
@@ -6297,10 +6297,10 @@
         <v>10</v>
       </c>
       <c r="AK32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM32" t="n">
         <v>23</v>
@@ -6312,7 +6312,7 @@
         <v>13</v>
       </c>
       <c r="AP32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ32" t="n">
         <v>41</v>
@@ -8391,28 +8391,28 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="H44" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I44" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="J44" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="K44" t="n">
         <v>2.6</v>
       </c>
       <c r="L44" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M44" t="n">
         <v>1.02</v>
       </c>
       <c r="N44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O44" t="n">
         <v>1.11</v>
@@ -8442,16 +8442,16 @@
         <v>13</v>
       </c>
       <c r="X44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y44" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z44" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB44" t="n">
         <v>17</v>
@@ -8460,49 +8460,49 @@
         <v>21</v>
       </c>
       <c r="AD44" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF44" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM44" t="n">
         <v>26</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>23</v>
       </c>
       <c r="AN44" t="n">
         <v>4.5</v>
       </c>
       <c r="AO44" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP44" t="n">
         <v>15</v>
       </c>
       <c r="AQ44" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AR44" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS44" t="n">
         <v>67</v>
@@ -8517,13 +8517,13 @@
         <v>34</v>
       </c>
       <c r="AW44" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ44" t="n">
         <v>51</v>
@@ -8532,10 +8532,10 @@
         <v>51</v>
       </c>
       <c r="BB44" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC44" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD44" t="n">
         <v>151</v>
@@ -8573,13 +8573,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H45" t="n">
         <v>5.5</v>
       </c>
       <c r="I45" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J45" t="n">
         <v>1.73</v>
@@ -8588,7 +8588,7 @@
         <v>2.75</v>
       </c>
       <c r="L45" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M45" t="n">
         <v>1.02</v>
@@ -8615,16 +8615,16 @@
         <v>4</v>
       </c>
       <c r="U45" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V45" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W45" t="n">
         <v>9.5</v>
       </c>
       <c r="X45" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y45" t="n">
         <v>9</v>
@@ -8636,7 +8636,7 @@
         <v>10</v>
       </c>
       <c r="AB45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC45" t="n">
         <v>19</v>
@@ -8660,7 +8660,7 @@
         <v>41</v>
       </c>
       <c r="AJ45" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK45" t="n">
         <v>101</v>
@@ -8693,7 +8693,7 @@
         <v>4</v>
       </c>
       <c r="AU45" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV45" t="n">
         <v>51</v>
@@ -8761,7 +8761,7 @@
         <v>4.1</v>
       </c>
       <c r="I46" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J46" t="n">
         <v>2.3</v>
@@ -8815,7 +8815,7 @@
         <v>17</v>
       </c>
       <c r="AA46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB46" t="n">
         <v>17</v>
@@ -8836,7 +8836,7 @@
         <v>81</v>
       </c>
       <c r="AH46" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI46" t="n">
         <v>26</v>
@@ -8866,7 +8866,7 @@
         <v>26</v>
       </c>
       <c r="AR46" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS46" t="n">
         <v>67</v>
@@ -8899,7 +8899,7 @@
         <v>101</v>
       </c>
       <c r="BC46" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD46" t="n">
         <v>151</v>
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="H47" t="n">
         <v>3.5</v>
       </c>
       <c r="I47" t="n">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="J47" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="K47" t="n">
         <v>2.38</v>
       </c>
       <c r="L47" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M47" t="n">
         <v>1.03</v>
@@ -8961,22 +8961,22 @@
         <v>15</v>
       </c>
       <c r="O47" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P47" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R47" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S47" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T47" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U47" t="n">
         <v>1.5</v>
@@ -8985,22 +8985,22 @@
         <v>2.5</v>
       </c>
       <c r="W47" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X47" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y47" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA47" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB47" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC47" t="n">
         <v>15</v>
@@ -9018,19 +9018,19 @@
         <v>101</v>
       </c>
       <c r="AH47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI47" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK47" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM47" t="n">
         <v>23</v>
@@ -9039,7 +9039,7 @@
         <v>4.75</v>
       </c>
       <c r="AO47" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP47" t="n">
         <v>19</v>
@@ -9054,7 +9054,7 @@
         <v>101</v>
       </c>
       <c r="AT47" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU47" t="n">
         <v>7</v>
@@ -9063,13 +9063,13 @@
         <v>41</v>
       </c>
       <c r="AW47" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX47" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ47" t="n">
         <v>41</v>
@@ -9513,10 +9513,10 @@
         <v>4.33</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R50" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S50" t="n">
         <v>1.3</v>
@@ -9630,7 +9630,7 @@
         <v>126</v>
       </c>
       <c r="BD50" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51">
@@ -10217,13 +10217,13 @@
         <v>3.5</v>
       </c>
       <c r="I54" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K54" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L54" t="n">
         <v>3.5</v>
@@ -10253,13 +10253,13 @@
         <v>3.25</v>
       </c>
       <c r="U54" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V54" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W54" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X54" t="n">
         <v>12</v>
@@ -10307,10 +10307,10 @@
         <v>23</v>
       </c>
       <c r="AM54" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN54" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO54" t="n">
         <v>12</v>
@@ -10340,10 +10340,10 @@
         <v>5</v>
       </c>
       <c r="AX54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ54" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
@@ -947,10 +947,10 @@
         <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>
@@ -1329,7 +1329,7 @@
         <v>1.4</v>
       </c>
       <c r="S5" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T5" t="n">
         <v>2.1</v>
@@ -1511,7 +1511,7 @@
         <v>1.6</v>
       </c>
       <c r="S6" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T6" t="n">
         <v>2.5</v>
@@ -1693,7 +1693,7 @@
         <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T7" t="n">
         <v>2.25</v>
@@ -1875,7 +1875,7 @@
         <v>1.57</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T8" t="n">
         <v>2.5</v>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
@@ -2039,10 +2039,10 @@
         <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
         <v>1.29</v>
@@ -2051,16 +2051,16 @@
         <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="R9" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T9" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
         <v>1.73</v>
@@ -2078,7 +2078,7 @@
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA9" t="n">
         <v>15</v>
@@ -2087,16 +2087,16 @@
         <v>26</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
         <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG9" t="n">
         <v>201</v>
@@ -2135,10 +2135,10 @@
         <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
         <v>8</v>
@@ -2227,16 +2227,16 @@
         <v>15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R10" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S10" t="n">
         <v>1.29</v>
@@ -2385,19 +2385,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J11" t="n">
         <v>3.25</v>
       </c>
-      <c r="I11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L11" t="n">
         <v>3.4</v>
@@ -2427,16 +2427,16 @@
         <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W11" t="n">
         <v>8</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
         <v>10</v>
@@ -2445,16 +2445,16 @@
         <v>26</v>
       </c>
       <c r="AA11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB11" t="n">
         <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
         <v>15</v>
@@ -2463,10 +2463,10 @@
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI11" t="n">
         <v>13</v>
@@ -2478,7 +2478,7 @@
         <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM11" t="n">
         <v>34</v>
@@ -2490,13 +2490,13 @@
         <v>15</v>
       </c>
       <c r="AP11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
         <v>51</v>
       </c>
       <c r="AR11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS11" t="n">
         <v>201</v>
@@ -2511,7 +2511,7 @@
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX11" t="n">
         <v>15</v>
@@ -2523,7 +2523,7 @@
         <v>51</v>
       </c>
       <c r="BA11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB11" t="n">
         <v>201</v>
@@ -2532,7 +2532,7 @@
         <v>501</v>
       </c>
       <c r="BD11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
@@ -3131,10 +3131,10 @@
         <v>3.1</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
         <v>1.29</v>
@@ -3841,13 +3841,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J19" t="n">
         <v>4.33</v>
@@ -3856,7 +3856,7 @@
         <v>2.3</v>
       </c>
       <c r="L19" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
@@ -3865,16 +3865,16 @@
         <v>13</v>
       </c>
       <c r="O19" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R19" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S19" t="n">
         <v>1.33</v>
@@ -3889,10 +3889,10 @@
         <v>2.1</v>
       </c>
       <c r="W19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y19" t="n">
         <v>13</v>
@@ -3931,13 +3931,13 @@
         <v>8.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN19" t="n">
         <v>6</v>
@@ -3970,19 +3970,19 @@
         <v>4</v>
       </c>
       <c r="AX19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB19" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC19" t="n">
         <v>501</v>
@@ -8391,16 +8391,16 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H44" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I44" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J44" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K44" t="n">
         <v>2.6</v>
@@ -8412,19 +8412,19 @@
         <v>1.02</v>
       </c>
       <c r="N44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O44" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P44" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R44" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="S44" t="n">
         <v>1.22</v>
@@ -8433,10 +8433,10 @@
         <v>4</v>
       </c>
       <c r="U44" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V44" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W44" t="n">
         <v>13</v>
@@ -8448,7 +8448,7 @@
         <v>9</v>
       </c>
       <c r="Z44" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA44" t="n">
         <v>12</v>
@@ -8490,10 +8490,10 @@
         <v>26</v>
       </c>
       <c r="AN44" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO44" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP44" t="n">
         <v>15</v>
@@ -8514,7 +8514,7 @@
         <v>7</v>
       </c>
       <c r="AV44" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AW44" t="n">
         <v>6.5</v>
@@ -8573,28 +8573,28 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H45" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I45" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J45" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K45" t="n">
         <v>2.75</v>
       </c>
       <c r="L45" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M45" t="n">
         <v>1.02</v>
       </c>
       <c r="N45" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O45" t="n">
         <v>1.13</v>
@@ -8615,10 +8615,10 @@
         <v>4</v>
       </c>
       <c r="U45" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V45" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W45" t="n">
         <v>9.5</v>
@@ -8630,10 +8630,10 @@
         <v>9</v>
       </c>
       <c r="Z45" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB45" t="n">
         <v>23</v>
@@ -8645,22 +8645,22 @@
         <v>11</v>
       </c>
       <c r="AE45" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF45" t="n">
         <v>51</v>
       </c>
       <c r="AG45" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH45" t="n">
         <v>26</v>
       </c>
       <c r="AI45" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK45" t="n">
         <v>101</v>
@@ -8681,13 +8681,13 @@
         <v>15</v>
       </c>
       <c r="AQ45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR45" t="n">
         <v>34</v>
       </c>
       <c r="AS45" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT45" t="n">
         <v>4</v>
@@ -8699,22 +8699,22 @@
         <v>51</v>
       </c>
       <c r="AW45" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AX45" t="n">
         <v>41</v>
       </c>
       <c r="AY45" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ45" t="n">
         <v>151</v>
       </c>
       <c r="BA45" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB45" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC45" t="n">
         <v>126</v>
@@ -9149,10 +9149,10 @@
         <v>3.25</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R48" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S48" t="n">
         <v>1.44</v>
@@ -9630,7 +9630,7 @@
         <v>126</v>
       </c>
       <c r="BD50" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51">

--- a/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
@@ -1329,7 +1329,7 @@
         <v>1.4</v>
       </c>
       <c r="S5" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T5" t="n">
         <v>2.1</v>
@@ -1511,7 +1511,7 @@
         <v>1.6</v>
       </c>
       <c r="S6" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T6" t="n">
         <v>2.5</v>
@@ -1693,7 +1693,7 @@
         <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T7" t="n">
         <v>2.25</v>
@@ -1875,7 +1875,7 @@
         <v>1.57</v>
       </c>
       <c r="S8" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T8" t="n">
         <v>2.5</v>
@@ -2024,7 +2024,7 @@
         <v>1.85</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
         <v>4.2</v>
@@ -2033,7 +2033,7 @@
         <v>2.5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L9" t="n">
         <v>4.33</v>
@@ -2045,16 +2045,16 @@
         <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
         <v>1.36</v>
@@ -2069,10 +2069,10 @@
         <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
@@ -2084,7 +2084,7 @@
         <v>15</v>
       </c>
       <c r="AB9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
         <v>11</v>
@@ -2102,7 +2102,7 @@
         <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
         <v>21</v>
@@ -2117,7 +2117,7 @@
         <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN9" t="n">
         <v>4</v>
@@ -2126,7 +2126,7 @@
         <v>10</v>
       </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ9" t="n">
         <v>34</v>
@@ -2153,7 +2153,7 @@
         <v>21</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
         <v>67</v>
@@ -2162,13 +2162,13 @@
         <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
         <v>501</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H10" t="n">
         <v>5</v>
@@ -2212,10 +2212,10 @@
         <v>10</v>
       </c>
       <c r="J10" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K10" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L10" t="n">
         <v>7.5</v>
@@ -2245,10 +2245,10 @@
         <v>3.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
         <v>8</v>
@@ -2257,7 +2257,7 @@
         <v>7</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z10" t="n">
         <v>8.5</v>
@@ -2266,7 +2266,7 @@
         <v>11</v>
       </c>
       <c r="AB10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
         <v>15</v>
@@ -2275,7 +2275,7 @@
         <v>9.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
         <v>51</v>
@@ -2284,19 +2284,19 @@
         <v>301</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM10" t="n">
         <v>51</v>
@@ -2311,13 +2311,13 @@
         <v>17</v>
       </c>
       <c r="AQ10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR10" t="n">
         <v>41</v>
       </c>
       <c r="AS10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT10" t="n">
         <v>3.5</v>
@@ -2344,7 +2344,7 @@
         <v>151</v>
       </c>
       <c r="BB10" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC10" t="n">
         <v>501</v>
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J12" t="n">
         <v>3.4</v>
@@ -2597,10 +2597,10 @@
         <v>3.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S12" t="n">
         <v>1.44</v>
@@ -2624,22 +2624,22 @@
         <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB12" t="n">
         <v>34</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD12" t="n">
         <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
         <v>51</v>
@@ -2663,7 +2663,7 @@
         <v>21</v>
       </c>
       <c r="AM12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN12" t="n">
         <v>4.75</v>
@@ -2681,7 +2681,7 @@
         <v>67</v>
       </c>
       <c r="AS12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT12" t="n">
         <v>2.63</v>
@@ -2708,7 +2708,7 @@
         <v>67</v>
       </c>
       <c r="BB12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC12" t="n">
         <v>501</v>
@@ -2770,7 +2770,7 @@
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
         <v>1.33</v>
@@ -2967,10 +2967,10 @@
         <v>1.95</v>
       </c>
       <c r="S14" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T14" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U14" t="n">
         <v>1.73</v>
@@ -2982,7 +2982,7 @@
         <v>8.5</v>
       </c>
       <c r="X14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y14" t="n">
         <v>9.5</v>
@@ -3012,7 +3012,7 @@
         <v>201</v>
       </c>
       <c r="AH14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI14" t="n">
         <v>15</v>
@@ -3030,7 +3030,7 @@
         <v>29</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO14" t="n">
         <v>13</v>
@@ -3048,7 +3048,7 @@
         <v>151</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
         <v>7.5</v>
@@ -3075,7 +3075,7 @@
         <v>151</v>
       </c>
       <c r="BC14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD14" t="n">
         <v>151</v>
@@ -3131,10 +3131,10 @@
         <v>3.1</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
         <v>1.29</v>
@@ -3477,13 +3477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J17" t="n">
         <v>2.38</v>
@@ -3492,7 +3492,7 @@
         <v>2.3</v>
       </c>
       <c r="L17" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
@@ -3507,10 +3507,10 @@
         <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R17" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
         <v>1.33</v>
@@ -3519,13 +3519,13 @@
         <v>3.25</v>
       </c>
       <c r="U17" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V17" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
         <v>9</v>
@@ -3543,19 +3543,19 @@
         <v>23</v>
       </c>
       <c r="AC17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD17" t="n">
         <v>7</v>
       </c>
       <c r="AE17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF17" t="n">
         <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH17" t="n">
         <v>13</v>
@@ -3567,19 +3567,19 @@
         <v>15</v>
       </c>
       <c r="AK17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL17" t="n">
         <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN17" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP17" t="n">
         <v>19</v>
@@ -3588,7 +3588,7 @@
         <v>29</v>
       </c>
       <c r="AR17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS17" t="n">
         <v>126</v>
@@ -3597,7 +3597,7 @@
         <v>3.25</v>
       </c>
       <c r="AU17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
@@ -3606,19 +3606,19 @@
         <v>6</v>
       </c>
       <c r="AX17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA17" t="n">
         <v>81</v>
       </c>
       <c r="BB17" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC17" t="n">
         <v>501</v>
@@ -3659,13 +3659,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H18" t="n">
         <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J18" t="n">
         <v>2.88</v>
@@ -3674,7 +3674,7 @@
         <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
@@ -3716,10 +3716,10 @@
         <v>9</v>
       </c>
       <c r="Z18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB18" t="n">
         <v>29</v>
@@ -3728,7 +3728,7 @@
         <v>9.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -3749,22 +3749,22 @@
         <v>12</v>
       </c>
       <c r="AK18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM18" t="n">
         <v>34</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO18" t="n">
         <v>12</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ18" t="n">
         <v>41</v>
@@ -3785,16 +3785,16 @@
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX18" t="n">
         <v>19</v>
       </c>
       <c r="AY18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA18" t="n">
         <v>81</v>
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="H19" t="n">
         <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J19" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K19" t="n">
         <v>2.3</v>
       </c>
       <c r="L19" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
@@ -3865,16 +3865,16 @@
         <v>13</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="R19" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
         <v>1.33</v>
@@ -3895,13 +3895,13 @@
         <v>23</v>
       </c>
       <c r="Y19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z19" t="n">
         <v>41</v>
       </c>
       <c r="AA19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB19" t="n">
         <v>34</v>
@@ -3970,7 +3970,7 @@
         <v>4</v>
       </c>
       <c r="AX19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY19" t="n">
         <v>17</v>
@@ -4041,10 +4041,10 @@
         <v>2.88</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O20" t="n">
         <v>1.25</v>
@@ -4208,16 +4208,16 @@
         <v>2.2</v>
       </c>
       <c r="H21" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I21" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
         <v>2.75</v>
       </c>
       <c r="K21" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L21" t="n">
         <v>3.4</v>
@@ -4235,25 +4235,25 @@
         <v>4.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R21" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S21" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U21" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V21" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X21" t="n">
         <v>13</v>
@@ -4271,7 +4271,7 @@
         <v>21</v>
       </c>
       <c r="AC21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD21" t="n">
         <v>7.5</v>
@@ -4280,13 +4280,13 @@
         <v>12</v>
       </c>
       <c r="AF21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG21" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI21" t="n">
         <v>17</v>
@@ -4301,28 +4301,28 @@
         <v>21</v>
       </c>
       <c r="AM21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN21" t="n">
         <v>4.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS21" t="n">
         <v>101</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU21" t="n">
         <v>7</v>
@@ -4340,16 +4340,16 @@
         <v>21</v>
       </c>
       <c r="AZ21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA21" t="n">
         <v>51</v>
       </c>
       <c r="BB21" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC21" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BD21" t="n">
         <v>151</v>
@@ -4387,19 +4387,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H22" t="n">
         <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J22" t="n">
         <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
         <v>4</v>
@@ -4408,7 +4408,7 @@
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.4</v>
@@ -4435,7 +4435,7 @@
         <v>1.8</v>
       </c>
       <c r="W22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X22" t="n">
         <v>10</v>
@@ -4453,7 +4453,7 @@
         <v>34</v>
       </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD22" t="n">
         <v>6</v>
@@ -4471,13 +4471,13 @@
         <v>9</v>
       </c>
       <c r="AI22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL22" t="n">
         <v>29</v>
@@ -4486,7 +4486,7 @@
         <v>41</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO22" t="n">
         <v>13</v>
@@ -4516,7 +4516,7 @@
         <v>5</v>
       </c>
       <c r="AX22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY22" t="n">
         <v>29</v>
@@ -4569,40 +4569,40 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H23" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I23" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J23" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L23" t="n">
         <v>3.1</v>
       </c>
-      <c r="K23" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L23" t="n">
-        <v>3</v>
-      </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O23" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P23" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R23" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S23" t="n">
         <v>1.29</v>
@@ -4611,13 +4611,13 @@
         <v>3.5</v>
       </c>
       <c r="U23" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V23" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X23" t="n">
         <v>15</v>
@@ -4629,19 +4629,19 @@
         <v>26</v>
       </c>
       <c r="AA23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB23" t="n">
         <v>21</v>
       </c>
       <c r="AC23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD23" t="n">
         <v>7.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF23" t="n">
         <v>34</v>
@@ -4650,19 +4650,19 @@
         <v>101</v>
       </c>
       <c r="AH23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ23" t="n">
         <v>10</v>
       </c>
       <c r="AK23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM23" t="n">
         <v>21</v>
@@ -4674,7 +4674,7 @@
         <v>13</v>
       </c>
       <c r="AP23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ23" t="n">
         <v>41</v>
@@ -4713,7 +4713,7 @@
         <v>101</v>
       </c>
       <c r="BC23" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD23" t="n">
         <v>151</v>
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H24" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I24" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J24" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
@@ -4787,16 +4787,16 @@
         <v>1.65</v>
       </c>
       <c r="S24" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T24" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U24" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V24" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W24" t="n">
         <v>6</v>
@@ -4808,7 +4808,7 @@
         <v>9</v>
       </c>
       <c r="Z24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA24" t="n">
         <v>17</v>
@@ -4832,7 +4832,7 @@
         <v>501</v>
       </c>
       <c r="AH24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI24" t="n">
         <v>21</v>
@@ -4853,7 +4853,7 @@
         <v>3.6</v>
       </c>
       <c r="AO24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP24" t="n">
         <v>23</v>
@@ -4868,7 +4868,7 @@
         <v>201</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU24" t="n">
         <v>9</v>
@@ -4877,10 +4877,10 @@
         <v>67</v>
       </c>
       <c r="AW24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY24" t="n">
         <v>41</v>
@@ -4933,28 +4933,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H25" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K25" t="n">
         <v>2.3</v>
       </c>
       <c r="L25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O25" t="n">
         <v>1.25</v>
@@ -4963,10 +4963,10 @@
         <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R25" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S25" t="n">
         <v>1.36</v>
@@ -4975,10 +4975,10 @@
         <v>3</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V25" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W25" t="n">
         <v>6.5</v>
@@ -4990,49 +4990,49 @@
         <v>8.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA25" t="n">
         <v>13</v>
       </c>
       <c r="AB25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI25" t="n">
         <v>29</v>
       </c>
-      <c r="AC25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>34</v>
-      </c>
       <c r="AJ25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK25" t="n">
         <v>67</v>
       </c>
       <c r="AL25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO25" t="n">
         <v>7.5</v>
@@ -5041,7 +5041,7 @@
         <v>19</v>
       </c>
       <c r="AQ25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR25" t="n">
         <v>41</v>
@@ -5053,28 +5053,28 @@
         <v>3</v>
       </c>
       <c r="AU25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV25" t="n">
         <v>51</v>
       </c>
       <c r="AW25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AX25" t="n">
         <v>34</v>
       </c>
       <c r="AY25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ25" t="n">
         <v>126</v>
       </c>
       <c r="BA25" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB25" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC25" t="n">
         <v>501</v>
@@ -5115,13 +5115,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H26" t="n">
         <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
         <v>3.1</v>
@@ -5133,10 +5133,10 @@
         <v>3.6</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O26" t="n">
         <v>1.33</v>
@@ -5163,7 +5163,7 @@
         <v>1.95</v>
       </c>
       <c r="W26" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X26" t="n">
         <v>11</v>
@@ -5181,10 +5181,10 @@
         <v>29</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>15</v>
@@ -5193,10 +5193,10 @@
         <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
         <v>15</v>
@@ -5205,10 +5205,10 @@
         <v>11</v>
       </c>
       <c r="AK26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM26" t="n">
         <v>34</v>
@@ -5241,7 +5241,7 @@
         <v>51</v>
       </c>
       <c r="AW26" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX26" t="n">
         <v>17</v>
@@ -5297,28 +5297,28 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="H27" t="n">
         <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="J27" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
         <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O27" t="n">
         <v>1.3</v>
@@ -5339,25 +5339,25 @@
         <v>2.75</v>
       </c>
       <c r="U27" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V27" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W27" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y27" t="n">
         <v>9.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB27" t="n">
         <v>29</v>
@@ -5378,25 +5378,25 @@
         <v>251</v>
       </c>
       <c r="AH27" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ27" t="n">
         <v>11</v>
       </c>
       <c r="AK27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO27" t="n">
         <v>13</v>
@@ -5423,22 +5423,22 @@
         <v>51</v>
       </c>
       <c r="AW27" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ27" t="n">
         <v>51</v>
       </c>
       <c r="BA27" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB27" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC27" t="n">
         <v>501</v>
@@ -8209,16 +8209,16 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="H43" t="n">
         <v>2.88</v>
       </c>
       <c r="I43" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J43" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K43" t="n">
         <v>1.95</v>
@@ -8227,10 +8227,10 @@
         <v>3.75</v>
       </c>
       <c r="M43" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N43" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O43" t="n">
         <v>1.44</v>
@@ -8257,16 +8257,16 @@
         <v>1.73</v>
       </c>
       <c r="W43" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X43" t="n">
         <v>11</v>
       </c>
       <c r="Y43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z43" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA43" t="n">
         <v>23</v>
@@ -8290,16 +8290,16 @@
         <v>700</v>
       </c>
       <c r="AH43" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ43" t="n">
         <v>12</v>
       </c>
       <c r="AK43" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL43" t="n">
         <v>29</v>
@@ -8338,13 +8338,13 @@
         <v>4.75</v>
       </c>
       <c r="AX43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY43" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ43" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA43" t="n">
         <v>101</v>
@@ -8394,55 +8394,55 @@
         <v>1.73</v>
       </c>
       <c r="H44" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I44" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L44" t="n">
         <v>4.33</v>
       </c>
-      <c r="J44" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K44" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L44" t="n">
-        <v>4</v>
-      </c>
       <c r="M44" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N44" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O44" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P44" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R44" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="S44" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T44" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U44" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V44" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W44" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y44" t="n">
         <v>9</v>
@@ -8454,25 +8454,25 @@
         <v>12</v>
       </c>
       <c r="AB44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD44" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE44" t="n">
         <v>11</v>
       </c>
       <c r="AF44" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG44" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI44" t="n">
         <v>29</v>
@@ -8481,13 +8481,13 @@
         <v>15</v>
       </c>
       <c r="AK44" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL44" t="n">
         <v>29</v>
       </c>
       <c r="AM44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN44" t="n">
         <v>4.33</v>
@@ -8502,13 +8502,13 @@
         <v>23</v>
       </c>
       <c r="AR44" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS44" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AT44" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU44" t="n">
         <v>7</v>
@@ -8520,22 +8520,22 @@
         <v>6.5</v>
       </c>
       <c r="AX44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY44" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ44" t="n">
         <v>51</v>
       </c>
       <c r="BA44" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB44" t="n">
         <v>101</v>
       </c>
       <c r="BC44" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD44" t="n">
         <v>151</v>
@@ -8761,7 +8761,7 @@
         <v>4.1</v>
       </c>
       <c r="I46" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J46" t="n">
         <v>2.3</v>
@@ -8815,7 +8815,7 @@
         <v>17</v>
       </c>
       <c r="AA46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB46" t="n">
         <v>17</v>
@@ -8937,13 +8937,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H47" t="n">
         <v>3.5</v>
       </c>
       <c r="I47" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
         <v>2.75</v>
@@ -8952,7 +8952,7 @@
         <v>2.38</v>
       </c>
       <c r="L47" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M47" t="n">
         <v>1.03</v>
@@ -9149,10 +9149,10 @@
         <v>3.25</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R48" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S48" t="n">
         <v>1.44</v>
@@ -9331,10 +9331,10 @@
         <v>3.75</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R49" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S49" t="n">
         <v>1.36</v>
@@ -10211,13 +10211,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H54" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J54" t="n">
         <v>2.88</v>
@@ -10226,7 +10226,7 @@
         <v>2.3</v>
       </c>
       <c r="L54" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M54" t="n">
         <v>1.04</v>
@@ -10262,10 +10262,10 @@
         <v>10</v>
       </c>
       <c r="X54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y54" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z54" t="n">
         <v>21</v>
@@ -10280,7 +10280,7 @@
         <v>13</v>
       </c>
       <c r="AD54" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE54" t="n">
         <v>12</v>
@@ -10289,7 +10289,7 @@
         <v>41</v>
       </c>
       <c r="AG54" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH54" t="n">
         <v>12</v>
@@ -10301,10 +10301,10 @@
         <v>11</v>
       </c>
       <c r="AK54" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM54" t="n">
         <v>26</v>
@@ -10349,7 +10349,7 @@
         <v>51</v>
       </c>
       <c r="BA54" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB54" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
         <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J2" t="n">
         <v>2.75</v>
@@ -795,7 +795,7 @@
         <v>2.2</v>
       </c>
       <c r="W2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
         <v>11</v>
@@ -804,10 +804,10 @@
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
         <v>23</v>
@@ -1323,10 +1323,10 @@
         <v>2.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S5" t="n">
         <v>1.67</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="K9" t="n">
         <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -2051,10 +2051,10 @@
         <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S9" t="n">
         <v>1.36</v>
@@ -2072,7 +2072,7 @@
         <v>8</v>
       </c>
       <c r="X9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
@@ -2081,7 +2081,7 @@
         <v>15</v>
       </c>
       <c r="AA9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB9" t="n">
         <v>23</v>
@@ -2090,7 +2090,7 @@
         <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
@@ -2105,31 +2105,31 @@
         <v>13</v>
       </c>
       <c r="AI9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL9" t="n">
         <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP9" t="n">
         <v>19</v>
       </c>
       <c r="AQ9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR9" t="n">
         <v>51</v>
@@ -2150,19 +2150,19 @@
         <v>6</v>
       </c>
       <c r="AX9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA9" t="n">
         <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC9" t="n">
         <v>501</v>
@@ -2203,16 +2203,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H10" t="n">
         <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="K10" t="n">
         <v>2.63</v>
@@ -2251,13 +2251,13 @@
         <v>1.83</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
         <v>7</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
         <v>8.5</v>
@@ -2281,22 +2281,22 @@
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>26</v>
       </c>
-      <c r="AI10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>29</v>
-      </c>
       <c r="AK10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM10" t="n">
         <v>51</v>
@@ -2409,10 +2409,10 @@
         <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q11" t="n">
         <v>2.1</v>
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H12" t="n">
         <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J12" t="n">
         <v>3.4</v>
@@ -2582,7 +2582,7 @@
         <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2597,10 +2597,10 @@
         <v>3.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S12" t="n">
         <v>1.44</v>
@@ -2615,13 +2615,13 @@
         <v>1.91</v>
       </c>
       <c r="W12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X12" t="n">
         <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
         <v>29</v>
@@ -2651,7 +2651,7 @@
         <v>8.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ12" t="n">
         <v>10</v>
@@ -2681,7 +2681,7 @@
         <v>67</v>
       </c>
       <c r="AS12" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT12" t="n">
         <v>2.63</v>
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
         <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J13" t="n">
         <v>2.75</v>
@@ -2764,13 +2764,13 @@
         <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.33</v>
@@ -2779,16 +2779,16 @@
         <v>3.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
         <v>1.8</v>
       </c>
       <c r="S13" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U13" t="n">
         <v>1.83</v>
@@ -2806,7 +2806,7 @@
         <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA13" t="n">
         <v>17</v>
@@ -2827,16 +2827,16 @@
         <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH13" t="n">
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK13" t="n">
         <v>41</v>
@@ -2866,7 +2866,7 @@
         <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU13" t="n">
         <v>8</v>
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H14" t="n">
         <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K14" t="n">
         <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2961,16 +2961,16 @@
         <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R14" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S14" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T14" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U14" t="n">
         <v>1.73</v>
@@ -2982,10 +2982,10 @@
         <v>8.5</v>
       </c>
       <c r="X14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z14" t="n">
         <v>21</v>
@@ -3003,7 +3003,7 @@
         <v>6.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF14" t="n">
         <v>41</v>
@@ -3021,7 +3021,7 @@
         <v>11</v>
       </c>
       <c r="AK14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL14" t="n">
         <v>23</v>
@@ -3030,7 +3030,7 @@
         <v>29</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO14" t="n">
         <v>13</v>
@@ -3048,7 +3048,7 @@
         <v>151</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU14" t="n">
         <v>7.5</v>
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H16" t="n">
         <v>3.5</v>
@@ -3355,7 +3355,7 @@
         <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB16" t="n">
         <v>29</v>
@@ -3376,7 +3376,7 @@
         <v>251</v>
       </c>
       <c r="AH16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI16" t="n">
         <v>15</v>
@@ -3400,13 +3400,13 @@
         <v>12</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
         <v>41</v>
       </c>
       <c r="AR16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS16" t="n">
         <v>151</v>
@@ -3480,7 +3480,7 @@
         <v>1.75</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
         <v>4.5</v>
@@ -3498,7 +3498,7 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O17" t="n">
         <v>1.22</v>
@@ -3680,7 +3680,7 @@
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.3</v>
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="G19" t="n">
+        <v>4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J19" t="n">
         <v>4.33</v>
       </c>
-      <c r="H19" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4.5</v>
-      </c>
       <c r="K19" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L19" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
@@ -3877,37 +3877,37 @@
         <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T19" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U19" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V19" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z19" t="n">
         <v>41</v>
       </c>
       <c r="AA19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB19" t="n">
         <v>34</v>
       </c>
       <c r="AC19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD19" t="n">
         <v>7</v>
@@ -3919,10 +3919,10 @@
         <v>41</v>
       </c>
       <c r="AG19" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI19" t="n">
         <v>9.5</v>
@@ -3934,10 +3934,10 @@
         <v>15</v>
       </c>
       <c r="AL19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN19" t="n">
         <v>6</v>
@@ -3958,7 +3958,7 @@
         <v>151</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU19" t="n">
         <v>7.5</v>
@@ -3970,19 +3970,19 @@
         <v>4</v>
       </c>
       <c r="AX19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB19" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC19" t="n">
         <v>501</v>
@@ -4023,13 +4023,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H20" t="n">
         <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J20" t="n">
         <v>3.75</v>
@@ -4038,7 +4038,7 @@
         <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
@@ -4065,10 +4065,10 @@
         <v>3</v>
       </c>
       <c r="U20" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V20" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W20" t="n">
         <v>11</v>
@@ -4083,10 +4083,10 @@
         <v>34</v>
       </c>
       <c r="AA20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="n">
         <v>11</v>
@@ -4101,40 +4101,40 @@
         <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH20" t="n">
         <v>8.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="n">
         <v>9</v>
       </c>
       <c r="AK20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="n">
         <v>17</v>
       </c>
       <c r="AM20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN20" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ20" t="n">
         <v>51</v>
       </c>
       <c r="AR20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS20" t="n">
         <v>151</v>
@@ -4152,7 +4152,7 @@
         <v>4.33</v>
       </c>
       <c r="AX20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY20" t="n">
         <v>21</v>
@@ -4205,16 +4205,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H21" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J21" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K21" t="n">
         <v>2.3</v>
@@ -4229,16 +4229,16 @@
         <v>15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R21" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S21" t="n">
         <v>1.3</v>
@@ -4247,10 +4247,10 @@
         <v>3.4</v>
       </c>
       <c r="U21" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V21" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W21" t="n">
         <v>10</v>
@@ -4265,7 +4265,7 @@
         <v>21</v>
       </c>
       <c r="AA21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB21" t="n">
         <v>21</v>
@@ -4295,7 +4295,7 @@
         <v>11</v>
       </c>
       <c r="AK21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL21" t="n">
         <v>21</v>
@@ -4331,7 +4331,7 @@
         <v>41</v>
       </c>
       <c r="AW21" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX21" t="n">
         <v>15</v>
@@ -4387,22 +4387,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="H22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K22" t="n">
         <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
@@ -4417,13 +4417,13 @@
         <v>2.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S22" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T22" t="n">
         <v>2.5</v>
@@ -4435,16 +4435,16 @@
         <v>1.8</v>
       </c>
       <c r="W22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X22" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y22" t="n">
         <v>10</v>
       </c>
-      <c r="Y22" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA22" t="n">
         <v>21</v>
@@ -4468,16 +4468,16 @@
         <v>351</v>
       </c>
       <c r="AH22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL22" t="n">
         <v>29</v>
@@ -4486,19 +4486,19 @@
         <v>41</v>
       </c>
       <c r="AN22" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP22" t="n">
         <v>26</v>
       </c>
       <c r="AQ22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS22" t="n">
         <v>201</v>
@@ -4516,7 +4516,7 @@
         <v>5</v>
       </c>
       <c r="AX22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY22" t="n">
         <v>29</v>
@@ -4525,7 +4525,7 @@
         <v>67</v>
       </c>
       <c r="BA22" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB22" t="n">
         <v>251</v>
@@ -4569,16 +4569,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H23" t="n">
         <v>3.75</v>
       </c>
       <c r="I23" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K23" t="n">
         <v>2.4</v>
@@ -4599,16 +4599,16 @@
         <v>5.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R23" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S23" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="T23" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U23" t="n">
         <v>1.44</v>
@@ -4626,7 +4626,7 @@
         <v>10</v>
       </c>
       <c r="Z23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA23" t="n">
         <v>17</v>
@@ -4668,10 +4668,10 @@
         <v>21</v>
       </c>
       <c r="AN23" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP23" t="n">
         <v>17</v>
@@ -4686,7 +4686,7 @@
         <v>101</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU23" t="n">
         <v>7</v>
@@ -4751,13 +4751,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H24" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I24" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J24" t="n">
         <v>2.4</v>
@@ -4769,40 +4769,40 @@
         <v>5.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P24" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R24" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S24" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T24" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V24" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W24" t="n">
         <v>6</v>
       </c>
       <c r="X24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y24" t="n">
         <v>9</v>
@@ -4811,7 +4811,7 @@
         <v>13</v>
       </c>
       <c r="AA24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB24" t="n">
         <v>34</v>
@@ -4835,7 +4835,7 @@
         <v>10</v>
       </c>
       <c r="AI24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ24" t="n">
         <v>15</v>
@@ -4847,7 +4847,7 @@
         <v>41</v>
       </c>
       <c r="AM24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN24" t="n">
         <v>3.6</v>
@@ -4889,7 +4889,7 @@
         <v>101</v>
       </c>
       <c r="BA24" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB24" t="n">
         <v>351</v>
@@ -4933,28 +4933,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="H25" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I25" t="n">
+        <v>5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L25" t="n">
         <v>5.5</v>
       </c>
-      <c r="J25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L25" t="n">
-        <v>6</v>
-      </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O25" t="n">
         <v>1.25</v>
@@ -4969,7 +4969,7 @@
         <v>1.98</v>
       </c>
       <c r="S25" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T25" t="n">
         <v>3</v>
@@ -4981,16 +4981,16 @@
         <v>1.8</v>
       </c>
       <c r="W25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y25" t="n">
         <v>8.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA25" t="n">
         <v>13</v>
@@ -4999,7 +4999,7 @@
         <v>26</v>
       </c>
       <c r="AC25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD25" t="n">
         <v>8</v>
@@ -5017,13 +5017,13 @@
         <v>13</v>
       </c>
       <c r="AI25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL25" t="n">
         <v>41</v>
@@ -5032,19 +5032,19 @@
         <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP25" t="n">
         <v>19</v>
       </c>
       <c r="AQ25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS25" t="n">
         <v>151</v>
@@ -5059,16 +5059,16 @@
         <v>51</v>
       </c>
       <c r="AW25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY25" t="n">
         <v>34</v>
       </c>
       <c r="AZ25" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA25" t="n">
         <v>126</v>
@@ -5133,10 +5133,10 @@
         <v>3.6</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
         <v>1.33</v>
@@ -5297,22 +5297,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H27" t="n">
         <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K27" t="n">
         <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
@@ -5321,16 +5321,16 @@
         <v>11</v>
       </c>
       <c r="O27" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R27" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S27" t="n">
         <v>1.4</v>
@@ -5345,19 +5345,19 @@
         <v>1.95</v>
       </c>
       <c r="W27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB27" t="n">
         <v>29</v>
@@ -5378,37 +5378,37 @@
         <v>251</v>
       </c>
       <c r="AH27" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK27" t="n">
         <v>34</v>
       </c>
       <c r="AL27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM27" t="n">
         <v>34</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ27" t="n">
         <v>41</v>
       </c>
       <c r="AR27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS27" t="n">
         <v>151</v>
@@ -5423,16 +5423,16 @@
         <v>51</v>
       </c>
       <c r="AW27" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY27" t="n">
         <v>26</v>
       </c>
       <c r="AZ27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA27" t="n">
         <v>81</v>
@@ -8227,10 +8227,10 @@
         <v>3.75</v>
       </c>
       <c r="M43" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N43" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O43" t="n">
         <v>1.44</v>
@@ -10211,13 +10211,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H54" t="n">
         <v>3.4</v>
       </c>
       <c r="I54" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
         <v>2.88</v>
@@ -10262,7 +10262,7 @@
         <v>10</v>
       </c>
       <c r="X54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y54" t="n">
         <v>9.5</v>
@@ -10349,7 +10349,7 @@
         <v>51</v>
       </c>
       <c r="BA54" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB54" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
@@ -777,10 +777,10 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -1323,10 +1323,10 @@
         <v>2.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S5" t="n">
         <v>1.67</v>
@@ -2532,7 +2532,7 @@
         <v>501</v>
       </c>
       <c r="BD11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
@@ -2770,7 +2770,7 @@
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
         <v>1.33</v>
@@ -2931,13 +2931,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
         <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J14" t="n">
         <v>2.88</v>
@@ -2979,7 +2979,7 @@
         <v>2</v>
       </c>
       <c r="W14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X14" t="n">
         <v>11</v>
@@ -2991,7 +2991,7 @@
         <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB14" t="n">
         <v>26</v>
@@ -3033,7 +3033,7 @@
         <v>4.33</v>
       </c>
       <c r="AO14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP14" t="n">
         <v>21</v>
@@ -3143,10 +3143,10 @@
         <v>3.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R15" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S15" t="n">
         <v>1.4</v>
@@ -3260,7 +3260,7 @@
         <v>501</v>
       </c>
       <c r="BD15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
@@ -3480,37 +3480,37 @@
         <v>1.75</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I17" t="n">
         <v>4.5</v>
       </c>
       <c r="J17" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K17" t="n">
         <v>2.3</v>
       </c>
       <c r="L17" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S17" t="n">
         <v>1.33</v>
@@ -3519,16 +3519,16 @@
         <v>3.25</v>
       </c>
       <c r="U17" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y17" t="n">
         <v>8.5</v>
@@ -3540,25 +3540,25 @@
         <v>13</v>
       </c>
       <c r="AB17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD17" t="n">
         <v>7</v>
       </c>
       <c r="AE17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH17" t="n">
         <v>15</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>13</v>
       </c>
       <c r="AI17" t="n">
         <v>23</v>
@@ -3573,31 +3573,31 @@
         <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO17" t="n">
         <v>9</v>
       </c>
       <c r="AP17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ17" t="n">
         <v>29</v>
       </c>
       <c r="AR17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS17" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT17" t="n">
         <v>3.25</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
@@ -3606,19 +3606,19 @@
         <v>6</v>
       </c>
       <c r="AX17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ17" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA17" t="n">
         <v>81</v>
       </c>
       <c r="BB17" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC17" t="n">
         <v>501</v>
@@ -3692,13 +3692,13 @@
         <v>2.05</v>
       </c>
       <c r="R18" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S18" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T18" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U18" t="n">
         <v>1.8</v>
@@ -3764,7 +3764,7 @@
         <v>12</v>
       </c>
       <c r="AP18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ18" t="n">
         <v>41</v>
@@ -3776,7 +3776,7 @@
         <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU18" t="n">
         <v>8</v>
@@ -4023,7 +4023,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H20" t="n">
         <v>3.5</v>
@@ -4041,10 +4041,10 @@
         <v>2.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
         <v>1.25</v>
@@ -4053,10 +4053,10 @@
         <v>3.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S20" t="n">
         <v>1.36</v>
@@ -4086,10 +4086,10 @@
         <v>26</v>
       </c>
       <c r="AB20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD20" t="n">
         <v>6.5</v>
@@ -4107,7 +4107,7 @@
         <v>8.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ20" t="n">
         <v>9</v>
@@ -4119,22 +4119,22 @@
         <v>17</v>
       </c>
       <c r="AM20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN20" t="n">
         <v>5.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ20" t="n">
         <v>51</v>
       </c>
       <c r="AR20" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS20" t="n">
         <v>151</v>
@@ -4235,10 +4235,10 @@
         <v>4.33</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R21" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S21" t="n">
         <v>1.3</v>
@@ -4408,7 +4408,7 @@
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
         <v>1.4</v>
@@ -4417,13 +4417,13 @@
         <v>2.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R22" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S22" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T22" t="n">
         <v>2.5</v>
@@ -4605,7 +4605,7 @@
         <v>2.5</v>
       </c>
       <c r="S23" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T23" t="n">
         <v>3.75</v>
@@ -4751,16 +4751,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H24" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I24" t="n">
         <v>4.75</v>
       </c>
       <c r="J24" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K24" t="n">
         <v>2.1</v>
@@ -4769,10 +4769,10 @@
         <v>5.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
         <v>1.36</v>
@@ -4787,10 +4787,10 @@
         <v>1.67</v>
       </c>
       <c r="S24" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T24" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U24" t="n">
         <v>2.1</v>
@@ -4805,7 +4805,7 @@
         <v>7</v>
       </c>
       <c r="Y24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z24" t="n">
         <v>13</v>
@@ -4817,10 +4817,10 @@
         <v>34</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE24" t="n">
         <v>21</v>
@@ -4832,7 +4832,7 @@
         <v>501</v>
       </c>
       <c r="AH24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI24" t="n">
         <v>23</v>
@@ -4850,16 +4850,16 @@
         <v>51</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP24" t="n">
         <v>23</v>
       </c>
       <c r="AQ24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR24" t="n">
         <v>51</v>
@@ -4969,7 +4969,7 @@
         <v>1.98</v>
       </c>
       <c r="S25" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T25" t="n">
         <v>3</v>
@@ -5133,22 +5133,22 @@
         <v>3.6</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P26" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R26" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S26" t="n">
         <v>1.44</v>
@@ -5321,16 +5321,16 @@
         <v>11</v>
       </c>
       <c r="O27" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P27" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R27" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S27" t="n">
         <v>1.4</v>
@@ -10605,10 +10605,10 @@
         <v>4</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R56" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S56" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K3" t="n">
         <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>
@@ -980,7 +980,7 @@
         <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
@@ -989,7 +989,7 @@
         <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
@@ -998,22 +998,22 @@
         <v>8.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
         <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>13</v>
@@ -1028,10 +1028,10 @@
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
@@ -1040,7 +1040,7 @@
         <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
         <v>201</v>
@@ -1055,16 +1055,16 @@
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
         <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
         <v>101</v>
@@ -1475,19 +1475,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
         <v>5</v>
@@ -1496,7 +1496,7 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1577,7 +1577,7 @@
         <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
         <v>23</v>
@@ -1610,7 +1610,7 @@
         <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA6" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
@@ -938,13 +938,13 @@
         <v>3.9</v>
       </c>
       <c r="J3" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -965,7 +965,7 @@
         <v>1.67</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="T3" t="n">
         <v>2.63</v>
@@ -1028,52 +1028,52 @@
         <v>41</v>
       </c>
       <c r="AN3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT3" t="n">
         <v>3.75</v>
       </c>
-      <c r="AO3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP3" t="n">
+      <c r="AU3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY3" t="n">
         <v>23</v>
       </c>
-      <c r="AQ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV3" t="n">
+      <c r="AZ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA3" t="n">
         <v>67</v>
       </c>
-      <c r="AW3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>101</v>
-      </c>
       <c r="BB3" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BC3" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="BD3" t="n">
         <v>51</v>
@@ -1496,7 +1496,7 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1505,10 +1505,10 @@
         <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>
@@ -7138,7 +7138,7 @@
         <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O37" t="n">
         <v>1.25</v>
@@ -7159,10 +7159,10 @@
         <v>3</v>
       </c>
       <c r="U37" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V37" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W37" t="n">
         <v>15</v>
@@ -7183,7 +7183,7 @@
         <v>41</v>
       </c>
       <c r="AC37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD37" t="n">
         <v>7</v>
@@ -7219,7 +7219,7 @@
         <v>6.5</v>
       </c>
       <c r="AO37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP37" t="n">
         <v>29</v>
@@ -7246,7 +7246,7 @@
         <v>3.75</v>
       </c>
       <c r="AX37" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AY37" t="n">
         <v>19</v>
@@ -7299,7 +7299,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H38" t="n">
         <v>3.6</v>
@@ -7308,19 +7308,19 @@
         <v>5</v>
       </c>
       <c r="J38" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K38" t="n">
         <v>2.25</v>
       </c>
       <c r="L38" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M38" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O38" t="n">
         <v>1.25</v>
@@ -7329,10 +7329,10 @@
         <v>3.75</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R38" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S38" t="n">
         <v>1.36</v>
@@ -7362,13 +7362,13 @@
         <v>13</v>
       </c>
       <c r="AB38" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD38" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE38" t="n">
         <v>15</v>
@@ -7377,13 +7377,13 @@
         <v>51</v>
       </c>
       <c r="AG38" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH38" t="n">
         <v>13</v>
       </c>
       <c r="AI38" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ38" t="n">
         <v>15</v>
@@ -7499,7 +7499,7 @@
         <v>4.75</v>
       </c>
       <c r="M39" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="N39" t="n">
         <v>1.05</v>
@@ -9301,22 +9301,22 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H49" t="n">
         <v>3.6</v>
       </c>
       <c r="I49" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J49" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K49" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L49" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M49" t="n">
         <v>1.05</v>
@@ -9331,10 +9331,10 @@
         <v>3.75</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R49" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S49" t="n">
         <v>1.36</v>
@@ -9358,7 +9358,7 @@
         <v>8.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA49" t="n">
         <v>13</v>
@@ -9379,7 +9379,7 @@
         <v>51</v>
       </c>
       <c r="AG49" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH49" t="n">
         <v>15</v>
@@ -9412,7 +9412,7 @@
         <v>26</v>
       </c>
       <c r="AR49" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS49" t="n">
         <v>126</v>
@@ -9427,7 +9427,7 @@
         <v>51</v>
       </c>
       <c r="AW49" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX49" t="n">
         <v>26</v>
@@ -9436,7 +9436,7 @@
         <v>34</v>
       </c>
       <c r="AZ49" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA49" t="n">
         <v>101</v>
@@ -9445,7 +9445,7 @@
         <v>201</v>
       </c>
       <c r="BC49" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD49" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
@@ -938,13 +938,13 @@
         <v>3.9</v>
       </c>
       <c r="J3" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -965,7 +965,7 @@
         <v>1.67</v>
       </c>
       <c r="S3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T3" t="n">
         <v>2.63</v>
@@ -1031,22 +1031,22 @@
         <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ3" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AR3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU3" t="n">
         <v>7</v>
@@ -1055,7 +1055,7 @@
         <v>41</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
         <v>21</v>
@@ -1064,16 +1064,16 @@
         <v>23</v>
       </c>
       <c r="AZ3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
         <v>67</v>
       </c>
       <c r="BB3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD3" t="n">
         <v>51</v>
@@ -7299,13 +7299,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H38" t="n">
         <v>3.6</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J38" t="n">
         <v>2.3</v>
@@ -7314,7 +7314,7 @@
         <v>2.25</v>
       </c>
       <c r="L38" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M38" t="n">
         <v>1.05</v>
@@ -7329,10 +7329,10 @@
         <v>3.75</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R38" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S38" t="n">
         <v>1.36</v>
@@ -7350,7 +7350,7 @@
         <v>7.5</v>
       </c>
       <c r="X38" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y38" t="n">
         <v>8.5</v>
@@ -7362,7 +7362,7 @@
         <v>13</v>
       </c>
       <c r="AB38" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC38" t="n">
         <v>11</v>
@@ -7377,13 +7377,13 @@
         <v>51</v>
       </c>
       <c r="AG38" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH38" t="n">
         <v>13</v>
       </c>
       <c r="AI38" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ38" t="n">
         <v>15</v>
@@ -7428,7 +7428,7 @@
         <v>6.5</v>
       </c>
       <c r="AX38" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY38" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
@@ -929,19 +929,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="L3" t="n">
         <v>4.5</v>
@@ -950,73 +950,73 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T3" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
         <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
         <v>17</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
         <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
         <v>41</v>
@@ -1031,22 +1031,22 @@
         <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AT3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU3" t="n">
         <v>7</v>
@@ -1055,7 +1055,7 @@
         <v>41</v>
       </c>
       <c r="AW3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX3" t="n">
         <v>21</v>
@@ -1070,10 +1070,10 @@
         <v>67</v>
       </c>
       <c r="BB3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD3" t="n">
         <v>51</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -1135,46 +1135,46 @@
         <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
         <v>7</v>
@@ -1183,43 +1183,43 @@
         <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
         <v>501</v>
       </c>
       <c r="AH4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO4" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>11</v>
       </c>
       <c r="AP4" t="n">
         <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
         <v>67</v>
@@ -1231,28 +1231,28 @@
         <v>2.38</v>
       </c>
       <c r="AU4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY4" t="n">
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA4" t="n">
         <v>151</v>
       </c>
       <c r="BB4" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
         <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.14</v>
@@ -1323,10 +1323,10 @@
         <v>2.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S5" t="n">
         <v>1.67</v>
@@ -1344,16 +1344,16 @@
         <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y5" t="n">
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
@@ -1362,13 +1362,13 @@
         <v>5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="n">
         <v>201</v>
@@ -1377,7 +1377,7 @@
         <v>7.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
         <v>15</v>
@@ -1419,10 +1419,10 @@
         <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY5" t="n">
         <v>41</v>
@@ -1475,76 +1475,76 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J6" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
       </c>
       <c r="Z6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA6" t="n">
         <v>15</v>
       </c>
-      <c r="AA6" t="n">
-        <v>17</v>
-      </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
         <v>19</v>
@@ -1556,10 +1556,10 @@
         <v>351</v>
       </c>
       <c r="AH6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
         <v>15</v>
@@ -1571,28 +1571,28 @@
         <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP6" t="n">
         <v>23</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU6" t="n">
         <v>9</v>
@@ -1601,7 +1601,7 @@
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX6" t="n">
         <v>26</v>
@@ -1616,7 +1616,7 @@
         <v>126</v>
       </c>
       <c r="BB6" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC6" t="n">
         <v>81</v>
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H7" t="n">
         <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K7" t="n">
         <v>1.95</v>
       </c>
       <c r="L7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N7" t="n">
         <v>6</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.53</v>
@@ -1699,10 +1699,10 @@
         <v>2.25</v>
       </c>
       <c r="U7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W7" t="n">
         <v>4.75</v>
@@ -1714,7 +1714,7 @@
         <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA7" t="n">
         <v>19</v>
@@ -1726,7 +1726,7 @@
         <v>6</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>23</v>
@@ -1738,10 +1738,10 @@
         <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ7" t="n">
         <v>21</v>
@@ -1777,25 +1777,25 @@
         <v>2.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW7" t="n">
         <v>7</v>
       </c>
       <c r="AX7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ7" t="n">
         <v>151</v>
       </c>
       <c r="BA7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB7" t="n">
         <v>501</v>
@@ -1839,34 +1839,34 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
         <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P8" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q8" t="n">
         <v>2.35</v>
@@ -1875,10 +1875,10 @@
         <v>1.57</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U8" t="n">
         <v>2.1</v>
@@ -1887,19 +1887,19 @@
         <v>1.67</v>
       </c>
       <c r="W8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z8" t="n">
         <v>15</v>
       </c>
       <c r="AA8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="n">
         <v>34</v>
@@ -1920,16 +1920,16 @@
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI8" t="n">
         <v>21</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="n">
         <v>41</v>
@@ -1938,16 +1938,16 @@
         <v>51</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
         <v>67</v>
@@ -1956,7 +1956,7 @@
         <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU8" t="n">
         <v>9</v>
@@ -1968,16 +1968,16 @@
         <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY8" t="n">
         <v>41</v>
       </c>
       <c r="AZ8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB8" t="n">
         <v>351</v>
@@ -7129,34 +7129,34 @@
         <v>5</v>
       </c>
       <c r="K37" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L37" t="n">
         <v>2.25</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.3</v>
       </c>
       <c r="M37" t="n">
         <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O37" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P37" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R37" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S37" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T37" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U37" t="n">
         <v>1.75</v>
@@ -7192,7 +7192,7 @@
         <v>15</v>
       </c>
       <c r="AF37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG37" t="n">
         <v>201</v>
@@ -7234,7 +7234,7 @@
         <v>201</v>
       </c>
       <c r="AT37" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU37" t="n">
         <v>8</v>
@@ -7246,7 +7246,7 @@
         <v>3.75</v>
       </c>
       <c r="AX37" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY37" t="n">
         <v>19</v>
@@ -7255,7 +7255,7 @@
         <v>29</v>
       </c>
       <c r="BA37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB37" t="n">
         <v>126</v>
@@ -7264,7 +7264,7 @@
         <v>501</v>
       </c>
       <c r="BD37" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38">
@@ -7329,10 +7329,10 @@
         <v>3.75</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="R38" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S38" t="n">
         <v>1.36</v>
@@ -7347,7 +7347,7 @@
         <v>1.95</v>
       </c>
       <c r="W38" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X38" t="n">
         <v>8</v>
@@ -7413,7 +7413,7 @@
         <v>51</v>
       </c>
       <c r="AS38" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT38" t="n">
         <v>3</v>
@@ -7431,7 +7431,7 @@
         <v>26</v>
       </c>
       <c r="AY38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ38" t="n">
         <v>81</v>
@@ -7481,40 +7481,40 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="H39" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>4.45</v>
+        <v>4.25</v>
       </c>
       <c r="J39" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="K39" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="L39" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="M39" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="N39" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="O39" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P39" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R39" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S39" t="n">
         <v>1.4</v>
@@ -7523,22 +7523,22 @@
         <v>2.5</v>
       </c>
       <c r="U39" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V39" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="W39" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X39" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
       </c>
       <c r="Z39" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA39" t="n">
         <v>14</v>
@@ -7547,34 +7547,34 @@
         <v>26</v>
       </c>
       <c r="AC39" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD39" t="n">
         <v>6.7</v>
       </c>
       <c r="AE39" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF39" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG39" t="n">
         <v>600</v>
       </c>
       <c r="AH39" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AI39" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ39" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK39" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AL39" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM39" t="n">
         <v>50</v>
@@ -7583,34 +7583,34 @@
         <v>3.6</v>
       </c>
       <c r="AO39" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AP39" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ39" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AR39" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AS39" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT39" t="n">
-        <v>2.62</v>
+        <v>2.47</v>
       </c>
       <c r="AU39" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AV39" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW39" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AX39" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY39" t="n">
         <v>30</v>
@@ -9483,13 +9483,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="H50" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J50" t="n">
         <v>1.57</v>
@@ -9498,7 +9498,7 @@
         <v>2.75</v>
       </c>
       <c r="L50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M50" t="n">
         <v>1.03</v>
@@ -9507,22 +9507,22 @@
         <v>17</v>
       </c>
       <c r="O50" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P50" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R50" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S50" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T50" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U50" t="n">
         <v>2.63</v>
@@ -9531,19 +9531,19 @@
         <v>1.44</v>
       </c>
       <c r="W50" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X50" t="n">
         <v>5.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z50" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB50" t="n">
         <v>41</v>
@@ -9552,10 +9552,10 @@
         <v>13</v>
       </c>
       <c r="AD50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE50" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF50" t="n">
         <v>126</v>
@@ -9564,22 +9564,22 @@
         <v>201</v>
       </c>
       <c r="AH50" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI50" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ50" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK50" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL50" t="n">
         <v>101</v>
       </c>
       <c r="AM50" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN50" t="n">
         <v>3</v>
@@ -9600,7 +9600,7 @@
         <v>151</v>
       </c>
       <c r="AT50" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU50" t="n">
         <v>12</v>
@@ -9612,7 +9612,7 @@
         <v>13</v>
       </c>
       <c r="AX50" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AY50" t="n">
         <v>51</v>
@@ -9627,7 +9627,7 @@
         <v>501</v>
       </c>
       <c r="BC50" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD50" t="n">
         <v>151</v>
@@ -9665,7 +9665,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="H51" t="n">
         <v>7</v>
@@ -9674,37 +9674,37 @@
         <v>17</v>
       </c>
       <c r="J51" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="K51" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L51" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M51" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N51" t="n">
         <v>13</v>
       </c>
       <c r="O51" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P51" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="R51" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="S51" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T51" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U51" t="n">
         <v>3.75</v>
@@ -9713,10 +9713,10 @@
         <v>1.25</v>
       </c>
       <c r="W51" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X51" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Y51" t="n">
         <v>13</v>
@@ -9734,13 +9734,13 @@
         <v>10</v>
       </c>
       <c r="AD51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE51" t="n">
         <v>51</v>
       </c>
       <c r="AF51" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AG51" t="n">
         <v>201</v>
@@ -9749,7 +9749,7 @@
         <v>23</v>
       </c>
       <c r="AI51" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ51" t="n">
         <v>41</v>
@@ -9761,7 +9761,7 @@
         <v>201</v>
       </c>
       <c r="AM51" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AN51" t="n">
         <v>2.75</v>
@@ -9773,7 +9773,7 @@
         <v>29</v>
       </c>
       <c r="AQ51" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR51" t="n">
         <v>51</v>
@@ -9782,7 +9782,7 @@
         <v>351</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU51" t="n">
         <v>17</v>
@@ -9794,10 +9794,10 @@
         <v>17</v>
       </c>
       <c r="AX51" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AY51" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AZ51" t="n">
         <v>351</v>
@@ -10575,76 +10575,76 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H56" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I56" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J56" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K56" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L56" t="n">
         <v>3.25</v>
       </c>
       <c r="M56" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N56" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O56" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P56" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="R56" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S56" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T56" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U56" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V56" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W56" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X56" t="n">
         <v>13</v>
       </c>
       <c r="Y56" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z56" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA56" t="n">
         <v>19</v>
       </c>
       <c r="AB56" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC56" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD56" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE56" t="n">
         <v>12</v>
@@ -10656,7 +10656,7 @@
         <v>151</v>
       </c>
       <c r="AH56" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI56" t="n">
         <v>15</v>
@@ -10692,16 +10692,16 @@
         <v>126</v>
       </c>
       <c r="AT56" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU56" t="n">
         <v>7.5</v>
       </c>
       <c r="AV56" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW56" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX56" t="n">
         <v>15</v>
@@ -10710,16 +10710,16 @@
         <v>21</v>
       </c>
       <c r="AZ56" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA56" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB56" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC56" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD56" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>6.25</v>
+        <v>5.25</v>
       </c>
       <c r="J7" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.13</v>
@@ -1699,22 +1699,22 @@
         <v>2.25</v>
       </c>
       <c r="U7" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="V7" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="W7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y7" t="n">
         <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
         <v>19</v>
@@ -1726,49 +1726,49 @@
         <v>6</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG7" t="n">
         <v>201</v>
       </c>
       <c r="AH7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO7" t="n">
         <v>11</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>9.5</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS7" t="n">
         <v>301</v>
@@ -1777,25 +1777,25 @@
         <v>2.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AY7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA7" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB7" t="n">
         <v>501</v>
@@ -1839,34 +1839,34 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H8" t="n">
         <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q8" t="n">
         <v>2.35</v>
@@ -1896,7 +1896,7 @@
         <v>9.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
         <v>19</v>
@@ -1920,10 +1920,10 @@
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ8" t="n">
         <v>15</v>
@@ -1935,7 +1935,7 @@
         <v>41</v>
       </c>
       <c r="AM8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN8" t="n">
         <v>3.75</v>
@@ -1965,13 +1965,13 @@
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ8" t="n">
         <v>81</v>
@@ -7147,10 +7147,10 @@
         <v>4</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R37" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S37" t="n">
         <v>1.33</v>
@@ -7329,10 +7329,10 @@
         <v>3.75</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="R38" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="S38" t="n">
         <v>1.36</v>
@@ -9683,13 +9683,13 @@
         <v>19</v>
       </c>
       <c r="M51" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N51" t="n">
         <v>13</v>
       </c>
       <c r="O51" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P51" t="n">
         <v>3.75</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
         <v>2.63</v>
@@ -1675,10 +1675,10 @@
         <v>5.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.53</v>
@@ -1693,10 +1693,10 @@
         <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U7" t="n">
         <v>2.38</v>
@@ -1717,7 +1717,7 @@
         <v>15</v>
       </c>
       <c r="AA7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
         <v>41</v>
@@ -1732,7 +1732,7 @@
         <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG7" t="n">
         <v>201</v>
@@ -1774,7 +1774,7 @@
         <v>301</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU7" t="n">
         <v>10</v>
@@ -1869,10 +1869,10 @@
         <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S8" t="n">
         <v>1.53</v>
@@ -7117,28 +7117,28 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="H37" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I37" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="J37" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="K37" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L37" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="M37" t="n">
         <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O37" t="n">
         <v>1.22</v>
@@ -7147,115 +7147,115 @@
         <v>4</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R37" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S37" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T37" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U37" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V37" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X37" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA37" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AB37" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC37" t="n">
         <v>12</v>
       </c>
       <c r="AD37" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF37" t="n">
         <v>41</v>
       </c>
       <c r="AG37" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH37" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI37" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AJ37" t="n">
         <v>8.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM37" t="n">
         <v>23</v>
       </c>
       <c r="AN37" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO37" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ37" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR37" t="n">
         <v>81</v>
       </c>
-      <c r="AR37" t="n">
-        <v>101</v>
-      </c>
       <c r="AS37" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT37" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU37" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV37" t="n">
         <v>51</v>
       </c>
       <c r="AW37" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX37" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AY37" t="n">
         <v>19</v>
       </c>
       <c r="AZ37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB37" t="n">
         <v>126</v>
@@ -7264,7 +7264,7 @@
         <v>501</v>
       </c>
       <c r="BD37" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38">
@@ -7299,16 +7299,16 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H38" t="n">
         <v>3.6</v>
       </c>
       <c r="I38" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J38" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K38" t="n">
         <v>2.25</v>
@@ -7323,16 +7323,16 @@
         <v>11</v>
       </c>
       <c r="O38" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P38" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="R38" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="S38" t="n">
         <v>1.36</v>
@@ -7347,10 +7347,10 @@
         <v>1.95</v>
       </c>
       <c r="W38" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X38" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y38" t="n">
         <v>8.5</v>
@@ -7365,10 +7365,10 @@
         <v>26</v>
       </c>
       <c r="AC38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD38" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE38" t="n">
         <v>15</v>
@@ -7413,7 +7413,7 @@
         <v>51</v>
       </c>
       <c r="AS38" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT38" t="n">
         <v>3</v>
@@ -7428,10 +7428,10 @@
         <v>6.5</v>
       </c>
       <c r="AX38" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ38" t="n">
         <v>81</v>
@@ -7481,40 +7481,40 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="H39" t="n">
         <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>4.25</v>
+        <v>3.8</v>
       </c>
       <c r="J39" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="K39" t="n">
         <v>2.07</v>
       </c>
       <c r="L39" t="n">
-        <v>4.6</v>
+        <v>4.25</v>
       </c>
       <c r="M39" t="n">
-        <v>8.300000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>1.03</v>
+        <v>9</v>
       </c>
       <c r="O39" t="n">
         <v>1.29</v>
       </c>
       <c r="P39" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R39" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S39" t="n">
         <v>1.4</v>
@@ -7529,28 +7529,28 @@
         <v>1.85</v>
       </c>
       <c r="W39" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="X39" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y39" t="n">
         <v>8.25</v>
       </c>
-      <c r="Y39" t="n">
-        <v>8</v>
-      </c>
       <c r="Z39" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AA39" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB39" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC39" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD39" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AE39" t="n">
         <v>15</v>
@@ -7562,37 +7562,37 @@
         <v>600</v>
       </c>
       <c r="AH39" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="AI39" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AJ39" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK39" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR39" t="n">
         <v>70</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>65</v>
       </c>
       <c r="AS39" t="n">
         <v>250</v>
@@ -7601,25 +7601,25 @@
         <v>2.47</v>
       </c>
       <c r="AU39" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AV39" t="n">
         <v>70</v>
       </c>
       <c r="AW39" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="AX39" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AY39" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ39" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA39" t="n">
         <v>150</v>
-      </c>
-      <c r="BA39" t="n">
-        <v>175</v>
       </c>
       <c r="BB39" t="n">
         <v>400</v>
@@ -9695,10 +9695,10 @@
         <v>3.75</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R51" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S51" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-22.xlsx
@@ -7117,7 +7117,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H37" t="n">
         <v>3.6</v>
@@ -7141,16 +7141,16 @@
         <v>12</v>
       </c>
       <c r="O37" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P37" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R37" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S37" t="n">
         <v>1.36</v>
@@ -7177,7 +7177,7 @@
         <v>41</v>
       </c>
       <c r="AA37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB37" t="n">
         <v>34</v>
@@ -7195,7 +7195,7 @@
         <v>41</v>
       </c>
       <c r="AG37" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH37" t="n">
         <v>8</v>
